--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etplatform\etc\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="701">
   <si>
     <t>F12506</t>
   </si>
@@ -2008,10 +2008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수 부가정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tm_jisu_inst_share</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2036,18 +2032,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(pk) file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(pk) row_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2081,14 +2069,6 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>tm_jisu_add_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 부가정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tm_jisu_inst_share</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2108,6 +2088,143 @@
   </si>
   <si>
     <t>지수 엑셀업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_content</t>
+  </si>
+  <si>
+    <t>tm_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분별 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분별 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분별 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_upload_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) hist_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력순번</t>
+  </si>
+  <si>
+    <t>이력순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 엑셀업로드 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 엑셀업로드 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_file_id</t>
+  </si>
+  <si>
+    <t>파일 ID(지수방법론)</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 방법론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 방법론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_upload_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 엑셀업로드 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hist_seq</t>
+  </si>
+  <si>
+    <t>jisu_file_id</t>
+  </si>
+  <si>
+    <t>소급지수 파일 ID</t>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+  </si>
+  <si>
+    <t>시퀀스</t>
+  </si>
+  <si>
+    <t>(pk) seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2300,7 +2417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2412,6 +2529,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2451,7 +2574,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13304520" y="594360"/>
+          <a:off x="13456920" y="594360"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -2710,7 +2833,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="11942587" y="2360158"/>
+          <a:off x="12094987" y="2360158"/>
           <a:ext cx="460269" cy="148870"/>
           <a:chOff x="7688591" y="565406"/>
           <a:chExt cx="685801" cy="221816"/>
@@ -2825,13 +2948,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>467889</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2841,7 +2964,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13312140" y="2811780"/>
+          <a:off x="13464540" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3040,7 +3163,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10500360" y="1927860"/>
+          <a:off x="10652760" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3283,13 +3406,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361163</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>58189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3421,6 +3544,205 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1125485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>215636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>73925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12965</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="그룹 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14969490" y="2510791"/>
+          <a:ext cx="460269" cy="289560"/>
+          <a:chOff x="7688580" y="571500"/>
+          <a:chExt cx="685800" cy="215722"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="직선 연결선 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7688580" y="678180"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="직선 연결선 37"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7818120" y="584378"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="직선 연결선 38"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8229600" y="576758"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="직선 연결선 39"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8221980" y="571500"/>
+            <a:ext cx="144780" cy="106680"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="41" name="직선 연결선 40"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221980" y="678180"/>
+            <a:ext cx="144780" cy="99060"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12613,18 +12935,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P72"/>
+  <dimension ref="B2:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.59765625" customWidth="1"/>
     <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.3984375" customWidth="1"/>
     <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
@@ -12633,8 +12956,8 @@
     <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.19921875" customWidth="1"/>
-    <col min="15" max="15" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
@@ -12642,7 +12965,7 @@
         <v>627</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
@@ -12653,11 +12976,15 @@
         <v>551</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>670</v>
+      </c>
       <c r="K3" s="33"/>
       <c r="L3" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>552</v>
@@ -12678,8 +13005,12 @@
         <v>633</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="I4" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>669</v>
+      </c>
       <c r="K4" s="33"/>
       <c r="L4" s="14" t="s">
         <v>631</v>
@@ -12697,13 +13028,17 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+        <v>554</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>700</v>
+      </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
@@ -12717,10 +13052,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
-        <v>642</v>
+        <v>549</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -12733,10 +13068,10 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>549</v>
+        <v>682</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>555</v>
+        <v>685</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -12749,7 +13084,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
-        <v>550</v>
+        <v>683</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>556</v>
@@ -12764,11 +13099,17 @@
       <c r="P8" s="33"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>677</v>
+      </c>
       <c r="I9" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>642</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>643</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="10" t="s">
@@ -12778,10 +13119,20 @@
         <v>601</v>
       </c>
       <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
+      <c r="O9" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B10" s="37" t="s">
+        <v>673</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>671</v>
+      </c>
       <c r="I10" s="14" t="s">
         <v>639</v>
       </c>
@@ -12796,37 +13147,35 @@
         <v>640</v>
       </c>
       <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
+      <c r="O10" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="32" t="s">
-        <v>655</v>
-      </c>
       <c r="I11" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>647</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
+      <c r="O11" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>652</v>
+      </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -12837,47 +13186,35 @@
       <c r="P12" s="33"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>652</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>558</v>
-      </c>
+      <c r="B13" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="10" t="s">
-        <v>547</v>
+        <v>684</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="N13" s="33"/>
-      <c r="O13" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>603</v>
-      </c>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>44</v>
@@ -12889,7 +13226,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -12901,29 +13238,31 @@
         <v>640</v>
       </c>
       <c r="N14" s="33"/>
-      <c r="O14" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>640</v>
+      <c r="O14" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="B15" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="8" t="s">
-        <v>562</v>
+      <c r="F15" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -12932,18 +13271,18 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="14" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>44</v>
@@ -12953,7 +13292,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
@@ -12962,15 +13301,15 @@
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>245</v>
@@ -12983,12 +13322,24 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+        <v>564</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>245</v>
@@ -13001,15 +13352,23 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+        <v>566</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>44</v>
@@ -13019,70 +13378,94 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+        <v>568</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="8" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="34" t="s">
-        <v>645</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B23" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="11" t="s">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>652</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="C24" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F24" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="H24" s="7"/>
       <c r="J24" s="7"/>
@@ -13090,12 +13473,12 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>44</v>
@@ -13105,113 +13488,111 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="8" t="s">
-        <v>656</v>
+        <v>577</v>
       </c>
       <c r="H25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="8" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
       <c r="H26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="34" t="s">
-        <v>661</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>662</v>
-      </c>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="H28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B29" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C30" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="36" t="s">
+      <c r="D30" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F30" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
@@ -13221,33 +13602,33 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="J32" s="35"/>
-      <c r="L32" s="35"/>
-    </row>
-    <row r="33" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>650</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>198</v>
+        <v>657</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>44</v>
@@ -13257,131 +13638,131 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="8" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>651</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="F38" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="9" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="34" t="s">
-        <v>663</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>604</v>
+      <c r="F42" s="3"/>
+      <c r="G42" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>44</v>
@@ -13390,34 +13771,34 @@
         <v>2</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="8" t="s">
-        <v>592</v>
+      <c r="G43" s="9" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>571</v>
+        <v>664</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>654</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="8" t="s">
-        <v>572</v>
+      <c r="G44" s="9" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
@@ -13426,188 +13807,188 @@
         <v>2</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="8" t="s">
-        <v>594</v>
+      <c r="G45" s="9" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>654</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="11" t="s">
+    <row r="50" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B51" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C51" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="D51" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>694</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B52" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="J53" s="35"/>
+      <c r="L53" s="35"/>
+    </row>
+    <row r="54" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B57" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="8" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>44</v>
@@ -13616,85 +13997,77 @@
         <v>2</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G57" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>654</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B59" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B60" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="34" t="s">
-        <v>667</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="11" t="s">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B62" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B63" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C63" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>658</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>654</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>658</v>
-      </c>
       <c r="D63" s="36" t="s">
-        <v>654</v>
+        <v>44</v>
       </c>
       <c r="E63" s="36" t="s">
         <v>2</v>
@@ -13702,52 +14075,52 @@
       <c r="F63" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B64" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="38" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="8" t="s">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="8" t="s">
+      <c r="C65" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
         <v>618</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>652</v>
+        <v>132</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>44</v>
@@ -13756,16 +14129,16 @@
         <v>6</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="8" t="s">
-        <v>622</v>
+      <c r="G66" s="9" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>652</v>
+        <v>132</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>44</v>
@@ -13774,16 +14147,16 @@
         <v>6</v>
       </c>
       <c r="F67" s="3"/>
-      <c r="G67" s="8" t="s">
-        <v>624</v>
+      <c r="G67" s="9" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>652</v>
+        <v>132</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>44</v>
@@ -13792,86 +14165,301 @@
         <v>6</v>
       </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="8" t="s">
-        <v>626</v>
+      <c r="G68" s="9" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="C82" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="8" t="s">
+      <c r="F82" s="9"/>
+      <c r="G82" s="9" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="8" t="s">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="C83" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="8" t="s">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="3" t="s">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="F86" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="8" t="s">
-        <v>433</v>
+      <c r="F87" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etplatform\etc\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="725">
   <si>
     <t>F12506</t>
   </si>
@@ -2148,83 +2148,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>method_file_id</t>
-  </si>
-  <si>
-    <t>파일 ID(지수방법론)</t>
+    <t>tm_jisu_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_upload_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 엑셀업로드 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hist_seq</t>
+  </si>
+  <si>
+    <t>jisu_file_id</t>
+  </si>
+  <si>
+    <t>소급지수 파일 ID</t>
+  </si>
+  <si>
+    <t>tm_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+  </si>
+  <si>
+    <t>시퀀스</t>
+  </si>
+  <si>
+    <t>(pk) seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_temp_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 저장전 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_temp_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 파일정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 저장전 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_method</t>
+    <t>지수 파일정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_upload</t>
+    <t>file_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_method</t>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수 방법론</t>
+    <t>파일ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수 방법론</t>
+    <t>mime_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_method</t>
+    <t>gubun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수 방법</t>
+    <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_upload_hist</t>
+    <t>구분 ( 지수방법론, 소급지수 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수 엑셀업로드 이력</t>
+    <t>method_file_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hist_seq</t>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_temp_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 저장전 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jisu_file_id</t>
-  </si>
-  <si>
-    <t>소급지수 파일 ID</t>
-  </si>
-  <si>
-    <t>PRI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_seq</t>
+    <t>파일ID (지수 방법론)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>bigint(20)</t>
-  </si>
-  <si>
-    <t>시퀀스</t>
-  </si>
-  <si>
-    <t>(pk) seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시퀀스</t>
+    <t>파일ID (소급지수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2345,7 +2443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2411,13 +2509,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2535,6 +2653,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2574,7 +2701,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13456920" y="594360"/>
+          <a:off x="13723620" y="594360"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -2755,197 +2882,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1160539</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>58662</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>116725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="타원 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6525019" y="2001636"/>
-          <a:ext cx="94463" cy="103909"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1133107</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>215638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85637</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12967</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="그룹 25"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="5400000">
-          <a:off x="12094987" y="2360158"/>
-          <a:ext cx="460269" cy="148870"/>
-          <a:chOff x="7688591" y="565406"/>
-          <a:chExt cx="685801" cy="221816"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="직선 연결선 26"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7688591" y="678180"/>
-            <a:ext cx="685801" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="28" name="직선 연결선 27"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7818120" y="584378"/>
-            <a:ext cx="0" cy="202844"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="29" name="직선 연결선 28"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8229603" y="565406"/>
-            <a:ext cx="0" cy="202844"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2964,7 +2900,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13464540" y="1927860"/>
+          <a:off x="13731240" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3163,7 +3099,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10652760" y="1927860"/>
+          <a:off x="10919460" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3566,7 +3502,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="14969490" y="2510791"/>
+          <a:off x="15236190" y="2510791"/>
           <a:ext cx="460269" cy="289560"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3743,6 +3679,265 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>475509</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="그룹 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10919460" y="3002280"/>
+          <a:ext cx="460269" cy="144780"/>
+          <a:chOff x="7688580" y="571500"/>
+          <a:chExt cx="685800" cy="215722"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="직선 연결선 50"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7688580" y="678180"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="직선 연결선 51"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7818120" y="584378"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="직선 연결선 52"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8229600" y="576758"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="직선 연결선 53"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8221980" y="571500"/>
+            <a:ext cx="144780" cy="106680"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="직선 연결선 54"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221980" y="678180"/>
+            <a:ext cx="144780" cy="99060"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139459</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233922</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="타원 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11043679" y="3685656"/>
+          <a:ext cx="94463" cy="103909"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5092,7 +5287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
@@ -8584,8 +8779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -10292,7 +10487,7 @@
   <dimension ref="B1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -12935,10 +13130,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P87"/>
+  <dimension ref="B2:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12950,7 +13145,7 @@
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.3984375" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.296875" customWidth="1"/>
     <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
@@ -13034,10 +13229,10 @@
         <v>554</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -13052,7 +13247,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
-        <v>549</v>
+        <v>691</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>555</v>
@@ -13068,10 +13263,10 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>685</v>
+        <v>556</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -13084,10 +13279,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>556</v>
+        <v>677</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -13099,11 +13294,11 @@
       <c r="P8" s="33"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>677</v>
+      <c r="B9" s="37" t="s">
+        <v>701</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>704</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>641</v>
@@ -13128,10 +13323,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="37" t="s">
-        <v>673</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>671</v>
+        <v>702</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>703</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>639</v>
@@ -13155,6 +13350,12 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B11" s="37" t="s">
+        <v>673</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>671</v>
+      </c>
       <c r="I11" s="14" t="s">
         <v>645</v>
       </c>
@@ -13173,9 +13374,6 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="32" t="s">
-        <v>652</v>
-      </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -13186,56 +13384,28 @@
       <c r="P12" s="33"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
-      <c r="L13" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>686</v>
-      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>700</v>
+      </c>
       <c r="K14" s="33"/>
-      <c r="L14" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>640</v>
+      <c r="L14" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>694</v>
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="10" t="s">
@@ -13246,29 +13416,22 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="B15" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>698</v>
+      </c>
       <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="L15" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>696</v>
+      </c>
       <c r="N15" s="33"/>
       <c r="O15" s="14" t="s">
         <v>639</v>
@@ -13278,24 +13441,22 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>647</v>
+      </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
@@ -13308,21 +13469,23 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="8" t="s">
-        <v>564</v>
+      <c r="F17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
@@ -13338,21 +13501,23 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8" t="s">
-        <v>566</v>
+      <c r="F18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -13365,10 +13530,10 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>44</v>
@@ -13378,7 +13543,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -13391,10 +13556,10 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>44</v>
@@ -13404,7 +13569,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="8" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -13417,18 +13582,20 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B21" s="8" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -13439,33 +13606,57 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>552</v>
+      <c r="B23" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="8" t="s">
+        <v>570</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="36" t="s">
+      <c r="B24" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>558</v>
+      <c r="F24" s="3"/>
+      <c r="G24" s="8" t="s">
+        <v>572</v>
       </c>
       <c r="H24" s="7"/>
       <c r="J24" s="7"/>
@@ -13474,295 +13665,271 @@
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8" t="s">
-        <v>577</v>
-      </c>
       <c r="H25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8" t="s">
-        <v>653</v>
+      <c r="B26" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>552</v>
       </c>
       <c r="H26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="B27" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="8" t="s">
-        <v>572</v>
+      <c r="F27" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="H27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8" t="s">
+        <v>577</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C32" s="34" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B30" s="11" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C33" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="36" t="s">
+      <c r="D33" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F33" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B31" s="11" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="36" t="s">
+      <c r="C34" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F34" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B32" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>651</v>
+        <v>44</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="34" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C40" s="34" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="11" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C41" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="36" t="s">
+      <c r="D41" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F41" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G41" s="38" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="9" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>661</v>
+        <v>132</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>44</v>
@@ -13772,12 +13939,12 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="9" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>664</v>
+        <v>609</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>656</v>
@@ -13786,673 +13953,957 @@
         <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="9" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="9" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>661</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="9" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>593</v>
+        <v>716</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>2</v>
+        <v>718</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="9" t="s">
-        <v>594</v>
+        <v>723</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B49" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B50" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="34" t="s">
-        <v>687</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>688</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B51" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>580</v>
+      <c r="F51" s="3"/>
+      <c r="G51" s="9" t="s">
+        <v>572</v>
       </c>
       <c r="J51" s="7"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" s="8" t="s">
-        <v>679</v>
+        <v>593</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="9" t="s">
-        <v>680</v>
+        <v>594</v>
       </c>
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="3"/>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B53" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="J53" s="35"/>
-      <c r="L53" s="35"/>
+        <v>433</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="9" t="s">
-        <v>586</v>
-      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="9" t="s">
-        <v>588</v>
-      </c>
+      <c r="B55" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>663</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
     </row>
     <row r="56" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B57" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="B56" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="9" t="s">
-        <v>592</v>
+      <c r="F56" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
-        <v>571</v>
+        <v>705</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>2</v>
+        <v>707</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="9" t="s">
-        <v>572</v>
+        <v>706</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B59" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="3"/>
+      <c r="B59" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60" s="8" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D60" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E60" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="9" t="s">
-        <v>433</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B61" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="9" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B62" s="34" t="s">
-        <v>662</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>663</v>
+      <c r="B62" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="9" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C66" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="36" t="s">
+      <c r="D66" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F66" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G66" s="38" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B64" s="11" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C67" s="36" t="s">
         <v>655</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36" t="s">
+      <c r="D67" s="36"/>
+      <c r="E67" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F67" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="38" t="s">
+      <c r="G67" s="38" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="9" t="s">
-        <v>624</v>
+      <c r="B68" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="8" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="34" t="s">
-        <v>689</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C72" s="36" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B88" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B92" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B95" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B96" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C96" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D72" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="36" t="s">
+      <c r="D96" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F96" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="38" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="11" t="s">
+      <c r="G96" s="38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B97" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C97" s="36" t="s">
         <v>655</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36" t="s">
+      <c r="D97" s="36"/>
+      <c r="E97" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F97" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="38" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36" t="s">
+      <c r="G97" s="38" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B98" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B99" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B100" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B101" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B102" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B103" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="38" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="9" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B77" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="9" t="s">
+      <c r="F103" s="9"/>
+      <c r="G103" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B104" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="34" t="s">
-        <v>695</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D86" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>697</v>
-      </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="38" t="s">
-        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etplatform\etc\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daeguk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="17688" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="지수_지수일별" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="733">
   <si>
     <t>F12506</t>
   </si>
@@ -2323,6 +2323,38 @@
   </si>
   <si>
     <t>파일ID (소급지수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_inst_req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수정보 공유 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수정보 공유 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개여부 0: 비공개, 1: 공개요청, 2 공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_inst_req</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2535,7 +2567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2662,12 +2694,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2701,8 +2767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13723620" y="594360"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="13754100" y="571500"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -2900,8 +2966,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13731240" y="1927860"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="13761720" y="1836420"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3099,8 +3165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10919460" y="1927860"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="10949940" y="1836420"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3502,8 +3568,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="15236190" y="2510791"/>
-          <a:ext cx="460269" cy="289560"/>
+          <a:off x="15283816" y="2373630"/>
+          <a:ext cx="435504" cy="291465"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3701,8 +3767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10919460" y="3002280"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="10949940" y="2853690"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -5291,22 +5357,22 @@
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5324,7 +5390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5340,7 +5406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5356,7 +5422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -5372,7 +5438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5388,7 +5454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -5404,7 +5470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5420,7 +5486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -5436,7 +5502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -5452,7 +5518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -5468,7 +5534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -5486,12 +5552,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -5509,7 +5575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5525,7 +5591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5557,7 +5623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5573,7 +5639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -5589,7 +5655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -5605,7 +5671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5621,7 +5687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -5637,7 +5703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -5653,7 +5719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -5671,12 +5737,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -5694,7 +5760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -5710,7 +5776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +5792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
@@ -5742,7 +5808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -5758,7 +5824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -5774,7 +5840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -5790,7 +5856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -5806,7 +5872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -5826,7 +5892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -5842,7 +5908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -5858,7 +5924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -5874,7 +5940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -5890,7 +5956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -5906,7 +5972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -5922,7 +5988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -5938,7 +6004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -5954,7 +6020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
@@ -5970,7 +6036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -5986,7 +6052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -6002,7 +6068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -6018,7 +6084,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
@@ -6034,7 +6100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
@@ -6050,7 +6116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
@@ -6066,7 +6132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -6082,7 +6148,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>80</v>
       </c>
@@ -6098,7 +6164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
@@ -6114,7 +6180,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
@@ -6130,7 +6196,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -6146,7 +6212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -6162,7 +6228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
@@ -6178,7 +6244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
@@ -6194,7 +6260,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -6210,7 +6276,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>97</v>
       </c>
@@ -6226,12 +6292,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
@@ -6247,7 +6313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
@@ -6265,7 +6331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
@@ -6281,7 +6347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
@@ -6297,7 +6363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
@@ -6313,7 +6379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -6329,7 +6395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -6345,7 +6411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -6361,7 +6427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -6377,7 +6443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
@@ -6393,7 +6459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>16</v>
       </c>
@@ -6413,7 +6479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -6431,12 +6497,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
@@ -6452,7 +6518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
@@ -6470,7 +6536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
@@ -6486,7 +6552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
@@ -6502,7 +6568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
@@ -6518,7 +6584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
@@ -6534,7 +6600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
@@ -6566,7 +6632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
@@ -6582,7 +6648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
@@ -6598,7 +6664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
@@ -6618,7 +6684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>103</v>
       </c>
@@ -6636,12 +6702,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
@@ -6657,7 +6723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -6675,7 +6741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6691,7 +6757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -6707,7 +6773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
@@ -6723,7 +6789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
@@ -6739,7 +6805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
@@ -6755,7 +6821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
@@ -6771,7 +6837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>13</v>
       </c>
@@ -6787,7 +6853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
@@ -6803,7 +6869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6823,7 +6889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
@@ -6841,12 +6907,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
@@ -6862,7 +6928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
@@ -6880,7 +6946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>4</v>
       </c>
@@ -6896,7 +6962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -6912,7 +6978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
@@ -6928,7 +6994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -6944,7 +7010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -6960,7 +7026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
@@ -6976,7 +7042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
@@ -6992,7 +7058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
@@ -7008,7 +7074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -7028,7 +7094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>103</v>
       </c>
@@ -7046,12 +7112,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
@@ -7067,7 +7133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
@@ -7085,7 +7151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
@@ -7101,7 +7167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
@@ -7117,7 +7183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
@@ -7133,7 +7199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
@@ -7149,7 +7215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
@@ -7165,7 +7231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
@@ -7181,7 +7247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>13</v>
       </c>
@@ -7197,7 +7263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>15</v>
       </c>
@@ -7213,7 +7279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>16</v>
       </c>
@@ -7233,7 +7299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>110</v>
       </c>
@@ -7249,7 +7315,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>112</v>
       </c>
@@ -7265,7 +7331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>114</v>
       </c>
@@ -7281,7 +7347,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
@@ -7297,12 +7363,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -7320,7 +7386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
@@ -7336,7 +7402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
@@ -7352,7 +7418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
@@ -7368,7 +7434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
@@ -7384,7 +7450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
@@ -7400,7 +7466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -7416,7 +7482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
@@ -7432,7 +7498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
@@ -7448,7 +7514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
@@ -7468,7 +7534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
@@ -7484,7 +7550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
@@ -7500,7 +7566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -7516,7 +7582,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
@@ -7532,7 +7598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>114</v>
       </c>
@@ -7548,7 +7614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
@@ -7564,12 +7630,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -7587,7 +7653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
         <v>4</v>
       </c>
@@ -7603,7 +7669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
         <v>7</v>
       </c>
@@ -7619,7 +7685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
@@ -7635,7 +7701,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
         <v>15</v>
       </c>
@@ -7651,7 +7717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
         <v>41</v>
       </c>
@@ -7667,7 +7733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
@@ -7687,12 +7753,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +7776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
         <v>4</v>
       </c>
@@ -7726,7 +7792,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
@@ -7742,7 +7808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
@@ -7758,7 +7824,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
         <v>15</v>
       </c>
@@ -7774,7 +7840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
         <v>131</v>
       </c>
@@ -7792,7 +7858,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
@@ -7812,7 +7878,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
         <v>57</v>
       </c>
@@ -7828,7 +7894,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
         <v>135</v>
       </c>
@@ -7844,7 +7910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>137</v>
       </c>
@@ -7860,12 +7926,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
         <v>0</v>
       </c>
@@ -7883,7 +7949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
@@ -7915,7 +7981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
@@ -7931,7 +7997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
@@ -7947,7 +8013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>11</v>
       </c>
@@ -7963,7 +8029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
@@ -7979,7 +8045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
         <v>13</v>
       </c>
@@ -7995,7 +8061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
         <v>14</v>
       </c>
@@ -8011,7 +8077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>15</v>
       </c>
@@ -8027,7 +8093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
@@ -8045,12 +8111,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>4</v>
       </c>
@@ -8084,7 +8150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
         <v>7</v>
       </c>
@@ -8100,7 +8166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
@@ -8116,7 +8182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
@@ -8132,7 +8198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>11</v>
       </c>
@@ -8148,7 +8214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
@@ -8164,7 +8230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
         <v>13</v>
       </c>
@@ -8180,7 +8246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
         <v>14</v>
       </c>
@@ -8196,7 +8262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>15</v>
       </c>
@@ -8212,7 +8278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
@@ -8245,17 +8311,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>142</v>
       </c>
@@ -8263,7 +8329,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
@@ -8279,7 +8345,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
@@ -8299,7 +8365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
@@ -8317,7 +8383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
@@ -8337,7 +8403,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
@@ -8355,7 +8421,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
@@ -8363,7 +8429,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
@@ -8379,7 +8445,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -8397,7 +8463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
@@ -8415,7 +8481,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
@@ -8433,7 +8499,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -8453,7 +8519,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
@@ -8469,7 +8535,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
@@ -8485,7 +8551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
@@ -8505,7 +8571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -8513,7 +8579,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
@@ -8529,7 +8595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -8547,7 +8613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -8567,7 +8633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
@@ -8583,7 +8649,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
@@ -8599,7 +8665,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>172</v>
       </c>
@@ -8615,7 +8681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>175</v>
       </c>
@@ -8631,7 +8697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
@@ -8651,7 +8717,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
@@ -8659,7 +8725,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>178</v>
       </c>
@@ -8675,7 +8741,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -8693,7 +8759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -8713,7 +8779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
@@ -8733,7 +8799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
@@ -8749,7 +8815,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>151</v>
       </c>
@@ -8783,16 +8849,16 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
@@ -8800,7 +8866,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
@@ -8818,7 +8884,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -8834,7 +8900,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
@@ -8852,7 +8918,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -8872,7 +8938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>191</v>
       </c>
@@ -8890,7 +8956,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>194</v>
       </c>
@@ -8908,7 +8974,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
@@ -8926,7 +8992,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
@@ -8944,7 +9010,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>202</v>
       </c>
@@ -8960,7 +9026,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
@@ -8978,7 +9044,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
@@ -8994,7 +9060,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
@@ -9010,7 +9076,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -9026,7 +9092,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
@@ -9042,7 +9108,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>214</v>
       </c>
@@ -9060,7 +9126,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>217</v>
       </c>
@@ -9076,7 +9142,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
@@ -9094,7 +9160,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>221</v>
       </c>
@@ -9112,7 +9178,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -9120,7 +9186,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>225</v>
       </c>
@@ -9138,7 +9204,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
@@ -9156,7 +9222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
@@ -9172,7 +9238,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>229</v>
       </c>
@@ -9188,7 +9254,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -9206,7 +9272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>232</v>
       </c>
@@ -9222,7 +9288,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
@@ -9240,7 +9306,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
@@ -9256,7 +9322,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
@@ -9276,7 +9342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
@@ -9294,7 +9360,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>194</v>
       </c>
@@ -9312,7 +9378,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
@@ -9330,7 +9396,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>239</v>
       </c>
@@ -9348,7 +9414,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>242</v>
       </c>
@@ -9364,7 +9430,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>244</v>
       </c>
@@ -9382,7 +9448,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
@@ -9400,7 +9466,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>202</v>
       </c>
@@ -9416,7 +9482,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
@@ -9434,7 +9500,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
@@ -9450,7 +9516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>252</v>
       </c>
@@ -9468,7 +9534,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>254</v>
       </c>
@@ -9486,7 +9552,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
@@ -9502,7 +9568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
@@ -9518,7 +9584,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
@@ -9536,7 +9602,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>212</v>
       </c>
@@ -9552,7 +9618,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>259</v>
       </c>
@@ -9568,7 +9634,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>214</v>
       </c>
@@ -9586,7 +9652,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>217</v>
       </c>
@@ -9602,7 +9668,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>261</v>
       </c>
@@ -9620,7 +9686,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>219</v>
       </c>
@@ -9638,7 +9704,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>263</v>
       </c>
@@ -9656,7 +9722,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>265</v>
       </c>
@@ -9674,7 +9740,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>267</v>
       </c>
@@ -9692,7 +9758,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>268</v>
       </c>
@@ -9700,7 +9766,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>187</v>
       </c>
@@ -9716,7 +9782,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
@@ -9734,7 +9800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>145</v>
       </c>
@@ -9754,7 +9820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>191</v>
       </c>
@@ -9772,7 +9838,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>194</v>
       </c>
@@ -9790,7 +9856,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>197</v>
       </c>
@@ -9808,7 +9874,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>202</v>
       </c>
@@ -9824,7 +9890,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
@@ -9840,7 +9906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
@@ -9856,7 +9922,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>214</v>
       </c>
@@ -9874,7 +9940,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>217</v>
       </c>
@@ -9890,7 +9956,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
@@ -9908,7 +9974,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
@@ -9926,7 +9992,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
@@ -9944,7 +10010,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>270</v>
       </c>
@@ -9952,7 +10018,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>225</v>
       </c>
@@ -9970,7 +10036,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
@@ -9988,7 +10054,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
@@ -10004,7 +10070,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>189</v>
       </c>
@@ -10022,7 +10088,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>232</v>
       </c>
@@ -10038,7 +10104,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
@@ -10056,7 +10122,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
@@ -10072,7 +10138,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
@@ -10092,7 +10158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -10110,7 +10176,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
@@ -10128,7 +10194,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
@@ -10146,7 +10212,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>239</v>
       </c>
@@ -10164,7 +10230,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>242</v>
       </c>
@@ -10180,7 +10246,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
@@ -10198,7 +10264,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>247</v>
       </c>
@@ -10216,7 +10282,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>202</v>
       </c>
@@ -10232,7 +10298,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>250</v>
       </c>
@@ -10250,7 +10316,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>206</v>
       </c>
@@ -10266,7 +10332,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>252</v>
       </c>
@@ -10284,7 +10350,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
@@ -10302,7 +10368,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>256</v>
       </c>
@@ -10320,7 +10386,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>212</v>
       </c>
@@ -10336,7 +10402,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>259</v>
       </c>
@@ -10352,7 +10418,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
@@ -10370,7 +10436,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>217</v>
       </c>
@@ -10386,7 +10452,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>261</v>
       </c>
@@ -10404,7 +10470,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>219</v>
       </c>
@@ -10422,7 +10488,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
@@ -10440,7 +10506,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>265</v>
       </c>
@@ -10458,7 +10524,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
@@ -10490,18 +10556,18 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
@@ -10509,7 +10575,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
@@ -10529,7 +10595,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>274</v>
       </c>
@@ -10547,7 +10613,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>277</v>
       </c>
@@ -10567,7 +10633,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>279</v>
       </c>
@@ -10583,7 +10649,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>281</v>
       </c>
@@ -10591,7 +10657,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
@@ -10609,7 +10675,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>284</v>
       </c>
@@ -10627,7 +10693,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
@@ -10645,7 +10711,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
@@ -10665,7 +10731,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
@@ -10683,7 +10749,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
@@ -10701,7 +10767,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
@@ -10719,7 +10785,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
@@ -10737,7 +10803,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
@@ -10755,7 +10821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
@@ -10773,7 +10839,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
@@ -10781,7 +10847,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>304</v>
       </c>
@@ -10799,7 +10865,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>306</v>
       </c>
@@ -10815,7 +10881,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
@@ -10833,7 +10899,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>309</v>
       </c>
@@ -10851,7 +10917,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
@@ -10869,7 +10935,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>313</v>
       </c>
@@ -10887,7 +10953,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>315</v>
       </c>
@@ -10905,7 +10971,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>317</v>
       </c>
@@ -10923,7 +10989,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>319</v>
       </c>
@@ -10941,7 +11007,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>321</v>
       </c>
@@ -10959,7 +11025,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -10977,7 +11043,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>325</v>
       </c>
@@ -10995,7 +11061,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -11013,7 +11079,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>329</v>
       </c>
@@ -11031,7 +11097,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>331</v>
       </c>
@@ -11049,7 +11115,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>333</v>
       </c>
@@ -11067,7 +11133,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>336</v>
       </c>
@@ -11085,7 +11151,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>338</v>
       </c>
@@ -11101,7 +11167,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
@@ -11119,7 +11185,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>342</v>
       </c>
@@ -11137,7 +11203,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>344</v>
       </c>
@@ -11155,7 +11221,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>347</v>
       </c>
@@ -11171,7 +11237,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>349</v>
       </c>
@@ -11189,7 +11255,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>351</v>
       </c>
@@ -11207,7 +11273,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>353</v>
       </c>
@@ -11225,7 +11291,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>355</v>
       </c>
@@ -11243,7 +11309,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>291</v>
       </c>
@@ -11261,7 +11327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>358</v>
       </c>
@@ -11279,7 +11345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>359</v>
       </c>
@@ -11297,7 +11363,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
@@ -11315,7 +11381,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
@@ -11333,7 +11399,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
@@ -11351,7 +11417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>366</v>
       </c>
@@ -11369,7 +11435,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>368</v>
       </c>
@@ -11387,7 +11453,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>370</v>
       </c>
@@ -11403,7 +11469,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>372</v>
       </c>
@@ -11421,7 +11487,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>374</v>
       </c>
@@ -11439,7 +11505,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
@@ -11457,7 +11523,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>378</v>
       </c>
@@ -11475,7 +11541,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>380</v>
       </c>
@@ -11491,7 +11557,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>382</v>
       </c>
@@ -11509,7 +11575,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>385</v>
       </c>
@@ -11527,7 +11593,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>387</v>
       </c>
@@ -11545,7 +11611,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>389</v>
       </c>
@@ -11563,7 +11629,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>391</v>
       </c>
@@ -11581,7 +11647,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>393</v>
       </c>
@@ -11599,7 +11665,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>395</v>
       </c>
@@ -11617,7 +11683,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>397</v>
       </c>
@@ -11635,7 +11701,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>400</v>
       </c>
@@ -11653,7 +11719,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
@@ -11671,7 +11737,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>404</v>
       </c>
@@ -11689,7 +11755,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>406</v>
       </c>
@@ -11707,7 +11773,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
@@ -11725,7 +11791,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
@@ -11743,7 +11809,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>412</v>
       </c>
@@ -11759,7 +11825,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
@@ -11777,7 +11843,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
@@ -11795,7 +11861,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>418</v>
       </c>
@@ -11813,7 +11879,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
@@ -11831,7 +11897,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>422</v>
       </c>
@@ -11847,7 +11913,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>424</v>
       </c>
@@ -11865,7 +11931,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
@@ -11886,7 +11952,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>430</v>
       </c>
@@ -11904,7 +11970,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>432</v>
       </c>
@@ -11922,7 +11988,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>434</v>
       </c>
@@ -11940,7 +12006,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
@@ -11948,7 +12014,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>304</v>
       </c>
@@ -11966,7 +12032,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
@@ -11982,7 +12048,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>308</v>
       </c>
@@ -12000,7 +12066,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>309</v>
       </c>
@@ -12018,7 +12084,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>311</v>
       </c>
@@ -12036,7 +12102,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>313</v>
       </c>
@@ -12054,7 +12120,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>315</v>
       </c>
@@ -12072,7 +12138,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>317</v>
       </c>
@@ -12090,7 +12156,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>319</v>
       </c>
@@ -12108,7 +12174,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>321</v>
       </c>
@@ -12126,7 +12192,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>323</v>
       </c>
@@ -12144,7 +12210,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>325</v>
       </c>
@@ -12162,7 +12228,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>327</v>
       </c>
@@ -12180,7 +12246,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>329</v>
       </c>
@@ -12198,7 +12264,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>331</v>
       </c>
@@ -12216,7 +12282,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>333</v>
       </c>
@@ -12234,7 +12300,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
@@ -12252,7 +12318,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>338</v>
       </c>
@@ -12268,7 +12334,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>340</v>
       </c>
@@ -12286,7 +12352,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>342</v>
       </c>
@@ -12304,7 +12370,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>344</v>
       </c>
@@ -12322,7 +12388,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -12338,7 +12404,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>349</v>
       </c>
@@ -12356,7 +12422,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>351</v>
       </c>
@@ -12374,7 +12440,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>353</v>
       </c>
@@ -12392,7 +12458,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>355</v>
       </c>
@@ -12410,7 +12476,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>291</v>
       </c>
@@ -12428,7 +12494,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>358</v>
       </c>
@@ -12446,7 +12512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>359</v>
       </c>
@@ -12464,7 +12530,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>361</v>
       </c>
@@ -12482,7 +12548,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
@@ -12500,7 +12566,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
         <v>365</v>
       </c>
@@ -12518,7 +12584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
         <v>366</v>
       </c>
@@ -12536,7 +12602,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>368</v>
       </c>
@@ -12554,7 +12620,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>370</v>
       </c>
@@ -12570,7 +12636,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>372</v>
       </c>
@@ -12588,7 +12654,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
@@ -12606,7 +12672,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -12624,7 +12690,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>378</v>
       </c>
@@ -12642,7 +12708,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>380</v>
       </c>
@@ -12658,7 +12724,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>382</v>
       </c>
@@ -12676,7 +12742,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>385</v>
       </c>
@@ -12694,7 +12760,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>387</v>
       </c>
@@ -12712,7 +12778,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>389</v>
       </c>
@@ -12730,7 +12796,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
@@ -12748,7 +12814,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
@@ -12766,7 +12832,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
@@ -12784,7 +12850,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>397</v>
       </c>
@@ -12802,7 +12868,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
         <v>400</v>
       </c>
@@ -12820,7 +12886,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
@@ -12838,7 +12904,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>404</v>
       </c>
@@ -12856,7 +12922,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
@@ -12874,7 +12940,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>408</v>
       </c>
@@ -12892,7 +12958,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>410</v>
       </c>
@@ -12910,7 +12976,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>412</v>
       </c>
@@ -12926,7 +12992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>414</v>
       </c>
@@ -12944,7 +13010,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>416</v>
       </c>
@@ -12962,7 +13028,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>418</v>
       </c>
@@ -12980,7 +13046,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>420</v>
       </c>
@@ -12998,7 +13064,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>422</v>
       </c>
@@ -13014,7 +13080,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>424</v>
       </c>
@@ -13032,7 +13098,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>437</v>
       </c>
@@ -13050,7 +13116,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>439</v>
       </c>
@@ -13068,7 +13134,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>430</v>
       </c>
@@ -13086,7 +13152,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>432</v>
       </c>
@@ -13104,7 +13170,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>434</v>
       </c>
@@ -13130,32 +13196,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P104"/>
+  <dimension ref="A2:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.296875" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.19921875" customWidth="1"/>
-    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>627</v>
       </c>
@@ -13163,7 +13229,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>636</v>
       </c>
@@ -13192,7 +13258,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>546</v>
       </c>
@@ -13221,7 +13287,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>641</v>
       </c>
@@ -13245,7 +13311,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>691</v>
       </c>
@@ -13261,7 +13327,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>679</v>
       </c>
@@ -13277,7 +13343,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>672</v>
       </c>
@@ -13293,7 +13359,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>701</v>
       </c>
@@ -13321,7 +13387,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
         <v>702</v>
       </c>
@@ -13349,7 +13415,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>673</v>
       </c>
@@ -13373,7 +13439,13 @@
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>732</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>726</v>
+      </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -13383,7 +13455,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
@@ -13393,7 +13465,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I14" s="10" t="s">
         <v>699</v>
       </c>
@@ -13415,10 +13487,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="32" t="s">
-        <v>652</v>
-      </c>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I15" s="14" t="s">
         <v>697</v>
       </c>
@@ -13440,17 +13509,10 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>652</v>
+      </c>
       <c r="I16" s="14" t="s">
         <v>648</v>
       </c>
@@ -13468,25 +13530,17 @@
         <v>647</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>558</v>
-      </c>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
@@ -13500,9 +13554,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>649</v>
@@ -13517,7 +13571,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -13528,22 +13582,24 @@
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="3" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="8" t="s">
-        <v>562</v>
+      <c r="F19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -13554,12 +13610,12 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>44</v>
@@ -13569,7 +13625,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -13580,9 +13636,9 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>245</v>
@@ -13595,7 +13651,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -13606,9 +13662,9 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>245</v>
@@ -13621,15 +13677,15 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
@@ -13639,24 +13695,26 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H24" s="7"/>
       <c r="J24" s="7"/>
@@ -13664,72 +13722,70 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>552</v>
-      </c>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>558</v>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>552</v>
       </c>
       <c r="H27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="3" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="8" t="s">
-        <v>577</v>
+      <c r="F28" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="H28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>44</v>
@@ -13739,59 +13795,57 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B32" s="34" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C33" s="34" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="11" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C34" s="36" t="s">
         <v>245</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>692</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>44</v>
@@ -13803,130 +13857,132 @@
         <v>3</v>
       </c>
       <c r="G34" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="8" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>651</v>
+        <v>44</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>44</v>
+        <v>651</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>651</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="34" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C41" s="34" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="11" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C42" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="36" t="s">
+      <c r="D42" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F42" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G42" s="38" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="8" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="8" t="s">
-        <v>607</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>132</v>
@@ -13939,15 +13995,15 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>44</v>
@@ -13957,213 +14013,214 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>716</v>
+        <v>613</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>661</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E47" s="3" t="s">
-        <v>718</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="9" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="41" t="s">
-        <v>722</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>716</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>717</v>
       </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G49" s="39" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="8" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>657</v>
-      </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="9" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="J51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="9" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="9" t="s">
-        <v>433</v>
+        <v>594</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="34" t="s">
-        <v>662</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>663</v>
-      </c>
+    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="B54" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55"/>
+      <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="11" t="s">
+    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>663</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C57" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D56" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E57" s="36" t="s">
         <v>2</v>
       </c>
@@ -14171,64 +14228,65 @@
         <v>3</v>
       </c>
       <c r="G57" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="38" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B58" s="8" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="9" t="s">
+      <c r="F59" s="3"/>
+      <c r="G59" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B59" s="9" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9" t="s">
+      <c r="D60" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="8" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B61" s="8" t="s">
-        <v>621</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>132</v>
@@ -14241,12 +14299,12 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>132</v>
@@ -14259,12 +14317,12 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>132</v>
@@ -14277,45 +14335,45 @@
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="34" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C66" s="34" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="11" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C67" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="38" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="D67" s="36"/>
+      <c r="D67" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E67" s="36" t="s">
         <v>2</v>
       </c>
@@ -14323,12 +14381,12 @@
         <v>3</v>
       </c>
       <c r="G67" s="38" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
-        <v>682</v>
+        <v>615</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>655</v>
@@ -14341,46 +14399,46 @@
         <v>3</v>
       </c>
       <c r="G68" s="38" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="38" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="8" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="9" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>132</v>
@@ -14393,12 +14451,12 @@
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>132</v>
@@ -14411,30 +14469,30 @@
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="9" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="9" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>132</v>
@@ -14447,12 +14505,12 @@
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>132</v>
@@ -14465,79 +14523,79 @@
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>657</v>
+        <v>132</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D77" s="9"/>
+        <v>657</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E77" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="34" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C80" s="34" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="11" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C81" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="D80" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="38" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>687</v>
-      </c>
-      <c r="D81" s="36"/>
+      <c r="D81" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E81" s="36" t="s">
         <v>2</v>
       </c>
@@ -14545,62 +14603,62 @@
         <v>3</v>
       </c>
       <c r="G81" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="38" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="10" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="40" t="s">
+      <c r="D84" s="16"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C85" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="36" t="s">
+      <c r="D85" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F84" s="36" t="s">
+      <c r="F85" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="38" t="s">
+      <c r="G85" s="38" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="8" t="s">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="8" t="s">
-        <v>585</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>132</v>
@@ -14613,67 +14671,67 @@
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E87" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="9" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B88" s="8" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="D89" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>591</v>
+        <v>713</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>657</v>
+        <v>714</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>44</v>
@@ -14682,96 +14740,96 @@
         <v>2</v>
       </c>
       <c r="F90" s="3"/>
-      <c r="G90" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G90" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D91" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E91" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D93" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="10" t="s">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="11" t="s">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C97" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D96" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="D97" s="36"/>
+      <c r="D97" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E97" s="36" t="s">
         <v>2</v>
       </c>
@@ -14779,30 +14837,30 @@
         <v>3</v>
       </c>
       <c r="G97" s="38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="38" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="8" t="s">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="8" t="s">
-        <v>619</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>132</v>
@@ -14815,30 +14873,30 @@
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="9" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="9" t="s">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>132</v>
@@ -14851,12 +14909,12 @@
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>132</v>
@@ -14869,41 +14927,197 @@
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>657</v>
+        <v>132</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D104" s="9"/>
+        <v>657</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E104" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="37" t="s">
+        <v>725</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="42" t="s">
+        <v>728</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="D111" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="F111" s="37"/>
+      <c r="G111" s="43" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="8" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -14922,30 +15136,30 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.8984375" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>533</v>
       </c>
@@ -14968,7 +15182,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>487</v>
       </c>
@@ -14997,7 +15211,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>453</v>
       </c>
@@ -15032,7 +15246,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>454</v>
       </c>
@@ -15067,7 +15281,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>482</v>
       </c>
@@ -15092,7 +15306,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>484</v>
       </c>
@@ -15121,7 +15335,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>455</v>
       </c>
@@ -15158,7 +15372,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>456</v>
       </c>
@@ -15195,7 +15409,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>457</v>
       </c>
@@ -15220,7 +15434,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>458</v>
       </c>
@@ -15249,7 +15463,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>459</v>
       </c>
@@ -15296,7 +15510,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>460</v>
       </c>
@@ -15343,7 +15557,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>461</v>
       </c>
@@ -15368,7 +15582,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>544</v>
       </c>
@@ -15397,7 +15611,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>543</v>
       </c>
@@ -15434,7 +15648,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>486</v>
       </c>
@@ -15471,7 +15685,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>462</v>
       </c>
@@ -15496,7 +15710,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>463</v>
       </c>
@@ -15525,7 +15739,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>464</v>
       </c>
@@ -15566,7 +15780,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>485</v>
       </c>
@@ -15607,7 +15821,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>465</v>
       </c>
@@ -15632,7 +15846,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>466</v>
       </c>
@@ -15661,7 +15875,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>467</v>
       </c>
@@ -15716,7 +15930,7 @@
       </c>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="s">
         <v>468</v>
       </c>
@@ -15771,7 +15985,7 @@
       </c>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
         <v>469</v>
       </c>
@@ -15796,7 +16010,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>470</v>
       </c>
@@ -15825,7 +16039,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>471</v>
       </c>
@@ -15882,7 +16096,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>472</v>
       </c>
@@ -15939,7 +16153,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>473</v>
       </c>
@@ -15964,7 +16178,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>474</v>
       </c>
@@ -15989,7 +16203,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
         <v>475</v>
       </c>
@@ -16014,7 +16228,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="23" t="s">
         <v>476</v>
       </c>
@@ -16039,7 +16253,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>477</v>
       </c>
@@ -16064,7 +16278,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>478</v>
       </c>
@@ -16089,7 +16303,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>479</v>
       </c>
@@ -16114,7 +16328,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>480</v>
       </c>
@@ -16139,7 +16353,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>481</v>
       </c>
@@ -16164,7 +16378,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -16172,7 +16386,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>627</v>
       </c>
@@ -16180,7 +16394,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>545</v>
       </c>
@@ -16195,7 +16409,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>546</v>
       </c>
@@ -16227,7 +16441,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>547</v>
       </c>
@@ -16259,7 +16473,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>548</v>
       </c>
@@ -16267,7 +16481,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>549</v>
       </c>
@@ -16281,7 +16495,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>550</v>
       </c>
@@ -16301,7 +16515,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E46" s="11" t="s">
         <v>558</v>
       </c>
@@ -16315,12 +16529,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E48" s="12" t="s">
         <v>596</v>
       </c>
@@ -16330,7 +16544,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" s="11" t="s">
         <v>579</v>
       </c>
@@ -16362,7 +16576,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" s="11" t="s">
         <v>580</v>
       </c>
@@ -16394,7 +16608,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="12" t="s">
         <v>598</v>
       </c>
@@ -16402,7 +16616,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="11" t="s">
         <v>579</v>
       </c>
@@ -16422,7 +16636,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="11" t="s">
         <v>580</v>
       </c>
@@ -16442,12 +16656,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" s="12" t="s">
         <v>600</v>
       </c>
@@ -16456,7 +16670,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
         <v>579</v>
       </c>
@@ -16488,7 +16702,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
         <v>580</v>
       </c>
@@ -16520,12 +16734,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60" s="12" t="s">
         <v>602</v>
       </c>
@@ -16534,7 +16748,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61" s="11" t="s">
         <v>579</v>
       </c>
@@ -16572,7 +16786,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62" s="11" t="s">
         <v>580</v>
       </c>
@@ -16610,86 +16824,86 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -2326,10 +2326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_inst_req</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지수정보 공유 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2354,7 +2350,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_inst_req</t>
+    <t>tm_index_req</t>
+  </si>
+  <si>
+    <t>tm_index_req</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13198,8 +13197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13444,7 +13443,7 @@
         <v>732</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
@@ -14984,10 +14983,10 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="37" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
@@ -15032,20 +15031,20 @@
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="C111" s="43" t="s">
         <v>728</v>
       </c>
-      <c r="C111" s="43" t="s">
+      <c r="D111" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="43" t="s">
         <v>729</v>
-      </c>
-      <c r="D111" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E111" s="43" t="s">
-        <v>730</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="43" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etplatform\etc\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="722">
   <si>
     <t>F12506</t>
   </si>
@@ -2134,9 +2134,6 @@
   </si>
   <si>
     <t>이력순번</t>
-  </si>
-  <si>
-    <t>이력순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2160,13 +2157,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hist_seq</t>
-  </si>
-  <si>
     <t>jisu_file_id</t>
-  </si>
-  <si>
-    <t>소급지수 파일 ID</t>
   </si>
   <si>
     <t>tm_seq</t>
@@ -2246,11 +2237,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_id</t>
+    <t>method_file_id</t>
+  </si>
+  <si>
+    <t>지수 파일정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일 ID</t>
+    <t>파일ID</t>
+  </si>
+  <si>
+    <t>mime_type</t>
+  </si>
+  <si>
+    <t>지수 저장전 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gubun</t>
+  </si>
+  <si>
+    <t>구분(지수방법론, 소급지수)</t>
+  </si>
+  <si>
+    <t>PRI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2258,72 +2276,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수 파일정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mime_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gubun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분 ( 지수방법론, 소급지수 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method_file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_jisu_temp_upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 저장전 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jisu_file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일ID (지수 방법론)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일ID (소급지수)</t>
+    <t>파일ID (소급 지수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 ID(소급지수)</t>
+  </si>
+  <si>
+    <t>hist_no</t>
+  </si>
+  <si>
+    <t>이력번호</t>
+  </si>
+  <si>
+    <t>파일 ID (소급지수)</t>
   </si>
 </sst>
 </file>
@@ -2443,7 +2425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2529,13 +2511,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2653,14 +2648,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2701,7 +2705,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13723620" y="594360"/>
+          <a:off x="12938760" y="594360"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -2900,7 +2904,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13731240" y="1927860"/>
+          <a:off x="12946380" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3099,7 +3103,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10919460" y="1927860"/>
+          <a:off x="10134600" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3484,205 +3488,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1125485</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>215636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>73925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12965</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="그룹 29"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="5400000">
-          <a:off x="15236190" y="2510791"/>
-          <a:ext cx="460269" cy="289560"/>
-          <a:chOff x="7688580" y="571500"/>
-          <a:chExt cx="685800" cy="215722"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="직선 연결선 30"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7688580" y="678180"/>
-            <a:ext cx="685800" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="직선 연결선 37"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7818120" y="584378"/>
-            <a:ext cx="0" cy="202844"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="직선 연결선 38"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8229600" y="576758"/>
-            <a:ext cx="0" cy="202844"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="40" name="직선 연결선 39"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8221980" y="571500"/>
-            <a:ext cx="144780" cy="106680"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="직선 연결선 40"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8221980" y="678180"/>
-            <a:ext cx="144780" cy="99060"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -3701,7 +3506,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10919460" y="3002280"/>
+          <a:off x="10134600" y="3002280"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3938,6 +3743,205 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1277885</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81545</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20585</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="그룹 56"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14531340" y="2590801"/>
+          <a:ext cx="460269" cy="144780"/>
+          <a:chOff x="7688580" y="571500"/>
+          <a:chExt cx="685800" cy="215722"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="직선 연결선 57"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7688580" y="678180"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="직선 연결선 58"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7818120" y="584378"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="직선 연결선 59"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8229600" y="576758"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="직선 연결선 60"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8221980" y="571500"/>
+            <a:ext cx="144780" cy="106680"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="직선 연결선 61"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221980" y="678180"/>
+            <a:ext cx="144780" cy="99060"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13130,18 +13134,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P104"/>
+  <dimension ref="B2:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.3984375" customWidth="1"/>
@@ -13222,17 +13226,17 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
-        <v>641</v>
+      <c r="B5" s="37" t="s">
+        <v>699</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>554</v>
+        <v>700</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -13247,10 +13251,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -13263,10 +13267,10 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -13278,11 +13282,11 @@
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>677</v>
+      <c r="B8" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>701</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -13294,11 +13298,11 @@
       <c r="P8" s="33"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="37" t="s">
-        <v>701</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>704</v>
+      <c r="B9" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>641</v>
@@ -13322,11 +13326,11 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="37" t="s">
-        <v>702</v>
+      <c r="B10" s="9" t="s">
+        <v>672</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>639</v>
@@ -13395,24 +13399,24 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I14" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="10" t="s">
         <v>672</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
@@ -13420,24 +13424,24 @@
         <v>652</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="14" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="14" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>640</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
@@ -13462,10 +13466,10 @@
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
@@ -13494,10 +13498,10 @@
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="14" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
@@ -13759,59 +13763,59 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B32" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>659</v>
-      </c>
+      <c r="B32" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="B33" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="D33" s="36"/>
       <c r="E33" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>580</v>
+        <v>654</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>692</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="36" t="s">
+      <c r="B34" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>604</v>
+      <c r="F34" s="3"/>
+      <c r="G34" s="9" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>657</v>
+        <v>132</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>44</v>
@@ -13820,34 +13824,32 @@
         <v>2</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="8" t="s">
-        <v>592</v>
+      <c r="G35" s="9" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>651</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="8" t="s">
-        <v>572</v>
+      <c r="G36" s="9" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
-        <v>593</v>
+        <v>705</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>657</v>
+        <v>198</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>44</v>
@@ -13856,382 +13858,372 @@
         <v>2</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="8" t="s">
-        <v>594</v>
+      <c r="G37" s="9" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>650</v>
+        <v>245</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>651</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="8" t="s">
-        <v>433</v>
+      <c r="G38" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="9" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>601</v>
+      <c r="B40" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="9" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="36" t="s">
+      <c r="B41" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>654</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>580</v>
+      <c r="F41" s="3"/>
+      <c r="G41" s="9" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="F45" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="9" t="s">
-        <v>614</v>
+      <c r="F46" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>716</v>
+        <v>591</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E47" s="3" t="s">
-        <v>718</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="9" t="s">
-        <v>723</v>
+      <c r="G47" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="41" t="s">
-        <v>722</v>
+      <c r="B48" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>717</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>724</v>
+        <v>2</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="8" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="9" t="s">
-        <v>590</v>
+      <c r="G49" s="8" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="9" t="s">
-        <v>592</v>
+      <c r="G50" s="8" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="9" t="s">
-        <v>572</v>
-      </c>
       <c r="J51" s="7"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B52" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="9" t="s">
-        <v>594</v>
+      <c r="B52" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>601</v>
       </c>
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
-        <v>433</v>
+      <c r="B53" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>711</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>715</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
+      <c r="B54" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="9" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="55" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="34" t="s">
-        <v>662</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>663</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
+      <c r="B55" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="9" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="56" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="36" t="s">
+      <c r="B56" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>580</v>
+      <c r="F56" s="42"/>
+      <c r="G56" s="9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36" t="s">
+      <c r="B57" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>616</v>
+      <c r="F57" s="42"/>
+      <c r="G57" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
-        <v>705</v>
+        <v>613</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>661</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E58" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="42"/>
       <c r="G58" s="9" t="s">
-        <v>706</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B59" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="9"/>
+      <c r="B59" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="42"/>
       <c r="G59" s="9" t="s">
-        <v>618</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="8" t="s">
-        <v>619</v>
+      <c r="B60" s="40" t="s">
+        <v>681</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>44</v>
+        <v>684</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="3"/>
       <c r="G60" s="9" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B61" s="8" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>132</v>
+        <v>656</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>44</v>
@@ -14239,99 +14231,93 @@
       <c r="E61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="42"/>
       <c r="G61" s="9" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B62" s="8" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>132</v>
+        <v>657</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F62" s="42"/>
       <c r="G62" s="9" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B63" s="8" t="s">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="42"/>
       <c r="G63" s="9" t="s">
-        <v>626</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B64" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="9" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="34" t="s">
-        <v>680</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="36" t="s">
+      <c r="B65" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="38" t="s">
-        <v>580</v>
+      <c r="F65" s="43"/>
+      <c r="G65" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="38" t="s">
-        <v>616</v>
+      <c r="B67" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
-        <v>682</v>
+        <v>581</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="D68" s="36"/>
       <c r="E68" s="36" t="s">
@@ -14340,29 +14326,31 @@
       <c r="F68" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="38" t="s">
-        <v>675</v>
+      <c r="G68" s="36" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="9" t="s">
-        <v>684</v>
+      <c r="B69" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="8" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>132</v>
@@ -14375,12 +14363,12 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="9" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>132</v>
@@ -14393,30 +14381,30 @@
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="3"/>
+      <c r="D72" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="9" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>132</v>
@@ -14429,12 +14417,12 @@
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>132</v>
@@ -14447,142 +14435,162 @@
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="9" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>132</v>
+        <v>657</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9" t="s">
-        <v>626</v>
+        <v>716</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B77" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="34" t="s">
-        <v>685</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>666</v>
+      <c r="F79" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="11" t="s">
-        <v>686</v>
+        <v>615</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="D80" s="36"/>
       <c r="E80" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="38" t="s">
-        <v>668</v>
+      <c r="G80" s="36" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>687</v>
-      </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="38" t="s">
-        <v>688</v>
+      <c r="B81" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="9" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="B83" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="40" t="s">
-        <v>709</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>710</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>711</v>
+      <c r="B84" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="9" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="8" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>132</v>
@@ -14595,12 +14603,12 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="9" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="8" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>132</v>
@@ -14613,214 +14621,204 @@
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="9" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="8" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E87" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
-        <v>712</v>
+        <v>571</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F88" s="3"/>
-      <c r="G88" s="8" t="s">
-        <v>712</v>
+      <c r="G88" s="9" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="B89" s="35"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B92" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>651</v>
+      </c>
+      <c r="E92" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="F92" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B91" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B94" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B92" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="F94" s="9"/>
+      <c r="G94" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B95" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>720</v>
+      <c r="F95" s="3"/>
+      <c r="G95" s="9" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>706</v>
+      <c r="B96" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="9" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>721</v>
+      <c r="B97" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="9" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="3"/>
+      <c r="D98" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="9"/>
       <c r="G98" s="9" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="3"/>
+      <c r="D99" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="9"/>
       <c r="G99" s="9" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="9" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>132</v>
@@ -14833,77 +14831,87 @@
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="9" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>132</v>
+        <v>657</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="9" t="s">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B103" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B104" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B105" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B104" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
+      <c r="F105" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B106" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9" t="s">
-        <v>572</v>
+      <c r="F106" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="17688" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="60" windowWidth="17685" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="지수_지수일별" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="723">
   <si>
     <t>F12506</t>
   </si>
@@ -2281,6 +2281,37 @@
   </si>
   <si>
     <t>upd_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_index_req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수정보 공유 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_index_req</t>
+  </si>
+  <si>
+    <t>지수정보 공유 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개여부 0: 비공개, 1: 공개요청, 2 공개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2506,7 +2537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2639,12 +2670,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2678,8 +2743,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13799820" y="594360"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="13820775" y="571500"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -2877,8 +2942,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13807440" y="1927860"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="13828395" y="1836420"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3076,8 +3141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10995660" y="1927860"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="11016615" y="1836420"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3479,8 +3544,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10995660" y="3002280"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="11016615" y="2853690"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3738,8 +3803,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="15392400" y="2590801"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="15429548" y="2452688"/>
+          <a:ext cx="437409" cy="146685"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -5268,22 +5333,22 @@
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5301,7 +5366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +5382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5333,7 +5398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5365,7 +5430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +5446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5397,7 +5462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -5413,7 +5478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -5429,7 +5494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -5445,7 +5510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -5463,12 +5528,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -5486,7 +5551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5502,7 +5567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -5518,7 +5583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5534,7 +5599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5550,7 +5615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -5582,7 +5647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5598,7 +5663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -5614,7 +5679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -5630,7 +5695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -5648,12 +5713,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -5671,7 +5736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -5687,7 +5752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
@@ -5703,7 +5768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
@@ -5719,7 +5784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -5735,7 +5800,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -5751,7 +5816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -5767,7 +5832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -5783,7 +5848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -5803,7 +5868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -5819,7 +5884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -5835,7 +5900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -5851,7 +5916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -5867,7 +5932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -5883,7 +5948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -5899,7 +5964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -5915,7 +5980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -5931,7 +5996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
@@ -5947,7 +6012,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -5963,7 +6028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -5979,7 +6044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -5995,7 +6060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
@@ -6011,7 +6076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
@@ -6027,7 +6092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
@@ -6043,7 +6108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -6059,7 +6124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>80</v>
       </c>
@@ -6075,7 +6140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
@@ -6091,7 +6156,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
@@ -6107,7 +6172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -6123,7 +6188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -6139,7 +6204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
@@ -6155,7 +6220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
@@ -6171,7 +6236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -6187,7 +6252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>97</v>
       </c>
@@ -6203,12 +6268,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
@@ -6224,7 +6289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
@@ -6242,7 +6307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
@@ -6258,7 +6323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
@@ -6274,7 +6339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
@@ -6290,7 +6355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -6306,7 +6371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -6322,7 +6387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -6338,7 +6403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -6354,7 +6419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
@@ -6370,7 +6435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>16</v>
       </c>
@@ -6390,7 +6455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -6408,12 +6473,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
@@ -6429,7 +6494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
@@ -6447,7 +6512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
@@ -6463,7 +6528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
@@ -6479,7 +6544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
@@ -6495,7 +6560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
@@ -6511,7 +6576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
@@ -6527,7 +6592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
@@ -6543,7 +6608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
@@ -6559,7 +6624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
@@ -6575,7 +6640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
@@ -6595,7 +6660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>103</v>
       </c>
@@ -6613,12 +6678,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
@@ -6634,7 +6699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -6652,7 +6717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6668,7 +6733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -6684,7 +6749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
@@ -6700,7 +6765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
@@ -6716,7 +6781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
@@ -6732,7 +6797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
@@ -6748,7 +6813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>13</v>
       </c>
@@ -6764,7 +6829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
@@ -6780,7 +6845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6800,7 +6865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
@@ -6818,12 +6883,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
@@ -6839,7 +6904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
@@ -6857,7 +6922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>4</v>
       </c>
@@ -6873,7 +6938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -6889,7 +6954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
@@ -6905,7 +6970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -6921,7 +6986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -6937,7 +7002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
@@ -6953,7 +7018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
@@ -6969,7 +7034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
@@ -6985,7 +7050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -7005,7 +7070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>103</v>
       </c>
@@ -7023,12 +7088,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
@@ -7044,7 +7109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
@@ -7062,7 +7127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
@@ -7078,7 +7143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
@@ -7094,7 +7159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
@@ -7110,7 +7175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
@@ -7126,7 +7191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
@@ -7142,7 +7207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
@@ -7158,7 +7223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>13</v>
       </c>
@@ -7174,7 +7239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>15</v>
       </c>
@@ -7190,7 +7255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>16</v>
       </c>
@@ -7210,7 +7275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>110</v>
       </c>
@@ -7226,7 +7291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>112</v>
       </c>
@@ -7242,7 +7307,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>114</v>
       </c>
@@ -7258,7 +7323,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
@@ -7274,12 +7339,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -7297,7 +7362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
@@ -7313,7 +7378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
@@ -7329,7 +7394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
@@ -7345,7 +7410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
@@ -7361,7 +7426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
@@ -7377,7 +7442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -7393,7 +7458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
@@ -7409,7 +7474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
@@ -7425,7 +7490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
@@ -7445,7 +7510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
@@ -7461,7 +7526,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
@@ -7477,7 +7542,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -7493,7 +7558,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
@@ -7509,7 +7574,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>114</v>
       </c>
@@ -7525,7 +7590,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
@@ -7541,12 +7606,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -7564,7 +7629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
         <v>4</v>
       </c>
@@ -7580,7 +7645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
         <v>7</v>
       </c>
@@ -7596,7 +7661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
@@ -7612,7 +7677,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
         <v>15</v>
       </c>
@@ -7628,7 +7693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
         <v>41</v>
       </c>
@@ -7644,7 +7709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
@@ -7664,12 +7729,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
         <v>0</v>
       </c>
@@ -7687,7 +7752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
         <v>4</v>
       </c>
@@ -7703,7 +7768,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
@@ -7719,7 +7784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
@@ -7735,7 +7800,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
         <v>15</v>
       </c>
@@ -7751,7 +7816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
         <v>131</v>
       </c>
@@ -7769,7 +7834,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
@@ -7789,7 +7854,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
         <v>57</v>
       </c>
@@ -7805,7 +7870,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
         <v>135</v>
       </c>
@@ -7821,7 +7886,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>137</v>
       </c>
@@ -7837,12 +7902,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
         <v>0</v>
       </c>
@@ -7860,7 +7925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>4</v>
       </c>
@@ -7876,7 +7941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
@@ -7892,7 +7957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
@@ -7908,7 +7973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
@@ -7924,7 +7989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>11</v>
       </c>
@@ -7940,7 +8005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
@@ -7956,7 +8021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
         <v>13</v>
       </c>
@@ -7972,7 +8037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
         <v>14</v>
       </c>
@@ -7988,7 +8053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>15</v>
       </c>
@@ -8004,7 +8069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
@@ -8022,12 +8087,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
         <v>0</v>
       </c>
@@ -8045,7 +8110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>4</v>
       </c>
@@ -8061,7 +8126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
         <v>7</v>
       </c>
@@ -8077,7 +8142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
@@ -8093,7 +8158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
@@ -8109,7 +8174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>11</v>
       </c>
@@ -8125,7 +8190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
@@ -8141,7 +8206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
         <v>13</v>
       </c>
@@ -8157,7 +8222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
         <v>14</v>
       </c>
@@ -8173,7 +8238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>15</v>
       </c>
@@ -8189,7 +8254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
@@ -8222,17 +8287,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>142</v>
       </c>
@@ -8240,7 +8305,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
@@ -8256,7 +8321,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
@@ -8276,7 +8341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
@@ -8294,7 +8359,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
@@ -8314,7 +8379,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
@@ -8332,7 +8397,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
@@ -8340,7 +8405,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
@@ -8356,7 +8421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -8374,7 +8439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
@@ -8392,7 +8457,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
@@ -8410,7 +8475,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -8430,7 +8495,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
@@ -8446,7 +8511,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
@@ -8462,7 +8527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
@@ -8482,7 +8547,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -8490,7 +8555,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
@@ -8506,7 +8571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -8524,7 +8589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -8544,7 +8609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
@@ -8560,7 +8625,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
@@ -8576,7 +8641,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>172</v>
       </c>
@@ -8592,7 +8657,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>175</v>
       </c>
@@ -8608,7 +8673,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
@@ -8628,7 +8693,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
@@ -8636,7 +8701,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>178</v>
       </c>
@@ -8652,7 +8717,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -8670,7 +8735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -8690,7 +8755,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
@@ -8710,7 +8775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
@@ -8726,7 +8791,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>151</v>
       </c>
@@ -8760,16 +8825,16 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
@@ -8777,7 +8842,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
@@ -8795,7 +8860,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -8811,7 +8876,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
@@ -8829,7 +8894,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -8849,7 +8914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>191</v>
       </c>
@@ -8867,7 +8932,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>194</v>
       </c>
@@ -8885,7 +8950,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
@@ -8903,7 +8968,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
@@ -8921,7 +8986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>202</v>
       </c>
@@ -8937,7 +9002,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
@@ -8955,7 +9020,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
@@ -8971,7 +9036,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
@@ -8987,7 +9052,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -9003,7 +9068,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
@@ -9019,7 +9084,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>214</v>
       </c>
@@ -9037,7 +9102,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>217</v>
       </c>
@@ -9053,7 +9118,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
@@ -9071,7 +9136,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>221</v>
       </c>
@@ -9089,7 +9154,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -9097,7 +9162,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>225</v>
       </c>
@@ -9115,7 +9180,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
@@ -9133,7 +9198,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
@@ -9149,7 +9214,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>229</v>
       </c>
@@ -9165,7 +9230,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -9183,7 +9248,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>232</v>
       </c>
@@ -9199,7 +9264,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
@@ -9217,7 +9282,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
@@ -9233,7 +9298,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
@@ -9253,7 +9318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
@@ -9271,7 +9336,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>194</v>
       </c>
@@ -9289,7 +9354,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
@@ -9307,7 +9372,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>239</v>
       </c>
@@ -9325,7 +9390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>242</v>
       </c>
@@ -9341,7 +9406,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>244</v>
       </c>
@@ -9359,7 +9424,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
@@ -9377,7 +9442,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>202</v>
       </c>
@@ -9393,7 +9458,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
@@ -9411,7 +9476,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
@@ -9427,7 +9492,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>252</v>
       </c>
@@ -9445,7 +9510,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>254</v>
       </c>
@@ -9463,7 +9528,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
@@ -9479,7 +9544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
@@ -9495,7 +9560,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
@@ -9513,7 +9578,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>212</v>
       </c>
@@ -9529,7 +9594,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>259</v>
       </c>
@@ -9545,7 +9610,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>214</v>
       </c>
@@ -9563,7 +9628,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>217</v>
       </c>
@@ -9579,7 +9644,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>261</v>
       </c>
@@ -9597,7 +9662,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>219</v>
       </c>
@@ -9615,7 +9680,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>263</v>
       </c>
@@ -9633,7 +9698,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>265</v>
       </c>
@@ -9651,7 +9716,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>267</v>
       </c>
@@ -9669,7 +9734,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>268</v>
       </c>
@@ -9677,7 +9742,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>187</v>
       </c>
@@ -9693,7 +9758,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
@@ -9711,7 +9776,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>145</v>
       </c>
@@ -9731,7 +9796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>191</v>
       </c>
@@ -9749,7 +9814,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>194</v>
       </c>
@@ -9767,7 +9832,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>197</v>
       </c>
@@ -9785,7 +9850,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>202</v>
       </c>
@@ -9801,7 +9866,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
@@ -9817,7 +9882,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
@@ -9833,7 +9898,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>214</v>
       </c>
@@ -9851,7 +9916,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>217</v>
       </c>
@@ -9867,7 +9932,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
@@ -9885,7 +9950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
@@ -9903,7 +9968,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
@@ -9921,7 +9986,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>270</v>
       </c>
@@ -9929,7 +9994,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>225</v>
       </c>
@@ -9947,7 +10012,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
@@ -9965,7 +10030,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
@@ -9981,7 +10046,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>189</v>
       </c>
@@ -9999,7 +10064,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>232</v>
       </c>
@@ -10015,7 +10080,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
@@ -10033,7 +10098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
@@ -10049,7 +10114,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
@@ -10069,7 +10134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -10087,7 +10152,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
@@ -10105,7 +10170,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
@@ -10123,7 +10188,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>239</v>
       </c>
@@ -10141,7 +10206,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>242</v>
       </c>
@@ -10157,7 +10222,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
@@ -10175,7 +10240,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>247</v>
       </c>
@@ -10193,7 +10258,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>202</v>
       </c>
@@ -10209,7 +10274,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>250</v>
       </c>
@@ -10227,7 +10292,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>206</v>
       </c>
@@ -10243,7 +10308,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>252</v>
       </c>
@@ -10261,7 +10326,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
@@ -10279,7 +10344,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>256</v>
       </c>
@@ -10297,7 +10362,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>212</v>
       </c>
@@ -10313,7 +10378,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>259</v>
       </c>
@@ -10329,7 +10394,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
@@ -10347,7 +10412,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>217</v>
       </c>
@@ -10363,7 +10428,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>261</v>
       </c>
@@ -10381,7 +10446,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>219</v>
       </c>
@@ -10399,7 +10464,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
@@ -10417,7 +10482,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>265</v>
       </c>
@@ -10435,7 +10500,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
@@ -10467,18 +10532,18 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
@@ -10486,7 +10551,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
@@ -10506,7 +10571,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>274</v>
       </c>
@@ -10524,7 +10589,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>277</v>
       </c>
@@ -10544,7 +10609,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>279</v>
       </c>
@@ -10560,7 +10625,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>281</v>
       </c>
@@ -10568,7 +10633,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
@@ -10586,7 +10651,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>284</v>
       </c>
@@ -10604,7 +10669,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
@@ -10622,7 +10687,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
@@ -10642,7 +10707,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
@@ -10660,7 +10725,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
@@ -10678,7 +10743,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
@@ -10696,7 +10761,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
@@ -10714,7 +10779,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
@@ -10732,7 +10797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
@@ -10750,7 +10815,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
@@ -10758,7 +10823,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>304</v>
       </c>
@@ -10776,7 +10841,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>306</v>
       </c>
@@ -10792,7 +10857,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
@@ -10810,7 +10875,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>309</v>
       </c>
@@ -10828,7 +10893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
@@ -10846,7 +10911,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>313</v>
       </c>
@@ -10864,7 +10929,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>315</v>
       </c>
@@ -10882,7 +10947,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>317</v>
       </c>
@@ -10900,7 +10965,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>319</v>
       </c>
@@ -10918,7 +10983,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>321</v>
       </c>
@@ -10936,7 +11001,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -10954,7 +11019,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>325</v>
       </c>
@@ -10972,7 +11037,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -10990,7 +11055,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>329</v>
       </c>
@@ -11008,7 +11073,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>331</v>
       </c>
@@ -11026,7 +11091,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>333</v>
       </c>
@@ -11044,7 +11109,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>336</v>
       </c>
@@ -11062,7 +11127,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>338</v>
       </c>
@@ -11078,7 +11143,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
@@ -11096,7 +11161,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>342</v>
       </c>
@@ -11114,7 +11179,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>344</v>
       </c>
@@ -11132,7 +11197,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>347</v>
       </c>
@@ -11148,7 +11213,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>349</v>
       </c>
@@ -11166,7 +11231,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>351</v>
       </c>
@@ -11184,7 +11249,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>353</v>
       </c>
@@ -11202,7 +11267,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>355</v>
       </c>
@@ -11220,7 +11285,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>291</v>
       </c>
@@ -11238,7 +11303,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>358</v>
       </c>
@@ -11256,7 +11321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>359</v>
       </c>
@@ -11274,7 +11339,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
@@ -11292,7 +11357,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
@@ -11310,7 +11375,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
@@ -11328,7 +11393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>366</v>
       </c>
@@ -11346,7 +11411,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>368</v>
       </c>
@@ -11364,7 +11429,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>370</v>
       </c>
@@ -11380,7 +11445,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>372</v>
       </c>
@@ -11398,7 +11463,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>374</v>
       </c>
@@ -11416,7 +11481,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
@@ -11434,7 +11499,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>378</v>
       </c>
@@ -11452,7 +11517,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>380</v>
       </c>
@@ -11468,7 +11533,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>382</v>
       </c>
@@ -11486,7 +11551,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>385</v>
       </c>
@@ -11504,7 +11569,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>387</v>
       </c>
@@ -11522,7 +11587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>389</v>
       </c>
@@ -11540,7 +11605,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>391</v>
       </c>
@@ -11558,7 +11623,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>393</v>
       </c>
@@ -11576,7 +11641,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>395</v>
       </c>
@@ -11594,7 +11659,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>397</v>
       </c>
@@ -11612,7 +11677,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>400</v>
       </c>
@@ -11630,7 +11695,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
@@ -11648,7 +11713,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>404</v>
       </c>
@@ -11666,7 +11731,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>406</v>
       </c>
@@ -11684,7 +11749,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
@@ -11702,7 +11767,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
@@ -11720,7 +11785,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>412</v>
       </c>
@@ -11736,7 +11801,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
@@ -11754,7 +11819,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
@@ -11772,7 +11837,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>418</v>
       </c>
@@ -11790,7 +11855,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
@@ -11808,7 +11873,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>422</v>
       </c>
@@ -11824,7 +11889,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>424</v>
       </c>
@@ -11842,7 +11907,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
@@ -11863,7 +11928,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>430</v>
       </c>
@@ -11881,7 +11946,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>432</v>
       </c>
@@ -11899,7 +11964,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>434</v>
       </c>
@@ -11917,7 +11982,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
@@ -11925,7 +11990,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>304</v>
       </c>
@@ -11943,7 +12008,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
@@ -11959,7 +12024,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>308</v>
       </c>
@@ -11977,7 +12042,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>309</v>
       </c>
@@ -11995,7 +12060,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>311</v>
       </c>
@@ -12013,7 +12078,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>313</v>
       </c>
@@ -12031,7 +12096,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>315</v>
       </c>
@@ -12049,7 +12114,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>317</v>
       </c>
@@ -12067,7 +12132,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>319</v>
       </c>
@@ -12085,7 +12150,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>321</v>
       </c>
@@ -12103,7 +12168,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>323</v>
       </c>
@@ -12121,7 +12186,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>325</v>
       </c>
@@ -12139,7 +12204,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>327</v>
       </c>
@@ -12157,7 +12222,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>329</v>
       </c>
@@ -12175,7 +12240,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>331</v>
       </c>
@@ -12193,7 +12258,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>333</v>
       </c>
@@ -12211,7 +12276,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
@@ -12229,7 +12294,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>338</v>
       </c>
@@ -12245,7 +12310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>340</v>
       </c>
@@ -12263,7 +12328,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>342</v>
       </c>
@@ -12281,7 +12346,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>344</v>
       </c>
@@ -12299,7 +12364,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -12315,7 +12380,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>349</v>
       </c>
@@ -12333,7 +12398,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>351</v>
       </c>
@@ -12351,7 +12416,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>353</v>
       </c>
@@ -12369,7 +12434,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>355</v>
       </c>
@@ -12387,7 +12452,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>291</v>
       </c>
@@ -12405,7 +12470,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>358</v>
       </c>
@@ -12423,7 +12488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>359</v>
       </c>
@@ -12441,7 +12506,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>361</v>
       </c>
@@ -12459,7 +12524,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
@@ -12477,7 +12542,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
         <v>365</v>
       </c>
@@ -12495,7 +12560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
         <v>366</v>
       </c>
@@ -12513,7 +12578,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>368</v>
       </c>
@@ -12531,7 +12596,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>370</v>
       </c>
@@ -12547,7 +12612,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>372</v>
       </c>
@@ -12565,7 +12630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
@@ -12583,7 +12648,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -12601,7 +12666,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>378</v>
       </c>
@@ -12619,7 +12684,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>380</v>
       </c>
@@ -12635,7 +12700,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>382</v>
       </c>
@@ -12653,7 +12718,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>385</v>
       </c>
@@ -12671,7 +12736,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>387</v>
       </c>
@@ -12689,7 +12754,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>389</v>
       </c>
@@ -12707,7 +12772,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
@@ -12725,7 +12790,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
@@ -12743,7 +12808,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
@@ -12761,7 +12826,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>397</v>
       </c>
@@ -12779,7 +12844,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
         <v>400</v>
       </c>
@@ -12797,7 +12862,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
@@ -12815,7 +12880,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>404</v>
       </c>
@@ -12833,7 +12898,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
@@ -12851,7 +12916,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>408</v>
       </c>
@@ -12869,7 +12934,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>410</v>
       </c>
@@ -12887,7 +12952,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>412</v>
       </c>
@@ -12903,7 +12968,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>414</v>
       </c>
@@ -12921,7 +12986,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>416</v>
       </c>
@@ -12939,7 +13004,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>418</v>
       </c>
@@ -12957,7 +13022,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>420</v>
       </c>
@@ -12975,7 +13040,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>422</v>
       </c>
@@ -12991,7 +13056,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>424</v>
       </c>
@@ -13009,7 +13074,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>437</v>
       </c>
@@ -13027,7 +13092,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>439</v>
       </c>
@@ -13045,7 +13110,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>430</v>
       </c>
@@ -13063,7 +13128,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>432</v>
       </c>
@@ -13081,7 +13146,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>434</v>
       </c>
@@ -13107,32 +13172,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P102"/>
+  <dimension ref="A2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.296875" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.19921875" customWidth="1"/>
-    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>627</v>
       </c>
@@ -13140,7 +13205,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>636</v>
       </c>
@@ -13165,7 +13230,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>546</v>
       </c>
@@ -13190,7 +13255,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
         <v>685</v>
       </c>
@@ -13210,7 +13275,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>641</v>
       </c>
@@ -13226,7 +13291,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>674</v>
       </c>
@@ -13242,7 +13307,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
         <v>684</v>
       </c>
@@ -13258,7 +13323,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>669</v>
       </c>
@@ -13286,7 +13351,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>664</v>
       </c>
@@ -13314,7 +13379,13 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>715</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>716</v>
+      </c>
       <c r="I11" s="14" t="s">
         <v>645</v>
       </c>
@@ -13332,7 +13403,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -13342,7 +13413,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
@@ -13352,7 +13423,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I14" s="10" t="s">
         <v>682</v>
       </c>
@@ -13374,10 +13445,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="32" t="s">
-        <v>652</v>
-      </c>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I15" s="14" t="s">
         <v>680</v>
       </c>
@@ -13399,17 +13467,10 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>652</v>
+      </c>
       <c r="I16" s="14" t="s">
         <v>648</v>
       </c>
@@ -13427,25 +13488,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>558</v>
-      </c>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
@@ -13459,9 +13512,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>649</v>
@@ -13476,7 +13529,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -13487,22 +13540,24 @@
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="3" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="8" t="s">
-        <v>562</v>
+      <c r="F19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -13513,12 +13568,12 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>44</v>
@@ -13528,7 +13583,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -13539,9 +13594,9 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>245</v>
@@ -13554,7 +13609,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -13565,9 +13620,9 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>245</v>
@@ -13580,15 +13635,15 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
@@ -13598,24 +13653,26 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H24" s="7"/>
       <c r="J24" s="7"/>
@@ -13623,72 +13680,70 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>552</v>
-      </c>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>558</v>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>552</v>
       </c>
       <c r="H27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="3" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="8" t="s">
-        <v>577</v>
+      <c r="F28" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="H28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>44</v>
@@ -13698,76 +13753,76 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B32" s="10" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="38" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C34" s="38" t="s">
         <v>673</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36" t="s">
+      <c r="D34" s="36"/>
+      <c r="E34" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F34" s="36" t="s">
         <v>708</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G34" s="36" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="8" t="s">
-        <v>711</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>132</v>
@@ -13780,49 +13835,49 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="9" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>587</v>
+        <v>711</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>691</v>
+        <v>587</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="8" t="s">
-        <v>695</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>245</v>
+        <v>713</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
@@ -13832,15 +13887,15 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="9" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>591</v>
+        <v>695</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>656</v>
+        <v>245</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>44</v>
@@ -13850,59 +13905,57 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="34" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="11" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C46" s="38" t="s">
         <v>673</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>675</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>44</v>
@@ -13914,134 +13967,137 @@
         <v>3</v>
       </c>
       <c r="G46" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>675</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="8" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="8" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B52" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>601</v>
-      </c>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="36" t="s">
-        <v>698</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>697</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>701</v>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>601</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="B54" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>698</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>697</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="8" t="s">
-        <v>607</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>132</v>
@@ -14054,15 +14110,15 @@
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>655</v>
+        <v>132</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>44</v>
@@ -14072,224 +14128,225 @@
       </c>
       <c r="F56" s="41"/>
       <c r="G56" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>655</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="41"/>
       <c r="G57" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
       <c r="B58" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="41"/>
       <c r="G58" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>688</v>
+        <v>613</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>660</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E59" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="39" t="s">
-        <v>672</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>688</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>673</v>
       </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F60" s="41"/>
       <c r="G60" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="39" t="s">
+        <v>672</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B61" s="8" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B62" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>656</v>
-      </c>
       <c r="D62" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F62" s="41"/>
       <c r="G62" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="41"/>
       <c r="G63" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="41"/>
       <c r="G64" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="9" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="42"/>
-      <c r="G65" s="9" t="s">
+      <c r="F66" s="42"/>
+      <c r="G66" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="10" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="11" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C69" s="36" t="s">
         <v>673</v>
-      </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>709</v>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>427</v>
       </c>
       <c r="D69" s="36"/>
       <c r="E69" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="36" t="s">
+        <v>709</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="36" t="s">
+      <c r="G70" s="36" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="8" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="8" t="s">
-        <v>619</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>132</v>
@@ -14302,30 +14359,30 @@
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="9" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="9" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>132</v>
@@ -14338,12 +14395,12 @@
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>132</v>
@@ -14356,79 +14413,79 @@
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D76" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E76" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="34" t="s">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="34" t="s">
         <v>661</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C79" s="34" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="11" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C80" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" s="36" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>654</v>
-      </c>
-      <c r="D80" s="36"/>
+      <c r="D80" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E80" s="36" t="s">
         <v>2</v>
       </c>
@@ -14436,82 +14493,82 @@
         <v>3</v>
       </c>
       <c r="G80" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="36" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="8" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="9" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="9" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
+      <c r="D84" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="8" t="s">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="8" t="s">
-        <v>623</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>132</v>
@@ -14524,12 +14581,12 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>132</v>
@@ -14542,150 +14599,150 @@
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D88" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E88" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="35"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B91" s="34" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="35"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="34" t="s">
         <v>670</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C92" s="34" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B92" s="11" t="s">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C93" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D93" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E93" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F92" s="36" t="s">
+      <c r="F93" s="36" t="s">
         <v>708</v>
       </c>
-      <c r="G92" s="36" t="s">
+      <c r="G93" s="36" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="9" t="s">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B94" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="D94" s="9"/>
+      <c r="D94" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E94" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D95" s="3"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="9" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
-        <v>617</v>
+        <v>672</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>6</v>
+        <v>673</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>132</v>
@@ -14698,30 +14755,30 @@
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="9" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="9" t="s">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>132</v>
@@ -14734,12 +14791,12 @@
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>132</v>
@@ -14752,41 +14809,197 @@
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D102" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E102" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="44" t="s">
+        <v>719</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>720</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="F109" s="37"/>
+      <c r="G109" s="45" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="8" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -14805,30 +15018,30 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.8984375" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>533</v>
       </c>
@@ -14851,7 +15064,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>487</v>
       </c>
@@ -14880,7 +15093,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>453</v>
       </c>
@@ -14915,7 +15128,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>454</v>
       </c>
@@ -14950,7 +15163,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>482</v>
       </c>
@@ -14975,7 +15188,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>484</v>
       </c>
@@ -15004,7 +15217,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>455</v>
       </c>
@@ -15041,7 +15254,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>456</v>
       </c>
@@ -15078,7 +15291,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>457</v>
       </c>
@@ -15103,7 +15316,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>458</v>
       </c>
@@ -15132,7 +15345,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>459</v>
       </c>
@@ -15179,7 +15392,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>460</v>
       </c>
@@ -15226,7 +15439,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>461</v>
       </c>
@@ -15251,7 +15464,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>544</v>
       </c>
@@ -15280,7 +15493,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>543</v>
       </c>
@@ -15317,7 +15530,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>486</v>
       </c>
@@ -15354,7 +15567,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>462</v>
       </c>
@@ -15379,7 +15592,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>463</v>
       </c>
@@ -15408,7 +15621,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>464</v>
       </c>
@@ -15449,7 +15662,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>485</v>
       </c>
@@ -15490,7 +15703,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>465</v>
       </c>
@@ -15515,7 +15728,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>466</v>
       </c>
@@ -15544,7 +15757,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>467</v>
       </c>
@@ -15599,7 +15812,7 @@
       </c>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="s">
         <v>468</v>
       </c>
@@ -15654,7 +15867,7 @@
       </c>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
         <v>469</v>
       </c>
@@ -15679,7 +15892,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>470</v>
       </c>
@@ -15708,7 +15921,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>471</v>
       </c>
@@ -15765,7 +15978,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>472</v>
       </c>
@@ -15822,7 +16035,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>473</v>
       </c>
@@ -15847,7 +16060,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>474</v>
       </c>
@@ -15872,7 +16085,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
         <v>475</v>
       </c>
@@ -15897,7 +16110,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="23" t="s">
         <v>476</v>
       </c>
@@ -15922,7 +16135,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>477</v>
       </c>
@@ -15947,7 +16160,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>478</v>
       </c>
@@ -15972,7 +16185,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>479</v>
       </c>
@@ -15997,7 +16210,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>480</v>
       </c>
@@ -16022,7 +16235,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>481</v>
       </c>
@@ -16047,7 +16260,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -16055,7 +16268,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>627</v>
       </c>
@@ -16063,7 +16276,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>545</v>
       </c>
@@ -16078,7 +16291,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>546</v>
       </c>
@@ -16110,7 +16323,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>547</v>
       </c>
@@ -16142,7 +16355,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>548</v>
       </c>
@@ -16150,7 +16363,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>549</v>
       </c>
@@ -16164,7 +16377,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>550</v>
       </c>
@@ -16184,7 +16397,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E46" s="11" t="s">
         <v>558</v>
       </c>
@@ -16198,12 +16411,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E48" s="12" t="s">
         <v>596</v>
       </c>
@@ -16213,7 +16426,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" s="11" t="s">
         <v>579</v>
       </c>
@@ -16245,7 +16458,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" s="11" t="s">
         <v>580</v>
       </c>
@@ -16277,7 +16490,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="12" t="s">
         <v>598</v>
       </c>
@@ -16285,7 +16498,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="11" t="s">
         <v>579</v>
       </c>
@@ -16305,7 +16518,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="11" t="s">
         <v>580</v>
       </c>
@@ -16325,12 +16538,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" s="12" t="s">
         <v>600</v>
       </c>
@@ -16339,7 +16552,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
         <v>579</v>
       </c>
@@ -16371,7 +16584,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
         <v>580</v>
       </c>
@@ -16403,12 +16616,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60" s="12" t="s">
         <v>602</v>
       </c>
@@ -16417,7 +16630,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61" s="11" t="s">
         <v>579</v>
       </c>
@@ -16455,7 +16668,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62" s="11" t="s">
         <v>580</v>
       </c>
@@ -16493,86 +16706,86 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="17685" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="60" windowWidth="17688" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="지수_지수일별" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="724">
   <si>
     <t>F12506</t>
   </si>
@@ -2312,6 +2312,10 @@
   </si>
   <si>
     <t>공개여부 0: 비공개, 1: 공개요청, 2 공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2743,8 +2747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13820775" y="571500"/>
-          <a:ext cx="460269" cy="133350"/>
+          <a:off x="13776960" y="594360"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -2942,8 +2946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13828395" y="1836420"/>
-          <a:ext cx="460269" cy="133350"/>
+          <a:off x="13784580" y="1927860"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3141,8 +3145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11016615" y="1836420"/>
-          <a:ext cx="460269" cy="133350"/>
+          <a:off x="10980420" y="1927860"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3544,8 +3548,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11016615" y="2853690"/>
-          <a:ext cx="460269" cy="133350"/>
+          <a:off x="10980420" y="3002280"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3803,8 +3807,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="15429548" y="2452688"/>
-          <a:ext cx="437409" cy="146685"/>
+          <a:off x="15369540" y="2590801"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -5333,22 +5337,22 @@
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5382,7 +5386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -5528,12 +5532,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5567,7 +5571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -5631,7 +5635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -5713,12 +5717,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -5816,7 +5820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -5932,7 +5936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -5948,7 +5952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
@@ -6012,7 +6016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -6044,7 +6048,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
@@ -6108,7 +6112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>80</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
@@ -6172,7 +6176,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -6188,7 +6192,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -6252,7 +6256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>97</v>
       </c>
@@ -6268,12 +6272,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
@@ -6289,7 +6293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -6371,7 +6375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -6403,7 +6407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>16</v>
       </c>
@@ -6455,7 +6459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -6473,12 +6477,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
@@ -6544,7 +6548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
@@ -6576,7 +6580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>103</v>
       </c>
@@ -6678,12 +6682,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
@@ -6699,7 +6703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="3" t="s">
         <v>13</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6865,7 +6869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
@@ -6883,12 +6887,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="3" t="s">
         <v>4</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="3" t="s">
         <v>103</v>
       </c>
@@ -7088,12 +7092,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
@@ -7127,7 +7131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
@@ -7191,7 +7195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="3" t="s">
         <v>13</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B129" s="3" t="s">
         <v>15</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B130" s="3" t="s">
         <v>16</v>
       </c>
@@ -7275,7 +7279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B131" s="3" t="s">
         <v>110</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="3" t="s">
         <v>112</v>
       </c>
@@ -7307,7 +7311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="3" t="s">
         <v>114</v>
       </c>
@@ -7323,7 +7327,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
@@ -7339,12 +7343,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
@@ -7426,7 +7430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -7458,7 +7462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
@@ -7474,7 +7478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
@@ -7526,7 +7530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
@@ -7542,7 +7546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" s="3" t="s">
         <v>114</v>
       </c>
@@ -7590,7 +7594,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
@@ -7606,12 +7610,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B154" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B156" s="3" t="s">
         <v>4</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B157" s="3" t="s">
         <v>7</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B159" s="3" t="s">
         <v>15</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B160" s="3" t="s">
         <v>41</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
@@ -7729,12 +7733,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B163" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B164" s="3" t="s">
         <v>0</v>
       </c>
@@ -7752,7 +7756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B165" s="3" t="s">
         <v>4</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B168" s="3" t="s">
         <v>15</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B169" s="3" t="s">
         <v>131</v>
       </c>
@@ -7834,7 +7838,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B171" s="3" t="s">
         <v>57</v>
       </c>
@@ -7870,7 +7874,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B172" s="3" t="s">
         <v>135</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B173" s="3" t="s">
         <v>137</v>
       </c>
@@ -7902,12 +7906,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B175" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B176" s="3" t="s">
         <v>0</v>
       </c>
@@ -7925,7 +7929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B177" s="3" t="s">
         <v>4</v>
       </c>
@@ -7941,7 +7945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
@@ -7989,7 +7993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B181" s="3" t="s">
         <v>11</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B183" s="3" t="s">
         <v>13</v>
       </c>
@@ -8037,7 +8041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B184" s="3" t="s">
         <v>14</v>
       </c>
@@ -8053,7 +8057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B185" s="3" t="s">
         <v>15</v>
       </c>
@@ -8069,7 +8073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
@@ -8087,12 +8091,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B188" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B189" s="3" t="s">
         <v>0</v>
       </c>
@@ -8110,7 +8114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B190" s="3" t="s">
         <v>4</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B191" s="3" t="s">
         <v>7</v>
       </c>
@@ -8142,7 +8146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B194" s="3" t="s">
         <v>11</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
@@ -8206,7 +8210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B196" s="3" t="s">
         <v>13</v>
       </c>
@@ -8222,7 +8226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B197" s="3" t="s">
         <v>14</v>
       </c>
@@ -8238,7 +8242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B198" s="3" t="s">
         <v>15</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
@@ -8287,17 +8291,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>142</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
@@ -8341,7 +8345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
@@ -8359,7 +8363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
@@ -8421,7 +8425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -8439,7 +8443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
@@ -8475,7 +8479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
@@ -8511,7 +8515,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
@@ -8527,7 +8531,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -8555,7 +8559,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
@@ -8571,7 +8575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -8609,7 +8613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
@@ -8625,7 +8629,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>172</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>175</v>
       </c>
@@ -8673,7 +8677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
@@ -8693,7 +8697,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>178</v>
       </c>
@@ -8717,7 +8721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -8735,7 +8739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -8755,7 +8759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
@@ -8775,7 +8779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>151</v>
       </c>
@@ -8825,16 +8829,16 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.19921875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
@@ -8860,7 +8864,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -8914,7 +8918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>191</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>194</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
@@ -8968,7 +8972,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>202</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
@@ -9036,7 +9040,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
@@ -9052,7 +9056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>214</v>
       </c>
@@ -9102,7 +9106,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>217</v>
       </c>
@@ -9118,7 +9122,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
@@ -9136,7 +9140,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>221</v>
       </c>
@@ -9154,7 +9158,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>225</v>
       </c>
@@ -9180,7 +9184,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
@@ -9198,7 +9202,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
@@ -9214,7 +9218,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>229</v>
       </c>
@@ -9230,7 +9234,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
         <v>232</v>
       </c>
@@ -9264,7 +9268,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
@@ -9282,7 +9286,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
@@ -9298,7 +9302,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
@@ -9336,7 +9340,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>194</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
@@ -9372,7 +9376,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>239</v>
       </c>
@@ -9390,7 +9394,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>242</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>244</v>
       </c>
@@ -9424,7 +9428,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
@@ -9442,7 +9446,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>202</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
@@ -9492,7 +9496,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>252</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>254</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
@@ -9560,7 +9564,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>212</v>
       </c>
@@ -9594,7 +9598,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>259</v>
       </c>
@@ -9610,7 +9614,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>214</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>217</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>261</v>
       </c>
@@ -9662,7 +9666,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>219</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>263</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>265</v>
       </c>
@@ -9716,7 +9720,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>267</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="2" t="s">
         <v>268</v>
       </c>
@@ -9742,7 +9746,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>187</v>
       </c>
@@ -9758,7 +9762,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
@@ -9776,7 +9780,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>145</v>
       </c>
@@ -9796,7 +9800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>191</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>194</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>197</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="3" t="s">
         <v>202</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
@@ -9882,7 +9886,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>214</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>217</v>
       </c>
@@ -9932,7 +9936,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
@@ -9950,7 +9954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
@@ -9968,7 +9972,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
@@ -9986,7 +9990,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="2" t="s">
         <v>270</v>
       </c>
@@ -9994,7 +9998,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>225</v>
       </c>
@@ -10012,7 +10016,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
@@ -10030,7 +10034,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="3" t="s">
         <v>189</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="3" t="s">
         <v>232</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -10152,7 +10156,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
@@ -10170,7 +10174,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
@@ -10188,7 +10192,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>239</v>
       </c>
@@ -10206,7 +10210,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
         <v>242</v>
       </c>
@@ -10222,7 +10226,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="3" t="s">
         <v>247</v>
       </c>
@@ -10258,7 +10262,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="3" t="s">
         <v>202</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>250</v>
       </c>
@@ -10292,7 +10296,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>206</v>
       </c>
@@ -10308,7 +10312,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>252</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
@@ -10344,7 +10348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>256</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="3" t="s">
         <v>212</v>
       </c>
@@ -10378,7 +10382,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
         <v>259</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
@@ -10412,7 +10416,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="3" t="s">
         <v>217</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="3" t="s">
         <v>261</v>
       </c>
@@ -10446,7 +10450,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="3" t="s">
         <v>219</v>
       </c>
@@ -10464,7 +10468,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
@@ -10482,7 +10486,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="3" t="s">
         <v>265</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
@@ -10532,18 +10536,18 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>274</v>
       </c>
@@ -10589,7 +10593,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>277</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>279</v>
       </c>
@@ -10625,7 +10629,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>281</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>284</v>
       </c>
@@ -10669,7 +10673,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
@@ -10743,7 +10747,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
@@ -10761,7 +10765,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
@@ -10779,7 +10783,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
@@ -10797,7 +10801,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
@@ -10815,7 +10819,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
@@ -10823,7 +10827,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>304</v>
       </c>
@@ -10841,7 +10845,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>306</v>
       </c>
@@ -10857,7 +10861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
@@ -10875,7 +10879,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>309</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>313</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>315</v>
       </c>
@@ -10947,7 +10951,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
         <v>317</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
         <v>319</v>
       </c>
@@ -10983,7 +10987,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>321</v>
       </c>
@@ -11001,7 +11005,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -11019,7 +11023,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>325</v>
       </c>
@@ -11037,7 +11041,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>329</v>
       </c>
@@ -11073,7 +11077,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>331</v>
       </c>
@@ -11091,7 +11095,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>333</v>
       </c>
@@ -11109,7 +11113,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>336</v>
       </c>
@@ -11127,7 +11131,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>338</v>
       </c>
@@ -11143,7 +11147,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
@@ -11161,7 +11165,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>342</v>
       </c>
@@ -11179,7 +11183,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>344</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>347</v>
       </c>
@@ -11213,7 +11217,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>349</v>
       </c>
@@ -11231,7 +11235,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>351</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>353</v>
       </c>
@@ -11267,7 +11271,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>355</v>
       </c>
@@ -11285,7 +11289,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>291</v>
       </c>
@@ -11303,7 +11307,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>358</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>359</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
@@ -11375,7 +11379,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
@@ -11393,7 +11397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>366</v>
       </c>
@@ -11411,7 +11415,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>368</v>
       </c>
@@ -11429,7 +11433,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>370</v>
       </c>
@@ -11445,7 +11449,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>372</v>
       </c>
@@ -11463,7 +11467,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>374</v>
       </c>
@@ -11481,7 +11485,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
@@ -11499,7 +11503,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>378</v>
       </c>
@@ -11517,7 +11521,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>380</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>382</v>
       </c>
@@ -11551,7 +11555,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>385</v>
       </c>
@@ -11569,7 +11573,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>387</v>
       </c>
@@ -11587,7 +11591,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="3" t="s">
         <v>389</v>
       </c>
@@ -11605,7 +11609,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>391</v>
       </c>
@@ -11623,7 +11627,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>393</v>
       </c>
@@ -11641,7 +11645,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>395</v>
       </c>
@@ -11659,7 +11663,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>397</v>
       </c>
@@ -11677,7 +11681,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>400</v>
       </c>
@@ -11695,7 +11699,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>404</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>406</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
@@ -11767,7 +11771,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
@@ -11785,7 +11789,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>412</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
@@ -11819,7 +11823,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="3" t="s">
         <v>418</v>
       </c>
@@ -11855,7 +11859,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
@@ -11873,7 +11877,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>422</v>
       </c>
@@ -11889,7 +11893,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>424</v>
       </c>
@@ -11907,7 +11911,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
@@ -11928,7 +11932,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" s="3" t="s">
         <v>430</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>432</v>
       </c>
@@ -11964,7 +11968,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>434</v>
       </c>
@@ -11982,7 +11986,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
@@ -11990,7 +11994,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B87" s="3" t="s">
         <v>304</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
@@ -12024,7 +12028,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>308</v>
       </c>
@@ -12042,7 +12046,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>309</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>311</v>
       </c>
@@ -12078,7 +12082,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>313</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>315</v>
       </c>
@@ -12114,7 +12118,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" s="3" t="s">
         <v>317</v>
       </c>
@@ -12132,7 +12136,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
         <v>319</v>
       </c>
@@ -12150,7 +12154,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B96" s="3" t="s">
         <v>321</v>
       </c>
@@ -12168,7 +12172,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="3" t="s">
         <v>323</v>
       </c>
@@ -12186,7 +12190,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="3" t="s">
         <v>325</v>
       </c>
@@ -12204,7 +12208,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="3" t="s">
         <v>327</v>
       </c>
@@ -12222,7 +12226,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="3" t="s">
         <v>329</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="3" t="s">
         <v>331</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="3" t="s">
         <v>333</v>
       </c>
@@ -12276,7 +12280,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
@@ -12294,7 +12298,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" s="3" t="s">
         <v>338</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="3" t="s">
         <v>340</v>
       </c>
@@ -12328,7 +12332,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="3" t="s">
         <v>342</v>
       </c>
@@ -12346,7 +12350,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="3" t="s">
         <v>344</v>
       </c>
@@ -12364,7 +12368,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="3" t="s">
         <v>349</v>
       </c>
@@ -12398,7 +12402,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="3" t="s">
         <v>351</v>
       </c>
@@ -12416,7 +12420,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" s="3" t="s">
         <v>353</v>
       </c>
@@ -12434,7 +12438,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="3" t="s">
         <v>355</v>
       </c>
@@ -12452,7 +12456,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="3" t="s">
         <v>291</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="3" t="s">
         <v>358</v>
       </c>
@@ -12488,7 +12492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="3" t="s">
         <v>359</v>
       </c>
@@ -12506,7 +12510,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="3" t="s">
         <v>361</v>
       </c>
@@ -12524,7 +12528,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
@@ -12542,7 +12546,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="3" t="s">
         <v>365</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="3" t="s">
         <v>366</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="3" t="s">
         <v>368</v>
       </c>
@@ -12596,7 +12600,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="3" t="s">
         <v>370</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="3" t="s">
         <v>372</v>
       </c>
@@ -12630,7 +12634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
@@ -12648,7 +12652,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="3" t="s">
         <v>378</v>
       </c>
@@ -12684,7 +12688,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="3" t="s">
         <v>380</v>
       </c>
@@ -12700,7 +12704,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="3" t="s">
         <v>382</v>
       </c>
@@ -12718,7 +12722,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="3" t="s">
         <v>385</v>
       </c>
@@ -12736,7 +12740,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B129" s="3" t="s">
         <v>387</v>
       </c>
@@ -12754,7 +12758,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B130" s="3" t="s">
         <v>389</v>
       </c>
@@ -12772,7 +12776,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
@@ -12808,7 +12812,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
@@ -12826,7 +12830,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B134" s="3" t="s">
         <v>397</v>
       </c>
@@ -12844,7 +12848,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B135" s="3" t="s">
         <v>400</v>
       </c>
@@ -12862,7 +12866,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
@@ -12880,7 +12884,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B137" s="3" t="s">
         <v>404</v>
       </c>
@@ -12898,7 +12902,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
@@ -12916,7 +12920,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" s="3" t="s">
         <v>408</v>
       </c>
@@ -12934,7 +12938,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B140" s="3" t="s">
         <v>410</v>
       </c>
@@ -12952,7 +12956,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B141" s="3" t="s">
         <v>412</v>
       </c>
@@ -12968,7 +12972,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B142" s="3" t="s">
         <v>414</v>
       </c>
@@ -12986,7 +12990,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B143" s="3" t="s">
         <v>416</v>
       </c>
@@ -13004,7 +13008,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B144" s="3" t="s">
         <v>418</v>
       </c>
@@ -13022,7 +13026,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B145" s="3" t="s">
         <v>420</v>
       </c>
@@ -13040,7 +13044,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="3" t="s">
         <v>422</v>
       </c>
@@ -13056,7 +13060,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="3" t="s">
         <v>424</v>
       </c>
@@ -13074,7 +13078,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B148" s="3" t="s">
         <v>437</v>
       </c>
@@ -13092,7 +13096,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B149" s="3" t="s">
         <v>439</v>
       </c>
@@ -13110,7 +13114,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B150" s="3" t="s">
         <v>430</v>
       </c>
@@ -13128,7 +13132,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" s="3" t="s">
         <v>432</v>
       </c>
@@ -13146,7 +13150,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B152" s="3" t="s">
         <v>434</v>
       </c>
@@ -13174,30 +13178,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" customWidth="1"/>
-    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.19921875" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" customWidth="1"/>
-    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" s="31" t="s">
         <v>627</v>
       </c>
@@ -13205,7 +13209,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>636</v>
       </c>
@@ -13230,7 +13234,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>546</v>
       </c>
@@ -13255,7 +13259,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
         <v>685</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>641</v>
       </c>
@@ -13291,7 +13295,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
         <v>674</v>
       </c>
@@ -13307,7 +13311,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="37" t="s">
         <v>684</v>
       </c>
@@ -13323,7 +13327,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>669</v>
       </c>
@@ -13351,7 +13355,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>664</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="37" t="s">
         <v>715</v>
       </c>
@@ -13403,7 +13407,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -13413,7 +13417,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
@@ -13423,7 +13427,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I14" s="10" t="s">
         <v>682</v>
       </c>
@@ -13445,7 +13449,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I15" s="14" t="s">
         <v>680</v>
       </c>
@@ -13467,7 +13471,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="32" t="s">
         <v>652</v>
       </c>
@@ -13488,7 +13492,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="34" t="s">
         <v>636</v>
       </c>
@@ -13512,7 +13516,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>557</v>
       </c>
@@ -13540,7 +13544,7 @@
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>559</v>
       </c>
@@ -13568,7 +13572,7 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
         <v>561</v>
       </c>
@@ -13594,7 +13598,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B21" s="8" t="s">
         <v>563</v>
       </c>
@@ -13620,7 +13624,7 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B22" s="8" t="s">
         <v>565</v>
       </c>
@@ -13638,7 +13642,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
         <v>567</v>
       </c>
@@ -13657,7 +13661,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
         <v>569</v>
       </c>
@@ -13680,7 +13684,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
         <v>571</v>
       </c>
@@ -13699,12 +13703,12 @@
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="H26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="34" t="s">
         <v>644</v>
       </c>
@@ -13715,7 +13719,7 @@
       <c r="J27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>557</v>
       </c>
@@ -13738,7 +13742,7 @@
       <c r="J28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
         <v>576</v>
       </c>
@@ -13756,7 +13760,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
         <v>569</v>
       </c>
@@ -13774,7 +13778,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
         <v>571</v>
       </c>
@@ -13790,7 +13794,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>676</v>
       </c>
@@ -13802,7 +13806,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="38" t="s">
         <v>581</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
         <v>710</v>
       </c>
@@ -13838,7 +13842,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>711</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
         <v>587</v>
       </c>
@@ -13872,7 +13876,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>691</v>
       </c>
@@ -13890,7 +13894,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
         <v>695</v>
       </c>
@@ -13908,7 +13912,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
         <v>591</v>
       </c>
@@ -13926,7 +13930,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
         <v>571</v>
       </c>
@@ -13942,7 +13946,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="34" t="s">
         <v>657</v>
       </c>
@@ -13950,12 +13954,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>579</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>44</v>
@@ -13970,7 +13974,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>291</v>
       </c>
@@ -13990,7 +13994,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>591</v>
       </c>
@@ -14008,7 +14012,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
         <v>571</v>
       </c>
@@ -14024,47 +14028,15 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="8" t="s">
-        <v>433</v>
-      </c>
+    <row r="51" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B53" s="34" t="s">
         <v>600</v>
       </c>
@@ -14074,13 +14046,13 @@
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54"/>
       <c r="B54" s="11" t="s">
         <v>579</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>44</v>
@@ -14095,7 +14067,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="8" t="s">
         <v>605</v>
       </c>
@@ -14113,7 +14085,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="8" t="s">
         <v>607</v>
       </c>
@@ -14131,7 +14103,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="8" t="s">
         <v>609</v>
       </c>
@@ -14149,7 +14121,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="16"/>
       <c r="B58" s="8" t="s">
         <v>611</v>
@@ -14166,7 +14138,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
         <v>613</v>
       </c>
@@ -14184,7 +14156,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B60" s="8" t="s">
         <v>688</v>
       </c>
@@ -14200,7 +14172,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B61" s="39" t="s">
         <v>672</v>
       </c>
@@ -14214,7 +14186,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B62" s="8" t="s">
         <v>663</v>
       </c>
@@ -14232,7 +14204,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B63" s="8" t="s">
         <v>591</v>
       </c>
@@ -14250,7 +14222,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B64" s="8" t="s">
         <v>571</v>
       </c>
@@ -14266,7 +14238,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="8" t="s">
         <v>714</v>
       </c>
@@ -14284,7 +14256,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="9" t="s">
         <v>595</v>
       </c>
@@ -14300,7 +14272,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="10" t="s">
         <v>682</v>
       </c>
@@ -14308,7 +14280,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="11" t="s">
         <v>581</v>
       </c>
@@ -14326,7 +14298,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="11" t="s">
         <v>615</v>
       </c>
@@ -14344,7 +14316,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
         <v>617</v>
       </c>
@@ -14362,7 +14334,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
         <v>619</v>
       </c>
@@ -14380,7 +14352,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="9" t="s">
         <v>621</v>
       </c>
@@ -14398,7 +14370,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
         <v>623</v>
       </c>
@@ -14416,7 +14388,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="9" t="s">
         <v>625</v>
       </c>
@@ -14434,7 +14406,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
         <v>591</v>
       </c>
@@ -14452,7 +14424,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
         <v>571</v>
       </c>
@@ -14468,7 +14440,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="34" t="s">
         <v>661</v>
       </c>
@@ -14476,12 +14448,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C80" s="36" t="s">
-        <v>673</v>
+      <c r="C80" s="38" t="s">
+        <v>723</v>
       </c>
       <c r="D80" s="36" t="s">
         <v>44</v>
@@ -14496,7 +14468,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="11" t="s">
         <v>615</v>
       </c>
@@ -14514,7 +14486,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="8" t="s">
         <v>672</v>
       </c>
@@ -14530,7 +14502,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="8" t="s">
         <v>617</v>
       </c>
@@ -14548,7 +14520,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="9" t="s">
         <v>619</v>
       </c>
@@ -14566,7 +14538,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="8" t="s">
         <v>621</v>
       </c>
@@ -14584,7 +14556,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="8" t="s">
         <v>623</v>
       </c>
@@ -14602,7 +14574,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="8" t="s">
         <v>625</v>
       </c>
@@ -14620,7 +14592,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
         <v>591</v>
       </c>
@@ -14638,7 +14610,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="8" t="s">
         <v>571</v>
       </c>
@@ -14654,7 +14626,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="35"/>
       <c r="C90" s="43"/>
       <c r="D90" s="43"/>
@@ -14662,7 +14634,7 @@
       <c r="F90" s="43"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="34" t="s">
         <v>670</v>
       </c>
@@ -14670,7 +14642,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="11" t="s">
         <v>705</v>
       </c>
@@ -14690,7 +14662,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="9" t="s">
         <v>579</v>
       </c>
@@ -14708,7 +14680,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="9" t="s">
         <v>615</v>
       </c>
@@ -14724,7 +14696,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="8" t="s">
         <v>672</v>
       </c>
@@ -14740,7 +14712,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="8" t="s">
         <v>617</v>
       </c>
@@ -14758,7 +14730,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="8" t="s">
         <v>619</v>
       </c>
@@ -14776,7 +14748,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="9" t="s">
         <v>621</v>
       </c>
@@ -14794,7 +14766,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="9" t="s">
         <v>623</v>
       </c>
@@ -14812,7 +14784,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="9" t="s">
         <v>625</v>
       </c>
@@ -14830,7 +14802,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="9" t="s">
         <v>591</v>
       </c>
@@ -14848,7 +14820,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="9" t="s">
         <v>571</v>
       </c>
@@ -14864,7 +14836,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="37" t="s">
         <v>717</v>
       </c>
@@ -14872,7 +14844,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="11" t="s">
         <v>579</v>
       </c>
@@ -14892,7 +14864,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="11" t="s">
         <v>291</v>
       </c>
@@ -14912,7 +14884,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="44" t="s">
         <v>719</v>
       </c>
@@ -14930,7 +14902,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="8" t="s">
         <v>591</v>
       </c>
@@ -14948,7 +14920,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" s="8" t="s">
         <v>571</v>
       </c>
@@ -14966,7 +14938,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="8" t="s">
         <v>593</v>
       </c>
@@ -14984,7 +14956,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="8" t="s">
         <v>595</v>
       </c>
@@ -15018,30 +14990,30 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
         <v>533</v>
       </c>
@@ -15064,7 +15036,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="19" t="s">
         <v>487</v>
       </c>
@@ -15093,7 +15065,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="23" t="s">
         <v>453</v>
       </c>
@@ -15128,7 +15100,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
         <v>454</v>
       </c>
@@ -15163,7 +15135,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
         <v>482</v>
       </c>
@@ -15188,7 +15160,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
         <v>484</v>
       </c>
@@ -15217,7 +15189,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="23" t="s">
         <v>455</v>
       </c>
@@ -15254,7 +15226,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
         <v>456</v>
       </c>
@@ -15291,7 +15263,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
         <v>457</v>
       </c>
@@ -15316,7 +15288,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="23" t="s">
         <v>458</v>
       </c>
@@ -15345,7 +15317,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="23" t="s">
         <v>459</v>
       </c>
@@ -15392,7 +15364,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>460</v>
       </c>
@@ -15439,7 +15411,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="23" t="s">
         <v>461</v>
       </c>
@@ -15464,7 +15436,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="23" t="s">
         <v>544</v>
       </c>
@@ -15493,7 +15465,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" s="23" t="s">
         <v>543</v>
       </c>
@@ -15530,7 +15502,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="23" t="s">
         <v>486</v>
       </c>
@@ -15567,7 +15539,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="23" t="s">
         <v>462</v>
       </c>
@@ -15592,7 +15564,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
         <v>463</v>
       </c>
@@ -15621,7 +15593,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
         <v>464</v>
       </c>
@@ -15662,7 +15634,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="23" t="s">
         <v>485</v>
       </c>
@@ -15703,7 +15675,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>465</v>
       </c>
@@ -15728,7 +15700,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>466</v>
       </c>
@@ -15757,7 +15729,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" s="23" t="s">
         <v>467</v>
       </c>
@@ -15812,7 +15784,7 @@
       </c>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>468</v>
       </c>
@@ -15867,7 +15839,7 @@
       </c>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>469</v>
       </c>
@@ -15892,7 +15864,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>470</v>
       </c>
@@ -15921,7 +15893,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>471</v>
       </c>
@@ -15978,7 +15950,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" s="23" t="s">
         <v>472</v>
       </c>
@@ -16035,7 +16007,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" s="23" t="s">
         <v>473</v>
       </c>
@@ -16060,7 +16032,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30" s="23" t="s">
         <v>474</v>
       </c>
@@ -16085,7 +16057,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31" s="23" t="s">
         <v>475</v>
       </c>
@@ -16110,7 +16082,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32" s="23" t="s">
         <v>476</v>
       </c>
@@ -16135,7 +16107,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33" s="23" t="s">
         <v>477</v>
       </c>
@@ -16160,7 +16132,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34" s="23" t="s">
         <v>478</v>
       </c>
@@ -16185,7 +16157,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35" s="23" t="s">
         <v>479</v>
       </c>
@@ -16210,7 +16182,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B36" s="23" t="s">
         <v>480</v>
       </c>
@@ -16235,7 +16207,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" s="23" t="s">
         <v>481</v>
       </c>
@@ -16260,7 +16232,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -16268,7 +16240,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B39" s="31" t="s">
         <v>627</v>
       </c>
@@ -16276,7 +16248,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>545</v>
       </c>
@@ -16291,7 +16263,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B41" s="9" t="s">
         <v>546</v>
       </c>
@@ -16323,7 +16295,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B42" s="9" t="s">
         <v>547</v>
       </c>
@@ -16355,7 +16327,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B43" s="9" t="s">
         <v>548</v>
       </c>
@@ -16363,7 +16335,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
         <v>549</v>
       </c>
@@ -16377,7 +16349,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B45" s="9" t="s">
         <v>550</v>
       </c>
@@ -16397,7 +16369,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E46" s="11" t="s">
         <v>558</v>
       </c>
@@ -16411,12 +16383,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E48" s="12" t="s">
         <v>596</v>
       </c>
@@ -16426,7 +16398,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E49" s="11" t="s">
         <v>579</v>
       </c>
@@ -16458,7 +16430,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E50" s="11" t="s">
         <v>580</v>
       </c>
@@ -16490,7 +16462,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E52" s="12" t="s">
         <v>598</v>
       </c>
@@ -16498,7 +16470,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E53" s="11" t="s">
         <v>579</v>
       </c>
@@ -16518,7 +16490,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E54" s="11" t="s">
         <v>580</v>
       </c>
@@ -16538,12 +16510,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E56" s="12" t="s">
         <v>600</v>
       </c>
@@ -16552,7 +16524,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E57" s="11" t="s">
         <v>579</v>
       </c>
@@ -16584,7 +16556,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E58" s="11" t="s">
         <v>580</v>
       </c>
@@ -16616,12 +16588,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E60" s="12" t="s">
         <v>602</v>
       </c>
@@ -16630,7 +16602,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E61" s="11" t="s">
         <v>579</v>
       </c>
@@ -16668,7 +16640,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E62" s="11" t="s">
         <v>580</v>
       </c>
@@ -16706,86 +16678,86 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="721">
   <si>
     <t>F12506</t>
   </si>
@@ -2066,14 +2066,6 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>tm_jisu_inst_share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 특정기관 공유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal(15,2)</t>
   </si>
   <si>
@@ -2133,10 +2125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tm_jisu_file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2292,13 +2280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_index_req</t>
-  </si>
-  <si>
-    <t>지수정보 공유 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>req_flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2312,6 +2293,14 @@
   </si>
   <si>
     <t>공개여부 0: 비공개, 1: 공개요청, 2 공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_share_req</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13176,10 +13165,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P113"/>
+  <dimension ref="A2:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13261,10 +13250,10 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -13297,7 +13286,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>555</v>
@@ -13313,10 +13302,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="37" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>684</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>687</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -13329,7 +13318,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>556</v>
@@ -13357,10 +13346,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>639</v>
@@ -13385,10 +13374,10 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="37" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>645</v>
@@ -13429,46 +13418,46 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I14" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I15" s="14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="14" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
@@ -13486,7 +13475,7 @@
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>640</v>
@@ -13510,7 +13499,7 @@
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>647</v>
@@ -13796,10 +13785,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="35"/>
@@ -13811,22 +13800,22 @@
         <v>581</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>132</v>
@@ -13844,7 +13833,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>132</v>
@@ -13857,7 +13846,7 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -13878,10 +13867,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
@@ -13891,12 +13880,12 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="9" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>245</v>
@@ -13909,7 +13898,7 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="9" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -13946,133 +13935,217 @@
         <v>572</v>
       </c>
     </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>694</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>698</v>
+      </c>
+    </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="34" t="s">
-        <v>657</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>658</v>
+      <c r="B45" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="G45" s="9" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="36" t="s">
+      <c r="B46" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>580</v>
+      <c r="F46" s="41"/>
+      <c r="G46" s="9" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="36" t="s">
+      <c r="B47" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>604</v>
+      <c r="F47" s="41"/>
+      <c r="G47" s="9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="8" t="s">
-        <v>592</v>
+      <c r="F48" s="41"/>
+      <c r="G48" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>658</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="8" t="s">
-        <v>572</v>
+      <c r="F49" s="41"/>
+      <c r="G49" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B50" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="9" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="39" t="s">
+        <v>670</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>697</v>
+      </c>
       <c r="J51" s="7"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B52" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="41"/>
+      <c r="G52" s="9" t="s">
+        <v>590</v>
+      </c>
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>601</v>
+      <c r="B53" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="41"/>
+      <c r="G53" s="9" t="s">
+        <v>592</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54"/>
-      <c r="B54" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="36" t="s">
-        <v>698</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>697</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>701</v>
+      <c r="B54" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="9" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="8" t="s">
-        <v>605</v>
+        <v>711</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>132</v>
+        <v>656</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>44</v>
@@ -14082,116 +14155,102 @@
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="9" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="B56" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="41"/>
+      <c r="F56" s="42"/>
       <c r="G56" s="9" t="s">
-        <v>608</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="9" t="s">
-        <v>610</v>
-      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="16"/>
-      <c r="B58" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
+      <c r="B58" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B59" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B59" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B60" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="9" t="s">
-        <v>699</v>
+      <c r="F60" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B61" s="39" t="s">
-        <v>672</v>
+      <c r="B61" s="8" t="s">
+        <v>617</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>673</v>
+        <v>132</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="9" t="s">
-        <v>700</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B62" s="8" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>655</v>
+        <v>132</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>44</v>
@@ -14199,113 +14258,117 @@
       <c r="E62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="41"/>
+      <c r="F62" s="3"/>
       <c r="G62" s="9" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="41"/>
+      <c r="B63" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B64" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="41"/>
+      <c r="B64" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="41"/>
+      <c r="B65" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="9" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D66" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E66" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>692</v>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>673</v>
-      </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="36" t="s">
-        <v>709</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>690</v>
+      <c r="B69" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="D70" s="36"/>
+        <v>579</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E70" s="36" t="s">
         <v>2</v>
       </c>
@@ -14313,66 +14376,64 @@
         <v>3</v>
       </c>
       <c r="G70" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="36" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="9" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="B73" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="9"/>
+      <c r="D73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="9" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>132</v>
@@ -14385,198 +14446,186 @@
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="9" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="9" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C77" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9" t="s">
+      <c r="D77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="9" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C78" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="9" t="s">
+      <c r="D78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
+      <c r="F78" s="3"/>
+      <c r="G78" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="35"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="34" t="s">
+        <v>668</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="11" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B77" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="C83" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>651</v>
+      </c>
+      <c r="E83" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
+      <c r="F83" s="36" t="s">
+        <v>705</v>
+      </c>
+      <c r="G83" s="36" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="34" t="s">
-        <v>661</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>654</v>
-      </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="9" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="9" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="3"/>
+      <c r="B85" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="9"/>
       <c r="G85" s="9" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="8" t="s">
-        <v>623</v>
+        <v>670</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>6</v>
+        <v>671</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="9" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="8" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>132</v>
@@ -14589,388 +14638,250 @@
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="9" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B92" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="8" t="s">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C93" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="9" t="s">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="35"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B92" s="34" t="s">
-        <v>670</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>673</v>
-      </c>
-      <c r="D93" s="36" t="s">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B96" s="34" t="s">
+        <v>719</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B97" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>720</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B98" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B99" s="44" t="s">
+        <v>714</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="F99" s="37"/>
+      <c r="G99" s="45" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B100" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B101" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="E93" s="36" t="s">
+      <c r="E101" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="36" t="s">
-        <v>708</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B94" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" s="9" t="s">
+      <c r="F101" s="3"/>
+      <c r="G101" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B102" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
+      <c r="F102" s="3"/>
+      <c r="G102" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B103" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="9" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B102" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B103" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B106" s="37" t="s">
-        <v>717</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B107" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C107" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B108" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F108" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B109" s="44" t="s">
-        <v>719</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>720</v>
-      </c>
-      <c r="D109" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E109" s="45" t="s">
-        <v>721</v>
-      </c>
-      <c r="F109" s="37"/>
-      <c r="G109" s="45" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B110" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B111" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B112" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B113" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="8" t="s">
+      <c r="F103" s="3"/>
+      <c r="G103" s="8" t="s">
         <v>433</v>
       </c>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="725">
   <si>
     <t>F12506</t>
   </si>
@@ -2305,6 +2305,22 @@
   </si>
   <si>
     <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 (01: 등록완료, 02:연동신청, 03: 연동완료 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2530,7 +2546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2669,6 +2685,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2736,7 +2755,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13776960" y="594360"/>
+          <a:off x="13990320" y="594360"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -2935,7 +2954,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13784580" y="1927860"/>
+          <a:off x="13997940" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3134,7 +3153,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10980420" y="1927860"/>
+          <a:off x="11193780" y="1927860"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3537,7 +3556,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10980420" y="3002280"/>
+          <a:off x="11193780" y="3002280"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3796,7 +3815,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="15369540" y="2590801"/>
+          <a:off x="15582900" y="2590801"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -13165,21 +13184,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P103"/>
+  <dimension ref="A2:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="0.796875" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.59765625" customWidth="1"/>
     <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" customWidth="1"/>
+    <col min="7" max="7" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5" customWidth="1"/>
     <col min="9" max="9" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.19921875" customWidth="1"/>
@@ -13538,7 +13558,7 @@
         <v>559</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>44</v>
@@ -14071,183 +14091,183 @@
       <c r="B51" s="39" t="s">
         <v>670</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="9" t="s">
+      <c r="E51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="46" t="s">
         <v>697</v>
       </c>
       <c r="J51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B52" s="8" t="s">
-        <v>661</v>
+    <row r="52" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="44" t="s">
+        <v>721</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="41"/>
+        <v>723</v>
+      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>590</v>
+        <v>724</v>
       </c>
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="9" t="s">
-        <v>572</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55"/>
       <c r="B55" s="8" t="s">
-        <v>711</v>
+        <v>571</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="41"/>
+      <c r="G56" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="9" t="s">
+    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="9" t="s">
+      <c r="F57" s="42"/>
+      <c r="G57" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="16"/>
-      <c r="B58" s="10" t="s">
+    <row r="58" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="16"/>
+      <c r="B59" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B59" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>671</v>
-      </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B60" s="11" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>427</v>
+        <v>671</v>
       </c>
       <c r="D60" s="36"/>
       <c r="E60" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B61" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="G61" s="36" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B61" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B62" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>132</v>
@@ -14260,30 +14280,30 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B63" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B64" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>132</v>
@@ -14296,12 +14316,12 @@
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>132</v>
@@ -14314,79 +14334,79 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D67" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E67" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="34" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C70" s="34" t="s">
         <v>660</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>654</v>
-      </c>
-      <c r="D71" s="36"/>
+        <v>579</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E71" s="36" t="s">
         <v>2</v>
       </c>
@@ -14394,82 +14414,82 @@
         <v>3</v>
       </c>
       <c r="G71" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="36" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="8" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="9" t="s">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9" t="s">
+      <c r="D75" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>132</v>
@@ -14482,12 +14502,12 @@
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>132</v>
@@ -14500,150 +14520,150 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="8" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="9" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D79" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="35"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="34" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="35"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C83" s="34" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="11" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C84" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D84" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E84" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F83" s="36" t="s">
+      <c r="F84" s="36" t="s">
         <v>705</v>
       </c>
-      <c r="G83" s="36" t="s">
+      <c r="G84" s="36" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="9" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="D85" s="9"/>
+        <v>245</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E85" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D86" s="3"/>
+      <c r="B86" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="9" t="s">
-        <v>704</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="8" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>6</v>
+        <v>671</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="9" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>132</v>
@@ -14656,30 +14676,30 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>132</v>
@@ -14692,12 +14712,12 @@
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>132</v>
@@ -14710,77 +14730,75 @@
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D93" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E93" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B94" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="34" t="s">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B97" s="34" t="s">
         <v>719</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C97" s="34" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>720</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="11" t="s">
-        <v>291</v>
+        <v>579</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>334</v>
+        <v>720</v>
       </c>
       <c r="D98" s="36" t="s">
         <v>44</v>
@@ -14792,96 +14810,116 @@
         <v>3</v>
       </c>
       <c r="G98" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B99" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="44" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B100" s="44" t="s">
         <v>714</v>
       </c>
-      <c r="C99" s="45" t="s">
+      <c r="C100" s="45" t="s">
         <v>715</v>
       </c>
-      <c r="D99" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="45" t="s">
+      <c r="D100" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="45" t="s">
         <v>716</v>
       </c>
-      <c r="F99" s="37"/>
-      <c r="G99" s="45" t="s">
+      <c r="F100" s="37"/>
+      <c r="G100" s="45" t="s">
         <v>717</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>651</v>
+        <v>44</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="8" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="8" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>44</v>
+        <v>651</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="8" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>651</v>
+        <v>44</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B104" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="8" t="s">
         <v>433</v>
       </c>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="726">
   <si>
     <t>F12506</t>
   </si>
@@ -2321,6 +2321,10 @@
   </si>
   <si>
     <t>상태 (01: 등록완료, 02:연동신청, 03: 연동완료 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13186,8 +13190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13618,7 +13622,7 @@
         <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2</v>
+        <v>725</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
@@ -13644,7 +13648,7 @@
         <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2</v>
+        <v>725</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="8" t="s">
@@ -13662,7 +13666,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2</v>
+        <v>725</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="731">
   <si>
     <t>F12506</t>
   </si>
@@ -2107,10 +2107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_upload_hist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지수 엑셀업로드 이력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2201,9 +2197,6 @@
     <t>gubun</t>
   </si>
   <si>
-    <t>구분(지수방법론, 소급지수)</t>
-  </si>
-  <si>
     <t>PRI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2304,10 +2297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2320,11 +2309,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상태 (01: 등록완료, 02:연동신청, 03: 연동완료 )</t>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YES</t>
+    <t>상태 ( COM001_01=등록완료, 02=연동신청, 03=연동완료 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분( COM002_지수방법론, 소급지수 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13188,10 +13209,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P104"/>
+  <dimension ref="A2:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13274,10 +13295,10 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
+        <v>681</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>682</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>683</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -13310,7 +13331,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>555</v>
@@ -13326,10 +13347,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -13398,10 +13419,10 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="37" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>645</v>
@@ -13442,17 +13463,17 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I14" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>679</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>680</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>673</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>674</v>
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="10" t="s">
@@ -13464,17 +13485,17 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I15" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>677</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>678</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="M15" s="14" t="s">
         <v>675</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>676</v>
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="14" t="s">
@@ -13499,7 +13520,7 @@
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>640</v>
@@ -13523,7 +13544,7 @@
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>647</v>
@@ -13562,7 +13583,7 @@
         <v>559</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>44</v>
@@ -13622,7 +13643,7 @@
         <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
@@ -13648,7 +13669,7 @@
         <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="8" t="s">
@@ -13666,7 +13687,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
@@ -13809,10 +13830,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="35"/>
@@ -13824,22 +13845,22 @@
         <v>581</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>132</v>
@@ -13857,7 +13878,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>132</v>
@@ -13870,7 +13891,7 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -13891,10 +13912,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
@@ -13904,12 +13925,12 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>245</v>
@@ -13922,7 +13943,7 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="9" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -13969,45 +13990,45 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="D44" s="36"/>
       <c r="E44" s="36" t="s">
-        <v>695</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>703</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>132</v>
+        <v>716</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="41"/>
+        <v>693</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>692</v>
+      </c>
       <c r="G45" s="9" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>132</v>
@@ -14020,15 +14041,15 @@
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>655</v>
+        <v>132</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>44</v>
@@ -14038,258 +14059,258 @@
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>655</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>685</v>
+        <v>613</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>658</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="9" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="39" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B51" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>697</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="41"/>
+      <c r="G51" s="9" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="44" t="s">
-        <v>721</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
-        <v>724</v>
+      <c r="B52" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>695</v>
       </c>
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="8" t="s">
-        <v>661</v>
+    <row r="53" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="44" t="s">
+        <v>718</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="D53" s="9"/>
       <c r="E53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="41"/>
+        <v>720</v>
+      </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>590</v>
+        <v>722</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B55" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="9" t="s">
-        <v>572</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56"/>
       <c r="B56" s="8" t="s">
-        <v>711</v>
+        <v>571</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="41"/>
       <c r="G56" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="41"/>
+      <c r="G57" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="9" t="s">
+    <row r="58" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="9" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>689</v>
-      </c>
+    <row r="59" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>671</v>
-      </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>687</v>
+      <c r="A60" s="16"/>
+      <c r="B60" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B61" s="11" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>427</v>
+        <v>670</v>
       </c>
       <c r="D61" s="36"/>
       <c r="E61" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B62" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G62" s="36" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B62" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B63" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>132</v>
@@ -14302,30 +14323,30 @@
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B64" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B64" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>132</v>
@@ -14338,12 +14359,12 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>132</v>
@@ -14356,162 +14377,160 @@
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E68" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="34" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C71" s="34" t="s">
         <v>660</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="36" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="11" t="s">
-        <v>615</v>
+        <v>727</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F73" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="36" t="s">
+      <c r="G73" s="36" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="8" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="9" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="8" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="9" t="s">
+      <c r="D75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="9" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9" t="s">
+      <c r="D76" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>132</v>
@@ -14524,12 +14543,12 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>132</v>
@@ -14542,150 +14561,150 @@
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="8" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="9" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D80" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E80" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="35"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="34" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="35"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="C84" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="C83" s="34" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>671</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>651</v>
-      </c>
-      <c r="E84" s="36" t="s">
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F84" s="36" t="s">
-        <v>705</v>
-      </c>
-      <c r="G84" s="36" t="s">
+      <c r="F85" s="36" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9" t="s">
-        <v>580</v>
+      <c r="G85" s="36" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="9" t="s">
-        <v>615</v>
+        <v>723</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="9"/>
+        <v>693</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>729</v>
+      </c>
       <c r="G86" s="9" t="s">
-        <v>616</v>
+        <v>724</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D87" s="3"/>
+      <c r="B87" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="9" t="s">
+        <v>730</v>
+      </c>
       <c r="G87" s="9" t="s">
-        <v>704</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>6</v>
+        <v>670</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="9" t="s">
-        <v>618</v>
+        <v>702</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>132</v>
@@ -14698,30 +14717,30 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>132</v>
@@ -14734,12 +14753,12 @@
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>132</v>
@@ -14752,148 +14771,146 @@
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D94" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E94" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B95" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="34" t="s">
-        <v>719</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>713</v>
-      </c>
-    </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C98" s="36" t="s">
-        <v>720</v>
-      </c>
-      <c r="D98" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>580</v>
+      <c r="B98" s="34" t="s">
+        <v>717</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B100" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C100" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="D99" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="36" t="s">
+      <c r="D100" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F99" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" s="11" t="s">
+      <c r="F100" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="G100" s="11" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="44" t="s">
-        <v>714</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>715</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="45" t="s">
-        <v>716</v>
-      </c>
-      <c r="F100" s="37"/>
-      <c r="G100" s="45" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="8" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>656</v>
+        <v>716</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="8" t="s">
-        <v>592</v>
+        <v>693</v>
+      </c>
+      <c r="F101" s="41"/>
+      <c r="G101" s="9" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B102" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="8" t="s">
-        <v>572</v>
+      <c r="B102" s="44" t="s">
+        <v>712</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="F102" s="37"/>
+      <c r="G102" s="45" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>656</v>
@@ -14906,12 +14923,12 @@
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" s="8" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>650</v>
@@ -14924,6 +14941,42 @@
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B105" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B106" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="8" t="s">
         <v>433</v>
       </c>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="731">
   <si>
     <t>F12506</t>
   </si>
@@ -2000,10 +2000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(pk) jisu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지수 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2186,14 +2182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>row_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jisu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gubun</t>
   </si>
   <si>
@@ -2346,6 +2334,18 @@
   </si>
   <si>
     <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) jisu_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13211,8 +13211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13240,7 +13240,7 @@
         <v>627</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
@@ -13255,7 +13255,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>552</v>
@@ -13295,10 +13295,10 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>682</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>554</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>555</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -13363,16 +13363,16 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>556</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>641</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>642</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="10" t="s">
@@ -13391,54 +13391,54 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I10" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>639</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>640</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>639</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>640</v>
       </c>
       <c r="N10" s="33"/>
       <c r="O10" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>639</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="37" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I11" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>645</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>646</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
@@ -13463,68 +13463,64 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I14" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>678</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>679</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>673</v>
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I15" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>676</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>677</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="M15" s="14" t="s">
         <v>674</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>675</v>
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="P15" s="14" t="s">
         <v>663</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="32" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
-      <c r="O16" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>640</v>
-      </c>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="34" t="s">
@@ -13543,19 +13539,15 @@
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>557</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>44</v>
@@ -13583,7 +13575,7 @@
         <v>559</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>44</v>
@@ -13643,7 +13635,7 @@
         <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
@@ -13669,7 +13661,7 @@
         <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="8" t="s">
@@ -13687,7 +13679,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
@@ -13723,7 +13715,7 @@
         <v>571</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -13744,7 +13736,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>552</v>
@@ -13758,7 +13750,7 @@
         <v>557</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>44</v>
@@ -13809,7 +13801,7 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.4">
@@ -13817,7 +13809,7 @@
         <v>571</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -13830,10 +13822,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="35"/>
@@ -13845,22 +13837,22 @@
         <v>581</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>132</v>
@@ -13878,7 +13870,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>132</v>
@@ -13891,7 +13883,7 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -13912,10 +13904,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
@@ -13925,12 +13917,12 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>245</v>
@@ -13943,7 +13935,7 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="9" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -13951,7 +13943,7 @@
         <v>591</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -13969,7 +13961,7 @@
         <v>571</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -13990,20 +13982,20 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="36" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -14011,19 +14003,19 @@
         <v>579</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>692</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -14067,7 +14059,7 @@
         <v>609</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>44</v>
@@ -14085,7 +14077,7 @@
         <v>611</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
@@ -14101,7 +14093,7 @@
         <v>613</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
@@ -14116,10 +14108,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B51" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
@@ -14127,49 +14119,49 @@
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>670</v>
-      </c>
       <c r="E52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="44" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>44</v>
@@ -14189,7 +14181,7 @@
         <v>591</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>44</v>
@@ -14210,7 +14202,7 @@
         <v>571</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
@@ -14223,10 +14215,10 @@
     </row>
     <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="8" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>44</v>
@@ -14244,7 +14236,7 @@
         <v>595</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
@@ -14266,10 +14258,10 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -14277,17 +14269,17 @@
         <v>581</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D61" s="36"/>
       <c r="E61" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
@@ -14403,7 +14395,7 @@
         <v>591</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>44</v>
@@ -14413,7 +14405,7 @@
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
@@ -14421,7 +14413,7 @@
         <v>571</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
@@ -14429,33 +14421,33 @@
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="C71" s="34" t="s">
         <v>659</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
@@ -14463,7 +14455,7 @@
         <v>615</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D73" s="36"/>
       <c r="E73" s="36" t="s">
@@ -14478,18 +14470,18 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>670</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
@@ -14587,7 +14579,7 @@
         <v>591</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>44</v>
@@ -14605,7 +14597,7 @@
         <v>571</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
@@ -14626,46 +14618,46 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D85" s="36"/>
       <c r="E85" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="36" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
@@ -14673,14 +14665,14 @@
         <v>615</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>616</v>
@@ -14688,10 +14680,10 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="9" t="s">
@@ -14699,7 +14691,7 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
@@ -14797,7 +14789,7 @@
         <v>591</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>44</v>
@@ -14815,7 +14807,7 @@
         <v>571</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
@@ -14828,28 +14820,28 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D99" s="36"/>
       <c r="E99" s="36" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F99" s="40" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
@@ -14866,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>604</v>
@@ -14877,35 +14869,35 @@
         <v>579</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F101" s="41"/>
       <c r="G101" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="44" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D102" s="45" t="s">
         <v>44</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="45" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
@@ -14913,7 +14905,7 @@
         <v>591</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>44</v>
@@ -14931,10 +14923,10 @@
         <v>571</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>2</v>
@@ -14949,7 +14941,7 @@
         <v>593</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>44</v>
@@ -14967,10 +14959,10 @@
         <v>595</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>2</v>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="17688" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="60" windowWidth="17685" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="지수_지수일별" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="753">
   <si>
     <t>F12506</t>
   </si>
@@ -2346,6 +2346,88 @@
   </si>
   <si>
     <t>(pk) jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_favor_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
+  </si>
+  <si>
+    <t>item_seq</t>
+  </si>
+  <si>
+    <t>F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 그룹 코드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구분 : 1, ETP, 2. INDEX </t>
+  </si>
+  <si>
+    <t>국제표준코드</t>
+  </si>
+  <si>
+    <t>시장아이디</t>
+  </si>
+  <si>
+    <t>F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2780,8 +2862,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13990320" y="594360"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="14544675" y="571500"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -2979,8 +3061,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13997940" y="1927860"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="14552295" y="1836420"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3178,8 +3260,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11193780" y="1927860"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="11740515" y="1836420"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3581,8 +3663,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11193780" y="3002280"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="11740515" y="2853690"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3840,8 +3922,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="15582900" y="2590801"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="16153448" y="2452688"/>
+          <a:ext cx="437409" cy="146685"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -5370,22 +5452,22 @@
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +5485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5419,7 +5501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5435,7 +5517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -5451,7 +5533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5467,7 +5549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -5483,7 +5565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5499,7 +5581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -5515,7 +5597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -5531,7 +5613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -5547,7 +5629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -5565,12 +5647,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -5588,7 +5670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +5686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5636,7 +5718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5652,7 +5734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -5668,7 +5750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -5684,7 +5766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5700,7 +5782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -5716,7 +5798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -5732,7 +5814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -5750,12 +5832,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -5773,7 +5855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -5789,7 +5871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
@@ -5805,7 +5887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +5903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -5837,7 +5919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -5853,7 +5935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -5869,7 +5951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -5885,7 +5967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -5905,7 +5987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -5921,7 +6003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -5937,7 +6019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -5953,7 +6035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -5969,7 +6051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -5985,7 +6067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -6001,7 +6083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -6017,7 +6099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -6033,7 +6115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
@@ -6049,7 +6131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -6065,7 +6147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -6081,7 +6163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -6097,7 +6179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
@@ -6113,7 +6195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
@@ -6129,7 +6211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
@@ -6145,7 +6227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -6161,7 +6243,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>80</v>
       </c>
@@ -6177,7 +6259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
@@ -6193,7 +6275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
@@ -6209,7 +6291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -6225,7 +6307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -6241,7 +6323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
@@ -6257,7 +6339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
@@ -6273,7 +6355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -6289,7 +6371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>97</v>
       </c>
@@ -6305,12 +6387,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
@@ -6326,7 +6408,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
@@ -6344,7 +6426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
@@ -6360,7 +6442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
@@ -6376,7 +6458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
@@ -6392,7 +6474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -6424,7 +6506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -6440,7 +6522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -6456,7 +6538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
@@ -6472,7 +6554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>16</v>
       </c>
@@ -6492,7 +6574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -6510,12 +6592,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
@@ -6531,7 +6613,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
@@ -6549,7 +6631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
@@ -6565,7 +6647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
@@ -6581,7 +6663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
@@ -6597,7 +6679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
@@ -6613,7 +6695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
@@ -6629,7 +6711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
@@ -6645,7 +6727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
@@ -6661,7 +6743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
@@ -6677,7 +6759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
@@ -6697,7 +6779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>103</v>
       </c>
@@ -6715,12 +6797,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
@@ -6736,7 +6818,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -6754,7 +6836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6770,7 +6852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -6786,7 +6868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
@@ -6802,7 +6884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
@@ -6818,7 +6900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
@@ -6834,7 +6916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
@@ -6850,7 +6932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>13</v>
       </c>
@@ -6866,7 +6948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
@@ -6882,7 +6964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6902,7 +6984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
@@ -6920,12 +7002,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
@@ -6941,7 +7023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
@@ -6959,7 +7041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>4</v>
       </c>
@@ -6975,7 +7057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -6991,7 +7073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
@@ -7007,7 +7089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -7023,7 +7105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -7039,7 +7121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
@@ -7055,7 +7137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
@@ -7071,7 +7153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
@@ -7087,7 +7169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -7107,7 +7189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>103</v>
       </c>
@@ -7125,12 +7207,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
@@ -7146,7 +7228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
@@ -7164,7 +7246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
@@ -7180,7 +7262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
@@ -7196,7 +7278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
@@ -7212,7 +7294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
@@ -7228,7 +7310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
@@ -7244,7 +7326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
@@ -7260,7 +7342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>13</v>
       </c>
@@ -7276,7 +7358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>15</v>
       </c>
@@ -7292,7 +7374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>16</v>
       </c>
@@ -7312,7 +7394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>110</v>
       </c>
@@ -7328,7 +7410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>112</v>
       </c>
@@ -7344,7 +7426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>114</v>
       </c>
@@ -7360,7 +7442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
@@ -7376,12 +7458,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -7399,7 +7481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
@@ -7415,7 +7497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
@@ -7431,7 +7513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
@@ -7447,7 +7529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
@@ -7463,7 +7545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
@@ -7479,7 +7561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -7495,7 +7577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
@@ -7511,7 +7593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
@@ -7527,7 +7609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
@@ -7547,7 +7629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
@@ -7563,7 +7645,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
@@ -7579,7 +7661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -7595,7 +7677,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
@@ -7611,7 +7693,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>114</v>
       </c>
@@ -7627,7 +7709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
@@ -7643,12 +7725,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -7666,7 +7748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
         <v>4</v>
       </c>
@@ -7682,7 +7764,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
         <v>7</v>
       </c>
@@ -7698,7 +7780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
@@ -7714,7 +7796,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
         <v>15</v>
       </c>
@@ -7730,7 +7812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
         <v>41</v>
       </c>
@@ -7746,7 +7828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
@@ -7766,12 +7848,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
         <v>0</v>
       </c>
@@ -7789,7 +7871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
         <v>4</v>
       </c>
@@ -7805,7 +7887,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
@@ -7821,7 +7903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
@@ -7837,7 +7919,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
         <v>15</v>
       </c>
@@ -7853,7 +7935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
         <v>131</v>
       </c>
@@ -7871,7 +7953,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
@@ -7891,7 +7973,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
         <v>57</v>
       </c>
@@ -7907,7 +7989,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
         <v>135</v>
       </c>
@@ -7923,7 +8005,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>137</v>
       </c>
@@ -7939,12 +8021,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
         <v>0</v>
       </c>
@@ -7962,7 +8044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>4</v>
       </c>
@@ -7978,7 +8060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
@@ -7994,7 +8076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
@@ -8010,7 +8092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
@@ -8026,7 +8108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>11</v>
       </c>
@@ -8042,7 +8124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
@@ -8058,7 +8140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
         <v>13</v>
       </c>
@@ -8074,7 +8156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
         <v>14</v>
       </c>
@@ -8090,7 +8172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>15</v>
       </c>
@@ -8106,7 +8188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
@@ -8124,12 +8206,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
         <v>0</v>
       </c>
@@ -8147,7 +8229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>4</v>
       </c>
@@ -8163,7 +8245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
         <v>7</v>
       </c>
@@ -8179,7 +8261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
@@ -8195,7 +8277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
@@ -8211,7 +8293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>11</v>
       </c>
@@ -8227,7 +8309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
@@ -8243,7 +8325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
         <v>13</v>
       </c>
@@ -8259,7 +8341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
         <v>14</v>
       </c>
@@ -8275,7 +8357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>15</v>
       </c>
@@ -8291,7 +8373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
@@ -8324,17 +8406,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>142</v>
       </c>
@@ -8342,7 +8424,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
@@ -8358,7 +8440,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
@@ -8378,7 +8460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
@@ -8396,7 +8478,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
@@ -8416,7 +8498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
@@ -8434,7 +8516,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
@@ -8442,7 +8524,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
@@ -8458,7 +8540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -8476,7 +8558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
@@ -8494,7 +8576,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
@@ -8512,7 +8594,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -8532,7 +8614,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
@@ -8548,7 +8630,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
@@ -8564,7 +8646,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
@@ -8584,7 +8666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -8592,7 +8674,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
@@ -8608,7 +8690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -8626,7 +8708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -8646,7 +8728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
@@ -8662,7 +8744,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
@@ -8678,7 +8760,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>172</v>
       </c>
@@ -8694,7 +8776,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>175</v>
       </c>
@@ -8710,7 +8792,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
@@ -8730,7 +8812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
@@ -8738,7 +8820,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>178</v>
       </c>
@@ -8754,7 +8836,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -8772,7 +8854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -8792,7 +8874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
@@ -8812,7 +8894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
@@ -8828,7 +8910,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>151</v>
       </c>
@@ -8862,16 +8944,16 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
@@ -8879,7 +8961,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
@@ -8897,7 +8979,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -8913,7 +8995,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
@@ -8931,7 +9013,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -8951,7 +9033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>191</v>
       </c>
@@ -8969,7 +9051,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>194</v>
       </c>
@@ -8987,7 +9069,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
@@ -9005,7 +9087,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
@@ -9023,7 +9105,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>202</v>
       </c>
@@ -9039,7 +9121,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
@@ -9057,7 +9139,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
@@ -9073,7 +9155,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
@@ -9089,7 +9171,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -9105,7 +9187,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
@@ -9121,7 +9203,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>214</v>
       </c>
@@ -9139,7 +9221,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>217</v>
       </c>
@@ -9155,7 +9237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
@@ -9173,7 +9255,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>221</v>
       </c>
@@ -9191,7 +9273,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -9199,7 +9281,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>225</v>
       </c>
@@ -9217,7 +9299,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
@@ -9235,7 +9317,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
@@ -9251,7 +9333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>229</v>
       </c>
@@ -9267,7 +9349,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -9285,7 +9367,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>232</v>
       </c>
@@ -9301,7 +9383,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
@@ -9319,7 +9401,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
@@ -9335,7 +9417,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
@@ -9355,7 +9437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
@@ -9373,7 +9455,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>194</v>
       </c>
@@ -9391,7 +9473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
@@ -9409,7 +9491,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>239</v>
       </c>
@@ -9427,7 +9509,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>242</v>
       </c>
@@ -9443,7 +9525,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>244</v>
       </c>
@@ -9461,7 +9543,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
@@ -9479,7 +9561,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>202</v>
       </c>
@@ -9495,7 +9577,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
@@ -9513,7 +9595,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
@@ -9529,7 +9611,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>252</v>
       </c>
@@ -9547,7 +9629,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>254</v>
       </c>
@@ -9565,7 +9647,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
@@ -9581,7 +9663,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
@@ -9597,7 +9679,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
@@ -9615,7 +9697,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>212</v>
       </c>
@@ -9631,7 +9713,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>259</v>
       </c>
@@ -9647,7 +9729,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>214</v>
       </c>
@@ -9665,7 +9747,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>217</v>
       </c>
@@ -9681,7 +9763,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>261</v>
       </c>
@@ -9699,7 +9781,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>219</v>
       </c>
@@ -9717,7 +9799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>263</v>
       </c>
@@ -9735,7 +9817,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>265</v>
       </c>
@@ -9753,7 +9835,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>267</v>
       </c>
@@ -9771,7 +9853,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>268</v>
       </c>
@@ -9779,7 +9861,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>187</v>
       </c>
@@ -9795,7 +9877,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
@@ -9813,7 +9895,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>145</v>
       </c>
@@ -9833,7 +9915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>191</v>
       </c>
@@ -9851,7 +9933,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>194</v>
       </c>
@@ -9869,7 +9951,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>197</v>
       </c>
@@ -9887,7 +9969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>202</v>
       </c>
@@ -9903,7 +9985,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
@@ -9919,7 +10001,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
@@ -9935,7 +10017,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>214</v>
       </c>
@@ -9953,7 +10035,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>217</v>
       </c>
@@ -9969,7 +10051,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
@@ -9987,7 +10069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
@@ -10005,7 +10087,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
@@ -10023,7 +10105,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>270</v>
       </c>
@@ -10031,7 +10113,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>225</v>
       </c>
@@ -10049,7 +10131,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
@@ -10067,7 +10149,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
@@ -10083,7 +10165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>189</v>
       </c>
@@ -10101,7 +10183,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>232</v>
       </c>
@@ -10117,7 +10199,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
@@ -10135,7 +10217,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
@@ -10151,7 +10233,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
@@ -10171,7 +10253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -10189,7 +10271,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
@@ -10207,7 +10289,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
@@ -10225,7 +10307,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>239</v>
       </c>
@@ -10243,7 +10325,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>242</v>
       </c>
@@ -10259,7 +10341,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
@@ -10277,7 +10359,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>247</v>
       </c>
@@ -10295,7 +10377,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>202</v>
       </c>
@@ -10311,7 +10393,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>250</v>
       </c>
@@ -10329,7 +10411,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>206</v>
       </c>
@@ -10345,7 +10427,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>252</v>
       </c>
@@ -10363,7 +10445,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
@@ -10381,7 +10463,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>256</v>
       </c>
@@ -10399,7 +10481,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>212</v>
       </c>
@@ -10415,7 +10497,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>259</v>
       </c>
@@ -10431,7 +10513,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
@@ -10449,7 +10531,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>217</v>
       </c>
@@ -10465,7 +10547,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>261</v>
       </c>
@@ -10483,7 +10565,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>219</v>
       </c>
@@ -10501,7 +10583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
@@ -10519,7 +10601,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>265</v>
       </c>
@@ -10537,7 +10619,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
@@ -10569,18 +10651,18 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
@@ -10588,7 +10670,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
@@ -10608,7 +10690,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>274</v>
       </c>
@@ -10626,7 +10708,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>277</v>
       </c>
@@ -10646,7 +10728,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>279</v>
       </c>
@@ -10662,7 +10744,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>281</v>
       </c>
@@ -10670,7 +10752,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
@@ -10688,7 +10770,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>284</v>
       </c>
@@ -10706,7 +10788,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
@@ -10724,7 +10806,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
@@ -10744,7 +10826,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
@@ -10762,7 +10844,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
@@ -10780,7 +10862,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
@@ -10798,7 +10880,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
@@ -10816,7 +10898,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
@@ -10834,7 +10916,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
@@ -10852,7 +10934,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
@@ -10860,7 +10942,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>304</v>
       </c>
@@ -10878,7 +10960,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>306</v>
       </c>
@@ -10894,7 +10976,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
@@ -10912,7 +10994,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>309</v>
       </c>
@@ -10930,7 +11012,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
@@ -10948,7 +11030,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>313</v>
       </c>
@@ -10966,7 +11048,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>315</v>
       </c>
@@ -10984,7 +11066,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>317</v>
       </c>
@@ -11002,7 +11084,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>319</v>
       </c>
@@ -11020,7 +11102,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>321</v>
       </c>
@@ -11038,7 +11120,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -11056,7 +11138,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>325</v>
       </c>
@@ -11074,7 +11156,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -11092,7 +11174,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>329</v>
       </c>
@@ -11110,7 +11192,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>331</v>
       </c>
@@ -11128,7 +11210,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>333</v>
       </c>
@@ -11146,7 +11228,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>336</v>
       </c>
@@ -11164,7 +11246,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>338</v>
       </c>
@@ -11180,7 +11262,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
@@ -11198,7 +11280,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>342</v>
       </c>
@@ -11216,7 +11298,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>344</v>
       </c>
@@ -11234,7 +11316,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>347</v>
       </c>
@@ -11250,7 +11332,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>349</v>
       </c>
@@ -11268,7 +11350,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>351</v>
       </c>
@@ -11286,7 +11368,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>353</v>
       </c>
@@ -11304,7 +11386,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>355</v>
       </c>
@@ -11322,7 +11404,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>291</v>
       </c>
@@ -11340,7 +11422,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>358</v>
       </c>
@@ -11358,7 +11440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>359</v>
       </c>
@@ -11376,7 +11458,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
@@ -11394,7 +11476,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
@@ -11412,7 +11494,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
@@ -11430,7 +11512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>366</v>
       </c>
@@ -11448,7 +11530,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>368</v>
       </c>
@@ -11466,7 +11548,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>370</v>
       </c>
@@ -11482,7 +11564,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>372</v>
       </c>
@@ -11500,7 +11582,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>374</v>
       </c>
@@ -11518,7 +11600,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
@@ -11536,7 +11618,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>378</v>
       </c>
@@ -11554,7 +11636,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>380</v>
       </c>
@@ -11570,7 +11652,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>382</v>
       </c>
@@ -11588,7 +11670,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>385</v>
       </c>
@@ -11606,7 +11688,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>387</v>
       </c>
@@ -11624,7 +11706,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>389</v>
       </c>
@@ -11642,7 +11724,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>391</v>
       </c>
@@ -11660,7 +11742,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>393</v>
       </c>
@@ -11678,7 +11760,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>395</v>
       </c>
@@ -11696,7 +11778,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>397</v>
       </c>
@@ -11714,7 +11796,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>400</v>
       </c>
@@ -11732,7 +11814,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
@@ -11750,7 +11832,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>404</v>
       </c>
@@ -11768,7 +11850,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>406</v>
       </c>
@@ -11786,7 +11868,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
@@ -11804,7 +11886,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
@@ -11822,7 +11904,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>412</v>
       </c>
@@ -11838,7 +11920,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
@@ -11856,7 +11938,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
@@ -11874,7 +11956,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>418</v>
       </c>
@@ -11892,7 +11974,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
@@ -11910,7 +11992,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>422</v>
       </c>
@@ -11926,7 +12008,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>424</v>
       </c>
@@ -11944,7 +12026,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
@@ -11965,7 +12047,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>430</v>
       </c>
@@ -11983,7 +12065,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>432</v>
       </c>
@@ -12001,7 +12083,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>434</v>
       </c>
@@ -12019,7 +12101,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
@@ -12027,7 +12109,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>304</v>
       </c>
@@ -12045,7 +12127,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
@@ -12061,7 +12143,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>308</v>
       </c>
@@ -12079,7 +12161,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>309</v>
       </c>
@@ -12097,7 +12179,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>311</v>
       </c>
@@ -12115,7 +12197,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>313</v>
       </c>
@@ -12133,7 +12215,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>315</v>
       </c>
@@ -12151,7 +12233,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>317</v>
       </c>
@@ -12169,7 +12251,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>319</v>
       </c>
@@ -12187,7 +12269,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>321</v>
       </c>
@@ -12205,7 +12287,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>323</v>
       </c>
@@ -12223,7 +12305,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>325</v>
       </c>
@@ -12241,7 +12323,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>327</v>
       </c>
@@ -12259,7 +12341,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>329</v>
       </c>
@@ -12277,7 +12359,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>331</v>
       </c>
@@ -12295,7 +12377,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>333</v>
       </c>
@@ -12313,7 +12395,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
@@ -12331,7 +12413,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>338</v>
       </c>
@@ -12347,7 +12429,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>340</v>
       </c>
@@ -12365,7 +12447,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>342</v>
       </c>
@@ -12383,7 +12465,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>344</v>
       </c>
@@ -12401,7 +12483,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -12417,7 +12499,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>349</v>
       </c>
@@ -12435,7 +12517,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>351</v>
       </c>
@@ -12453,7 +12535,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>353</v>
       </c>
@@ -12471,7 +12553,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>355</v>
       </c>
@@ -12489,7 +12571,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>291</v>
       </c>
@@ -12507,7 +12589,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>358</v>
       </c>
@@ -12525,7 +12607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>359</v>
       </c>
@@ -12543,7 +12625,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>361</v>
       </c>
@@ -12561,7 +12643,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
@@ -12579,7 +12661,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
         <v>365</v>
       </c>
@@ -12597,7 +12679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
         <v>366</v>
       </c>
@@ -12615,7 +12697,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>368</v>
       </c>
@@ -12633,7 +12715,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>370</v>
       </c>
@@ -12649,7 +12731,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>372</v>
       </c>
@@ -12667,7 +12749,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
@@ -12685,7 +12767,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -12703,7 +12785,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>378</v>
       </c>
@@ -12721,7 +12803,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>380</v>
       </c>
@@ -12737,7 +12819,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>382</v>
       </c>
@@ -12755,7 +12837,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>385</v>
       </c>
@@ -12773,7 +12855,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>387</v>
       </c>
@@ -12791,7 +12873,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>389</v>
       </c>
@@ -12809,7 +12891,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
@@ -12827,7 +12909,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
@@ -12845,7 +12927,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
@@ -12863,7 +12945,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>397</v>
       </c>
@@ -12881,7 +12963,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
         <v>400</v>
       </c>
@@ -12899,7 +12981,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
@@ -12917,7 +12999,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>404</v>
       </c>
@@ -12935,7 +13017,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
@@ -12953,7 +13035,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>408</v>
       </c>
@@ -12971,7 +13053,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>410</v>
       </c>
@@ -12989,7 +13071,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>412</v>
       </c>
@@ -13005,7 +13087,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>414</v>
       </c>
@@ -13023,7 +13105,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>416</v>
       </c>
@@ -13041,7 +13123,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>418</v>
       </c>
@@ -13059,7 +13141,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>420</v>
       </c>
@@ -13077,7 +13159,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>422</v>
       </c>
@@ -13093,7 +13175,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>424</v>
       </c>
@@ -13111,7 +13193,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>437</v>
       </c>
@@ -13129,7 +13211,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>439</v>
       </c>
@@ -13147,7 +13229,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>430</v>
       </c>
@@ -13165,7 +13247,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>432</v>
       </c>
@@ -13183,7 +13265,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>434</v>
       </c>
@@ -13209,33 +13291,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P106"/>
+  <dimension ref="A2:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.796875" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.19921875" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.19921875" customWidth="1"/>
-    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>627</v>
       </c>
@@ -13243,7 +13325,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>636</v>
       </c>
@@ -13268,7 +13350,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>546</v>
       </c>
@@ -13293,7 +13375,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
         <v>680</v>
       </c>
@@ -13313,7 +13395,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>640</v>
       </c>
@@ -13329,7 +13411,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>670</v>
       </c>
@@ -13345,7 +13427,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
         <v>679</v>
       </c>
@@ -13361,7 +13443,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>666</v>
       </c>
@@ -13389,7 +13471,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>661</v>
       </c>
@@ -13417,7 +13499,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>707</v>
       </c>
@@ -13441,7 +13523,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -13451,7 +13533,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
@@ -13461,7 +13543,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I14" s="10" t="s">
         <v>677</v>
       </c>
@@ -13483,7 +13565,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I15" s="14" t="s">
         <v>675</v>
       </c>
@@ -13505,7 +13587,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>651</v>
       </c>
@@ -13522,7 +13604,7 @@
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
         <v>636</v>
       </c>
@@ -13542,7 +13624,7 @@
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>557</v>
       </c>
@@ -13570,7 +13652,7 @@
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>559</v>
       </c>
@@ -13598,7 +13680,7 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>561</v>
       </c>
@@ -13624,7 +13706,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>563</v>
       </c>
@@ -13650,7 +13732,7 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>565</v>
       </c>
@@ -13668,7 +13750,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>567</v>
       </c>
@@ -13687,7 +13769,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>569</v>
       </c>
@@ -13710,7 +13792,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>571</v>
       </c>
@@ -13729,12 +13811,12 @@
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="34" t="s">
         <v>643</v>
       </c>
@@ -13745,7 +13827,7 @@
       <c r="J27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>557</v>
       </c>
@@ -13768,7 +13850,7 @@
       <c r="J28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>576</v>
       </c>
@@ -13786,7 +13868,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>569</v>
       </c>
@@ -13804,7 +13886,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>571</v>
       </c>
@@ -13820,7 +13902,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>671</v>
       </c>
@@ -13832,7 +13914,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="38" t="s">
         <v>581</v>
       </c>
@@ -13850,7 +13932,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>702</v>
       </c>
@@ -13868,7 +13950,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>703</v>
       </c>
@@ -13886,7 +13968,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>587</v>
       </c>
@@ -13902,7 +13984,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>686</v>
       </c>
@@ -13920,7 +14002,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>688</v>
       </c>
@@ -13938,7 +14020,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>591</v>
       </c>
@@ -13956,7 +14038,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>571</v>
       </c>
@@ -13972,7 +14054,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="34" t="s">
         <v>600</v>
       </c>
@@ -13980,7 +14062,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>720</v>
       </c>
@@ -13998,7 +14080,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>579</v>
       </c>
@@ -14018,7 +14100,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>605</v>
       </c>
@@ -14036,7 +14118,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>607</v>
       </c>
@@ -14054,7 +14136,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>609</v>
       </c>
@@ -14072,7 +14154,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>611</v>
       </c>
@@ -14088,7 +14170,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>613</v>
       </c>
@@ -14106,7 +14188,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>683</v>
       </c>
@@ -14122,7 +14204,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="39" t="s">
         <v>668</v>
       </c>
@@ -14138,7 +14220,7 @@
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="44" t="s">
         <v>715</v>
       </c>
@@ -14156,7 +14238,7 @@
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>660</v>
       </c>
@@ -14176,7 +14258,7 @@
       <c r="J54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>591</v>
       </c>
@@ -14196,7 +14278,7 @@
       <c r="J55" s="7"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56" s="8" t="s">
         <v>571</v>
@@ -14213,7 +14295,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>706</v>
       </c>
@@ -14231,7 +14313,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>595</v>
       </c>
@@ -14247,7 +14329,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -14255,7 +14337,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="10" t="s">
         <v>677</v>
@@ -14264,7 +14346,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
         <v>581</v>
       </c>
@@ -14282,7 +14364,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>615</v>
       </c>
@@ -14300,7 +14382,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>617</v>
       </c>
@@ -14318,7 +14400,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>619</v>
       </c>
@@ -14336,7 +14418,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="9" t="s">
         <v>621</v>
       </c>
@@ -14354,7 +14436,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>623</v>
       </c>
@@ -14372,7 +14454,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
         <v>625</v>
       </c>
@@ -14390,7 +14472,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>591</v>
       </c>
@@ -14408,7 +14490,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>571</v>
       </c>
@@ -14424,7 +14506,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="34" t="s">
         <v>658</v>
       </c>
@@ -14432,7 +14514,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>724</v>
       </c>
@@ -14450,7 +14532,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>615</v>
       </c>
@@ -14468,7 +14550,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>668</v>
       </c>
@@ -14484,7 +14566,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>617</v>
       </c>
@@ -14502,7 +14584,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>619</v>
       </c>
@@ -14520,7 +14602,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>621</v>
       </c>
@@ -14538,7 +14620,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>623</v>
       </c>
@@ -14556,7 +14638,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>625</v>
       </c>
@@ -14574,7 +14656,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>591</v>
       </c>
@@ -14592,7 +14674,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>571</v>
       </c>
@@ -14608,7 +14690,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="35"/>
       <c r="C82" s="43"/>
       <c r="D82" s="43"/>
@@ -14616,7 +14698,7 @@
       <c r="F82" s="43"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="34" t="s">
         <v>661</v>
       </c>
@@ -14624,7 +14706,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>697</v>
       </c>
@@ -14642,7 +14724,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>720</v>
       </c>
@@ -14660,7 +14742,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>615</v>
       </c>
@@ -14678,7 +14760,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>668</v>
       </c>
@@ -14694,7 +14776,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>617</v>
       </c>
@@ -14712,7 +14794,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>619</v>
       </c>
@@ -14730,7 +14812,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>621</v>
       </c>
@@ -14748,7 +14830,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>623</v>
       </c>
@@ -14766,7 +14848,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
         <v>625</v>
       </c>
@@ -14784,7 +14866,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>591</v>
       </c>
@@ -14802,7 +14884,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>571</v>
       </c>
@@ -14818,7 +14900,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="34" t="s">
         <v>714</v>
       </c>
@@ -14826,7 +14908,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="11" t="s">
         <v>720</v>
       </c>
@@ -14844,7 +14926,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="11" t="s">
         <v>291</v>
       </c>
@@ -14864,7 +14946,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>579</v>
       </c>
@@ -14882,7 +14964,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="44" t="s">
         <v>709</v>
       </c>
@@ -14900,7 +14982,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>591</v>
       </c>
@@ -14918,7 +15000,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>571</v>
       </c>
@@ -14936,7 +15018,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>593</v>
       </c>
@@ -14954,7 +15036,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>595</v>
       </c>
@@ -14970,6 +15052,202 @@
       <c r="F106" s="3"/>
       <c r="G106" s="8" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="F110" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="G110" s="36" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="F112" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>738</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="F113" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="G113" s="36" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="8" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -14988,30 +15266,30 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.8984375" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>533</v>
       </c>
@@ -15034,7 +15312,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>487</v>
       </c>
@@ -15063,7 +15341,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>453</v>
       </c>
@@ -15098,7 +15376,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>454</v>
       </c>
@@ -15133,7 +15411,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>482</v>
       </c>
@@ -15158,7 +15436,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>484</v>
       </c>
@@ -15187,7 +15465,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>455</v>
       </c>
@@ -15224,7 +15502,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>456</v>
       </c>
@@ -15261,7 +15539,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>457</v>
       </c>
@@ -15286,7 +15564,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>458</v>
       </c>
@@ -15315,7 +15593,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>459</v>
       </c>
@@ -15362,7 +15640,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>460</v>
       </c>
@@ -15409,7 +15687,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>461</v>
       </c>
@@ -15434,7 +15712,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>544</v>
       </c>
@@ -15463,7 +15741,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>543</v>
       </c>
@@ -15500,7 +15778,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>486</v>
       </c>
@@ -15537,7 +15815,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>462</v>
       </c>
@@ -15562,7 +15840,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>463</v>
       </c>
@@ -15591,7 +15869,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>464</v>
       </c>
@@ -15632,7 +15910,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>485</v>
       </c>
@@ -15673,7 +15951,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>465</v>
       </c>
@@ -15698,7 +15976,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>466</v>
       </c>
@@ -15727,7 +16005,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>467</v>
       </c>
@@ -15782,7 +16060,7 @@
       </c>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="s">
         <v>468</v>
       </c>
@@ -15837,7 +16115,7 @@
       </c>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
         <v>469</v>
       </c>
@@ -15862,7 +16140,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>470</v>
       </c>
@@ -15891,7 +16169,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>471</v>
       </c>
@@ -15948,7 +16226,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>472</v>
       </c>
@@ -16005,7 +16283,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>473</v>
       </c>
@@ -16030,7 +16308,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>474</v>
       </c>
@@ -16055,7 +16333,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
         <v>475</v>
       </c>
@@ -16080,7 +16358,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="23" t="s">
         <v>476</v>
       </c>
@@ -16105,7 +16383,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>477</v>
       </c>
@@ -16130,7 +16408,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>478</v>
       </c>
@@ -16155,7 +16433,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>479</v>
       </c>
@@ -16180,7 +16458,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>480</v>
       </c>
@@ -16205,7 +16483,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>481</v>
       </c>
@@ -16230,7 +16508,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -16238,7 +16516,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>627</v>
       </c>
@@ -16246,7 +16524,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>545</v>
       </c>
@@ -16261,7 +16539,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>546</v>
       </c>
@@ -16293,7 +16571,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>547</v>
       </c>
@@ -16325,7 +16603,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>548</v>
       </c>
@@ -16333,7 +16611,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>549</v>
       </c>
@@ -16347,7 +16625,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>550</v>
       </c>
@@ -16367,7 +16645,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E46" s="11" t="s">
         <v>558</v>
       </c>
@@ -16381,12 +16659,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E48" s="12" t="s">
         <v>596</v>
       </c>
@@ -16396,7 +16674,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" s="11" t="s">
         <v>579</v>
       </c>
@@ -16428,7 +16706,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" s="11" t="s">
         <v>580</v>
       </c>
@@ -16460,7 +16738,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="12" t="s">
         <v>598</v>
       </c>
@@ -16468,7 +16746,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="11" t="s">
         <v>579</v>
       </c>
@@ -16488,7 +16766,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="11" t="s">
         <v>580</v>
       </c>
@@ -16508,12 +16786,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" s="12" t="s">
         <v>600</v>
       </c>
@@ -16522,7 +16800,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
         <v>579</v>
       </c>
@@ -16554,7 +16832,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
         <v>580</v>
       </c>
@@ -16586,12 +16864,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60" s="12" t="s">
         <v>602</v>
       </c>
@@ -16600,7 +16878,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61" s="11" t="s">
         <v>579</v>
       </c>
@@ -16638,7 +16916,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62" s="11" t="s">
         <v>580</v>
       </c>
@@ -16676,86 +16954,86 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="817">
   <si>
     <t>F12506</t>
   </si>
@@ -2113,484 +2113,572 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tm_jisu_temp_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 저장전 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_temp_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 파일정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 저장전 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_file_id</t>
+  </si>
+  <si>
+    <t>지수 파일정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일ID</t>
+  </si>
+  <si>
+    <t>mime_type</t>
+  </si>
+  <si>
+    <t>지수 저장전 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gubun</t>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일ID (지수 방법론)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일ID (소급 지수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 ID(소급지수)</t>
+  </si>
+  <si>
+    <t>hist_no</t>
+  </si>
+  <si>
+    <t>파일 ID (소급지수)</t>
+  </si>
+  <si>
+    <t>PRI  auto_increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upd_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수정보 공유 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개여부 0: 비공개, 1: 공개요청, 2 공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_jisu_share_req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 ( COM001_01=등록완료, 02=연동신청, 03=연동완료 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분( COM002_지수방법론, 소급지수 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) jisu_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_favor_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
+  </si>
+  <si>
+    <t>item_seq</t>
+  </si>
+  <si>
+    <t>F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 그룹 코드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구분 : 1, ETP, 2. INDEX </t>
+  </si>
+  <si>
+    <t>국제표준코드</t>
+  </si>
+  <si>
+    <t>시장아이디</t>
+  </si>
+  <si>
+    <t>F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수정보공개요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_favor_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성종목코드</t>
+  </si>
+  <si>
+    <t>F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16316</t>
+  </si>
+  <si>
+    <t>사무수탁회사번호</t>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+  </si>
+  <si>
+    <t>ETF단축코드</t>
+  </si>
+  <si>
+    <t>F16499</t>
+  </si>
+  <si>
+    <t>DECIMAL(18,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1CU단위증권수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16499_PREV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1CU단위증권수 ( 변경전 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(4,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(pk) file_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_jisu_temp_upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 저장전 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_jisu_temp_upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_jisu_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 파일정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 저장전 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method_file_id</t>
-  </si>
-  <si>
-    <t>지수 파일정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일ID</t>
-  </si>
-  <si>
-    <t>mime_type</t>
-  </si>
-  <si>
-    <t>지수 저장전 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gubun</t>
+    <t>type_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 그룹 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무수탁회사번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF단축코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) hist_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert( 신규 ), modify( 변경 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PRI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수ID 별 이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수ID 별 이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(4,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일ID (지수 방법론)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일ID (소급 지수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록자 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 ID(소급지수)</t>
-  </si>
-  <si>
-    <t>hist_no</t>
-  </si>
-  <si>
-    <t>이력번호</t>
-  </si>
-  <si>
-    <t>파일 ID (소급지수)</t>
-  </si>
-  <si>
-    <t>PRI  auto_increment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_file_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save_file_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장 파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upd_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수정보 공유 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>req_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공개여부 0: 비공개, 1: 공개요청, 2 공개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_jisu_share_req</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 ( COM001_01=등록완료, 02=연동신청, 03=연동완료 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jisu_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분( COM002_지수방법론, 소급지수 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jisu_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) jisu_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) jisu_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) jisu_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_favor_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_cd</t>
-  </si>
-  <si>
-    <t>item_seq</t>
+    <t>(pk) F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무수탁회사번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF단축코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 별 이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF 종목코드별 이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무수탁회사번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F16012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목 시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 그룹 코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구분 : 1, ETP, 2. INDEX </t>
-  </si>
-  <si>
-    <t>국제표준코드</t>
-  </si>
-  <si>
-    <t>시장아이디</t>
-  </si>
-  <si>
     <t>F16013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>market_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수정보공개요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_favor_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성종목코드</t>
-  </si>
-  <si>
-    <t>F16583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16316</t>
-  </si>
-  <si>
-    <t>DECIMAL(4,0)</t>
-  </si>
-  <si>
-    <t>CHAR(12)</t>
-  </si>
-  <si>
-    <t>CHAR(6)</t>
-  </si>
-  <si>
-    <t>사무수탁회사번호</t>
-  </si>
-  <si>
-    <t>ETF종목코드</t>
-  </si>
-  <si>
     <t>ETF단축코드</t>
-  </si>
-  <si>
-    <t>F16499</t>
-  </si>
-  <si>
-    <t>DECIMAL(18,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1CU단위증권수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16499_PREV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1CU단위증권수 ( 변경전 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(4,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 그룹 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inst_cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기관구분코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목 시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무수탁회사번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF단축코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) hist_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_dtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 마스터 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 상세 정보 (구성종목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 마스터 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_dtl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2816,7 +2904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2956,6 +3044,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4166,13 +4257,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>10689</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4182,7 +4273,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11719560" y="4114800"/>
+          <a:off x="11719560" y="4335780"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4327,6 +4418,205 @@
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="90" name="직선 연결선 89"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221980" y="678180"/>
+            <a:ext cx="144780" cy="99060"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10689</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="그룹 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="14615160" y="4335780"/>
+          <a:ext cx="460269" cy="144780"/>
+          <a:chOff x="7688580" y="571500"/>
+          <a:chExt cx="685800" cy="215722"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="직선 연결선 49"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7688580" y="678180"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="직선 연결선 50"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7818120" y="584378"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="직선 연결선 51"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8229600" y="576758"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="직선 연결선 52"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8221980" y="571500"/>
+            <a:ext cx="144780" cy="106680"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="직선 연결선 53"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -13551,10 +13841,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC144"/>
+  <dimension ref="A2:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13594,10 +13884,10 @@
       </c>
       <c r="D3" s="16"/>
       <c r="I3" s="34" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="10" t="s">
@@ -13623,10 +13913,10 @@
       </c>
       <c r="D4" s="16"/>
       <c r="I4" s="14" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="14" t="s">
@@ -13645,16 +13935,16 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -13675,10 +13965,10 @@
         <v>554</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -13695,10 +13985,10 @@
         <v>555</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -13709,10 +13999,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -13747,10 +14037,10 @@
         <v>661</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="10" t="s">
@@ -13769,27 +14059,27 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="37" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>639</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>639</v>
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="14" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>639</v>
@@ -13797,10 +14087,10 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>643</v>
@@ -13820,11 +14110,11 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
-        <v>750</v>
+      <c r="B13" t="s">
+        <v>813</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>751</v>
+        <v>810</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -13836,11 +14126,11 @@
       <c r="P13" s="33"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
-        <v>795</v>
+      <c r="B14" t="s">
+        <v>809</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>748</v>
+        <v>811</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -13852,11 +14142,17 @@
       <c r="P14" s="33"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>744</v>
+      </c>
       <c r="I15" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>671</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>672</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="10" t="s">
@@ -13882,17 +14178,17 @@
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="14" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>775</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
@@ -13906,92 +14202,74 @@
         <v>646</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>645</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="32" t="s">
-        <v>650</v>
-      </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
+      <c r="O18" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B20" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="I19" s="34" t="s">
-        <v>795</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>748</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>767</v>
-      </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B20" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>647</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>788</v>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="34" t="s">
+        <v>781</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>744</v>
       </c>
       <c r="K20" s="33"/>
-      <c r="L20" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>784</v>
+      <c r="L20" s="34" t="s">
+        <v>809</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>812</v>
       </c>
       <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
+      <c r="O20" s="34" t="s">
+        <v>813</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>709</v>
+        <v>647</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>44</v>
@@ -14003,86 +14281,111 @@
         <v>3</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+        <v>558</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>795</v>
+      </c>
       <c r="K21" s="33"/>
       <c r="L21" s="14" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
+      <c r="O21" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="F22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>796</v>
+      </c>
       <c r="K22" s="33"/>
       <c r="L22" s="14" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="O22" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>711</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+        <v>562</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>798</v>
+      </c>
       <c r="K23" s="33"/>
       <c r="L23" s="14" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
+      <c r="O23" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>245</v>
@@ -14091,25 +14394,33 @@
         <v>44</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="I24" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>800</v>
+      </c>
       <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="L24" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>775</v>
+      </c>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
       <c r="P24" s="33"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>245</v>
@@ -14118,102 +14429,115 @@
         <v>44</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7"/>
+      <c r="I25" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>2</v>
+        <v>709</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B29" s="34" t="s">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C30" s="34" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B30" s="11" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C31" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="36" t="s">
+      <c r="D31" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F31" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="8" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
@@ -14223,76 +14547,76 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="8" t="s">
-        <v>651</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="10" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="38" t="s">
+      <c r="C36" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C37" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36" t="s">
+      <c r="D37" s="36"/>
+      <c r="E37" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="9" t="s">
-        <v>584</v>
+      <c r="F37" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>132</v>
@@ -14305,49 +14629,49 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="9" t="s">
-        <v>698</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>587</v>
+        <v>695</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="9" t="s">
-        <v>588</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
-        <v>680</v>
+        <v>587</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="9" t="s">
-        <v>680</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>245</v>
+        <v>697</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>44</v>
@@ -14357,15 +14681,15 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="9" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>591</v>
+        <v>681</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>654</v>
+        <v>245</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>44</v>
@@ -14375,92 +14699,92 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="9" t="s">
-        <v>592</v>
+        <v>713</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>654</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="34" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C46" s="36" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C47" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36" t="s">
-        <v>684</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F47" s="41" t="s">
+      <c r="D47" s="36"/>
+      <c r="E47" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>687</v>
+      <c r="F47" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>132</v>
+        <v>704</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="41"/>
+        <v>683</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>682</v>
+      </c>
       <c r="G48" s="9" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>132</v>
@@ -14473,15 +14797,15 @@
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>653</v>
+        <v>132</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
@@ -14491,128 +14815,114 @@
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B51" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>653</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="L51" s="7"/>
+        <v>610</v>
+      </c>
     </row>
     <row r="52" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="J52" s="7"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
-        <v>677</v>
+        <v>613</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E53" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B54" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B55" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="B54" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55"/>
-      <c r="B55" s="44" t="s">
+    </row>
+    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56"/>
+      <c r="B56" s="44" t="s">
+        <v>706</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="3" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-    </row>
-    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="41"/>
-      <c r="G56" s="9" t="s">
-        <v>590</v>
-      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
@@ -14629,21 +14939,28 @@
     </row>
     <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="8" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F57" s="41"/>
       <c r="G57" s="9" t="s">
-        <v>592</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
@@ -14660,19 +14977,28 @@
     </row>
     <row r="58" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>654</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="41"/>
       <c r="G58" s="9" t="s">
-        <v>572</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
@@ -14687,106 +15013,124 @@
       <c r="AB58"/>
       <c r="AC58"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
+    <row r="59" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
-        <v>700</v>
+        <v>571</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A60" s="16"/>
+      <c r="B60" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="41"/>
+      <c r="G60" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="B60" s="9" t="s">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B61" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="9" t="s">
+      <c r="F61" s="42"/>
+      <c r="G61" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="B62" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>681</v>
-      </c>
-    </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="B63" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>666</v>
-      </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="36" t="s">
-        <v>695</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>679</v>
+      <c r="B63" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>427</v>
+        <v>666</v>
       </c>
       <c r="D64" s="36"/>
       <c r="E64" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="36" t="s">
+      <c r="G65" s="36" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>132</v>
@@ -14799,30 +15143,30 @@
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>132</v>
@@ -14835,12 +15179,12 @@
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>132</v>
@@ -14853,160 +15197,160 @@
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>654</v>
+        <v>132</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9" t="s">
-        <v>688</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="D71" s="9"/>
+        <v>654</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="34" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C74" s="34" t="s">
         <v>658</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>666</v>
-      </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36" t="s">
-        <v>684</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>683</v>
-      </c>
-      <c r="G74" s="36" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="11" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="D75" s="36"/>
       <c r="E75" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>652</v>
+      </c>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F76" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G76" s="36" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="9" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B77" s="8" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="9" t="s">
+      <c r="D78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="9" t="s">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
+      <c r="D79" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>132</v>
@@ -15019,12 +15363,12 @@
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>132</v>
@@ -15037,150 +15381,150 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="8" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>654</v>
+        <v>132</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="9" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D83" s="3"/>
+        <v>654</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E83" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="35"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="16"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="34" t="s">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="35"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C87" s="34" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="C87" s="36" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B88" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="C88" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36" t="s">
+      <c r="D88" s="36"/>
+      <c r="E88" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="G87" s="36" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B88" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="F88" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C89" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="9" t="s">
+      <c r="D89" s="36"/>
+      <c r="E89" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
+      <c r="D90" s="36"/>
+      <c r="E90" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="G89" s="9" t="s">
+      <c r="F90" s="36" t="s">
+        <v>787</v>
+      </c>
+      <c r="G90" s="36" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="9" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="8" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>6</v>
+        <v>666</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="9" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>132</v>
@@ -15193,30 +15537,30 @@
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="9" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>132</v>
@@ -15229,12 +15573,12 @@
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>132</v>
@@ -15247,309 +15591,309 @@
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="9" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>654</v>
+        <v>132</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="9" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="D97" s="9"/>
+        <v>654</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E97" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B98" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>666</v>
-      </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36" t="s">
-        <v>684</v>
-      </c>
-      <c r="F101" s="40" t="s">
-        <v>683</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>714</v>
+      <c r="B101" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B103" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C103" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="D102" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" s="36" t="s">
+      <c r="D103" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F102" s="36" t="s">
-        <v>718</v>
-      </c>
-      <c r="G102" s="11" t="s">
+      <c r="F103" s="36" t="s">
+        <v>716</v>
+      </c>
+      <c r="G103" s="11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B103" s="8" t="s">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B104" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F103" s="41"/>
-      <c r="G103" s="9" t="s">
+      <c r="C104" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F104" s="41"/>
+      <c r="G104" s="9" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B104" s="44" t="s">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B105" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="D105" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="45" t="s">
         <v>702</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="F105" s="37"/>
+      <c r="G105" s="45" t="s">
         <v>703</v>
-      </c>
-      <c r="D104" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E104" s="45" t="s">
-        <v>704</v>
-      </c>
-      <c r="F104" s="37"/>
-      <c r="G104" s="45" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B105" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>649</v>
+        <v>44</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="8" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="8" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>44</v>
+        <v>649</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="8" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>649</v>
+        <v>44</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B109" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B111" s="34" t="s">
-        <v>724</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>749</v>
-      </c>
-    </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B112" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>728</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E112" s="36" t="s">
-        <v>684</v>
-      </c>
-      <c r="F112" s="40" t="s">
-        <v>683</v>
-      </c>
-      <c r="G112" s="36" t="s">
-        <v>738</v>
+      <c r="B112" s="34" t="s">
+        <v>720</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="11" t="s">
-        <v>291</v>
+        <v>721</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D113" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F113" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="G113" s="11" t="s">
-        <v>493</v>
+      <c r="F113" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="G113" s="36" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D114" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E114" s="36" t="s">
-        <v>684</v>
+        <v>2</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>288</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" s="36" t="s">
         <v>726</v>
       </c>
-      <c r="C115" s="36" t="s">
-        <v>731</v>
-      </c>
       <c r="D115" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F115" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B116" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="G115" s="36" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B116" s="8" t="s">
+      <c r="F116" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="8" t="s">
-        <v>739</v>
+      <c r="G116" s="36" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="8" t="s">
-        <v>727</v>
+        <v>681</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>44</v>
@@ -15559,15 +15903,15 @@
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="8" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>44</v>
@@ -15577,15 +15921,15 @@
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="8" t="s">
-        <v>28</v>
+        <v>736</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="8" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>44</v>
@@ -15595,15 +15939,15 @@
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="8" t="s">
-        <v>741</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="8" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>44</v>
@@ -15613,15 +15957,15 @@
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="8" t="s">
-        <v>502</v>
+        <v>737</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>44</v>
@@ -15631,316 +15975,484 @@
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B122" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B124" s="34" t="s">
-        <v>794</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>751</v>
-      </c>
-    </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B125" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="C125" s="36" t="s">
-        <v>768</v>
-      </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36" t="s">
-        <v>769</v>
-      </c>
-      <c r="F125" s="36" t="s">
-        <v>770</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>758</v>
+      <c r="B125" s="34" t="s">
+        <v>814</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="11" t="s">
-        <v>506</v>
+        <v>747</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="D126" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="D126" s="36"/>
       <c r="E126" s="36" t="s">
-        <v>684</v>
+        <v>758</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="11" t="s">
-        <v>16</v>
+        <v>506</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D127" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="11" t="s">
-        <v>754</v>
+        <v>16</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="D128" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E128" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F128" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B129" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B130" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B131" s="35"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="35"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B132" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B133" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="G128" s="11" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B129" s="9" t="s">
+      <c r="F133" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B134" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="F134" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B135" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="36" t="s">
         <v>761</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B130" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B131" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B132" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B135" s="34" t="s">
-        <v>795</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>748</v>
+      <c r="D135" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="F135" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="11" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>666</v>
-      </c>
-      <c r="D136" s="36"/>
+        <v>760</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E136" s="36" t="s">
-        <v>2</v>
+        <v>683</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="G136" s="36" t="s">
-        <v>788</v>
+        <v>682</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B137" s="44" t="s">
-        <v>753</v>
+      <c r="B137" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>684</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="9" t="s">
-        <v>506</v>
+        <v>752</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>2</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" s="9" t="s">
-        <v>16</v>
+        <v>755</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>684</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B140" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B141" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B143" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B144" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G144" s="36" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B145" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>791</v>
+      </c>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="F145" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B146" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C146" s="36" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B140" s="9" t="s">
+      <c r="D146" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="F146" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B147" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="F147" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B148" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="C148" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="D148" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" s="36" t="s">
+        <v>793</v>
+      </c>
+      <c r="F148" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B149" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B150" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C140" s="9" t="s">
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B151" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B141" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B142" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B143" s="8" t="s">
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B152" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E143" s="3" t="s">
+      <c r="D152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="8" t="s">
+      <c r="F152" s="3"/>
+      <c r="G152" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B144" s="8" t="s">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B153" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E153" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="8" t="s">
+      <c r="F153" s="3"/>
+      <c r="G153" s="8" t="s">
         <v>572</v>
       </c>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="815">
   <si>
     <t>F12506</t>
   </si>
@@ -2607,14 +2607,6 @@
   </si>
   <si>
     <t>ETF단축코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성종목코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13843,8 +13835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14111,10 +14103,10 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -14127,10 +14119,10 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>809</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>811</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -14251,17 +14243,17 @@
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="34" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="34" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
@@ -14402,10 +14394,10 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>799</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>800</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="14" t="s">
@@ -14437,10 +14429,10 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
@@ -15998,10 +15990,10 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="34" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.4">
@@ -16108,10 +16100,10 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="34" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.4">
@@ -16274,7 +16266,7 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B143" s="34" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C143" s="34" t="s">
         <v>744</v>
@@ -16282,46 +16274,48 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B144" s="11" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>666</v>
+        <v>791</v>
       </c>
       <c r="D144" s="36"/>
       <c r="E144" s="36" t="s">
-        <v>2</v>
+        <v>792</v>
       </c>
       <c r="F144" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="G144" s="36" t="s">
+      <c r="G144" s="11" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B145" s="11" t="s">
-        <v>747</v>
+        <v>804</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>791</v>
-      </c>
-      <c r="D145" s="36"/>
+        <v>760</v>
+      </c>
+      <c r="D145" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E145" s="36" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="F145" s="36" t="s">
         <v>682</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D146" s="36" t="s">
         <v>44</v>
@@ -16333,27 +16327,25 @@
         <v>682</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="11" t="s">
-        <v>807</v>
+        <v>690</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>761</v>
-      </c>
-      <c r="D147" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="D147" s="36"/>
       <c r="E147" s="36" t="s">
-        <v>683</v>
+        <v>2</v>
       </c>
       <c r="F147" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="G147" s="11" t="s">
-        <v>808</v>
+      <c r="G147" s="36" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.4">

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -2058,9 +2058,6 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>decimal(15,2)</t>
-  </si>
-  <si>
     <t>varchar(8)</t>
   </si>
   <si>
@@ -2671,6 +2668,10 @@
   </si>
   <si>
     <t>tm_pdf_modify_dtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(15,3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13835,8 +13836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13876,10 +13877,10 @@
       </c>
       <c r="D3" s="16"/>
       <c r="I3" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="10" t="s">
@@ -13905,10 +13906,10 @@
       </c>
       <c r="D4" s="16"/>
       <c r="I4" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>764</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>765</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="14" t="s">
@@ -13927,16 +13928,16 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>674</v>
-      </c>
       <c r="I5" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>766</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>767</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -13957,10 +13958,10 @@
         <v>554</v>
       </c>
       <c r="I6" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>768</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>769</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -13971,16 +13972,16 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>555</v>
       </c>
       <c r="I7" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>770</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>771</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -13991,10 +13992,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -14007,7 +14008,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>556</v>
@@ -14023,16 +14024,16 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>661</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="10" t="s">
@@ -14051,27 +14052,27 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>639</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>639</v>
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>639</v>
@@ -14079,10 +14080,10 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>643</v>
@@ -14102,11 +14103,11 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>811</v>
+      <c r="B13" s="9" t="s">
+        <v>810</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -14118,11 +14119,11 @@
       <c r="P13" s="33"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>807</v>
+      <c r="B14" s="9" t="s">
+        <v>806</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -14135,30 +14136,30 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="42" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>670</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>671</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>668</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>669</v>
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
@@ -14170,17 +14171,17 @@
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
@@ -14194,7 +14195,7 @@
         <v>646</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
@@ -14205,10 +14206,10 @@
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
       <c r="O18" s="14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
@@ -14236,24 +14237,24 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="34" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
@@ -14276,24 +14277,24 @@
         <v>558</v>
       </c>
       <c r="I21" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>794</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>795</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
@@ -14301,7 +14302,7 @@
         <v>559</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>44</v>
@@ -14316,24 +14317,24 @@
         <v>560</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
@@ -14355,24 +14356,24 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>797</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>798</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
@@ -14386,7 +14387,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
@@ -14394,17 +14395,17 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
@@ -14421,7 +14422,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="8" t="s">
@@ -14429,10 +14430,10 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
@@ -14452,7 +14453,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="8" t="s">
@@ -14578,10 +14579,10 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="35"/>
@@ -14593,22 +14594,22 @@
         <v>581</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>132</v>
@@ -14626,7 +14627,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>132</v>
@@ -14639,7 +14640,7 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -14660,10 +14661,10 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>44</v>
@@ -14673,12 +14674,12 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>245</v>
@@ -14691,7 +14692,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -14738,20 +14739,20 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -14759,19 +14760,19 @@
         <v>579</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.4">
@@ -14833,7 +14834,7 @@
         <v>611</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>655</v>
+        <v>814</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
@@ -14849,7 +14850,7 @@
         <v>613</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>44</v>
@@ -14864,10 +14865,10 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
@@ -14875,38 +14876,38 @@
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B55" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>666</v>
-      </c>
       <c r="E55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56"/>
       <c r="B56" s="44" t="s">
+        <v>705</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -14931,7 +14932,7 @@
     </row>
     <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>653</v>
@@ -15044,7 +15045,7 @@
     <row r="60" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>654</v>
@@ -15078,10 +15079,10 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B63" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.4">
@@ -15089,17 +15090,17 @@
         <v>581</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D64" s="36"/>
       <c r="E64" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -15225,7 +15226,7 @@
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
@@ -15241,33 +15242,33 @@
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>657</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D75" s="36"/>
       <c r="E75" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
@@ -15290,18 +15291,18 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>666</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
@@ -15438,46 +15439,46 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D88" s="36"/>
       <c r="E88" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D89" s="36"/>
       <c r="E89" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
@@ -15492,7 +15493,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G90" s="36" t="s">
         <v>616</v>
@@ -15500,10 +15501,10 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="9" t="s">
@@ -15511,7 +15512,7 @@
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.4">
@@ -15640,28 +15641,28 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D102" s="36"/>
       <c r="E102" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F102" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
@@ -15678,7 +15679,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>604</v>
@@ -15689,13 +15690,13 @@
         <v>579</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F104" s="41"/>
       <c r="G104" s="9" t="s">
@@ -15704,20 +15705,20 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="C105" s="45" t="s">
         <v>700</v>
       </c>
-      <c r="C105" s="45" t="s">
+      <c r="D105" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="45" t="s">
         <v>701</v>
-      </c>
-      <c r="D105" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E105" s="45" t="s">
-        <v>702</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.4">
@@ -15794,30 +15795,30 @@
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D113" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F113" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G113" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.4">
@@ -15825,7 +15826,7 @@
         <v>291</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D114" s="36" t="s">
         <v>44</v>
@@ -15834,7 +15835,7 @@
         <v>2</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>493</v>
@@ -15845,16 +15846,16 @@
         <v>287</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D115" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F115" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>288</v>
@@ -15862,30 +15863,30 @@
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D116" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E116" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>44</v>
@@ -15895,15 +15896,15 @@
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>44</v>
@@ -15913,15 +15914,15 @@
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>44</v>
@@ -15936,10 +15937,10 @@
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>44</v>
@@ -15949,15 +15950,15 @@
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>44</v>
@@ -15972,10 +15973,10 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>44</v>
@@ -15990,28 +15991,28 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="C125" s="34" t="s">
         <v>812</v>
-      </c>
-      <c r="C125" s="34" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D126" s="36"/>
       <c r="E126" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="F126" s="36" t="s">
         <v>758</v>
       </c>
-      <c r="F126" s="36" t="s">
-        <v>759</v>
-      </c>
       <c r="G126" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.4">
@@ -16019,19 +16020,19 @@
         <v>506</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D127" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.4">
@@ -16039,19 +16040,19 @@
         <v>16</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D128" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E128" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.4">
@@ -16059,7 +16060,7 @@
         <v>591</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>44</v>
@@ -16100,28 +16101,28 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D133" s="36"/>
       <c r="E133" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.4">
@@ -16129,19 +16130,19 @@
         <v>506</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D134" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E134" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.4">
@@ -16149,47 +16150,47 @@
         <v>16</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D135" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E135" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B137" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>44</v>
@@ -16197,35 +16198,35 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>753</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.4">
@@ -16233,7 +16234,7 @@
         <v>591</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>44</v>
@@ -16266,114 +16267,114 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B143" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B144" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D144" s="36"/>
       <c r="E144" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F144" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B145" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D145" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E145" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F145" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F146" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G146" s="11" t="s">
         <v>805</v>
-      </c>
-      <c r="C146" s="36" t="s">
-        <v>761</v>
-      </c>
-      <c r="D146" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E146" s="36" t="s">
-        <v>683</v>
-      </c>
-      <c r="F146" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D147" s="36"/>
       <c r="E147" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G147" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B148" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D148" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E148" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F148" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B149" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>44</v>
@@ -16381,35 +16382,35 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B150" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>753</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.4">

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="810">
   <si>
     <t>F12506</t>
   </si>
@@ -2393,10 +2393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDF 변경 이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>즐겨찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2535,14 +2531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tm_pdf_modify_hist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2583,11 +2571,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16583</t>
+    <t>ETF종목코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2595,11 +2579,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ETF종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16013</t>
+    <t>F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2607,38 +2591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDF 별 이력번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF 종목코드별 이력번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_hist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무수탁회사번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF단축코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tm_pdf_modify_dtl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2672,6 +2624,34 @@
   </si>
   <si>
     <t>decimal(15,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist_dtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3109,7 +3089,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14592300" y="594360"/>
+          <a:off x="16642080" y="594360"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3308,7 +3288,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14599920" y="2148840"/>
+          <a:off x="16649700" y="2148840"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3507,7 +3487,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11711940" y="2148840"/>
+          <a:off x="12915900" y="2148840"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3851,15 +3831,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1277885</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2276</xdr:rowOff>
+      <xdr:colOff>1704605</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81545</xdr:colOff>
+      <xdr:colOff>89165</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>20585</xdr:rowOff>
+      <xdr:rowOff>12967</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3868,7 +3848,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="16184880" y="2811781"/>
+          <a:off x="18661380" y="2804163"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4067,7 +4047,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11711940" y="3230880"/>
+          <a:off x="12915900" y="3230880"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4248,205 +4228,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10689</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="85" name="그룹 84"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="10800000">
-          <a:off x="11719560" y="4335780"/>
-          <a:ext cx="460269" cy="144780"/>
-          <a:chOff x="7688580" y="571500"/>
-          <a:chExt cx="685800" cy="215722"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="직선 연결선 85"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7688580" y="678180"/>
-            <a:ext cx="685800" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="직선 연결선 86"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7818120" y="584378"/>
-            <a:ext cx="0" cy="202844"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="88" name="직선 연결선 87"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8229600" y="576758"/>
-            <a:ext cx="0" cy="202844"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="직선 연결선 88"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8221980" y="571500"/>
-            <a:ext cx="144780" cy="106680"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="90" name="직선 연결선 89"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8221980" y="678180"/>
-            <a:ext cx="144780" cy="99060"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -4465,7 +4246,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="14615160" y="4335780"/>
+          <a:off x="16664940" y="4335780"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4616,6 +4397,404 @@
           <a:xfrm>
             <a:off x="8221980" y="678180"/>
             <a:ext cx="144780" cy="99060"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1696985</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>208019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81545</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>5348</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="그룹 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18653760" y="5227324"/>
+          <a:ext cx="460269" cy="144780"/>
+          <a:chOff x="7688582" y="571500"/>
+          <a:chExt cx="685800" cy="215722"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="직선 연결선 55"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7688582" y="678179"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="직선 연결선 62"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7818120" y="584378"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="직선 연결선 63"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8229599" y="576759"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="직선 연결선 64"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8221980" y="571500"/>
+            <a:ext cx="144780" cy="106680"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="직선 연결선 71"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221977" y="678178"/>
+            <a:ext cx="144780" cy="99059"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467889</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60964</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="그룹 72"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16649700" y="6103624"/>
+          <a:ext cx="460269" cy="144780"/>
+          <a:chOff x="7688582" y="571500"/>
+          <a:chExt cx="685800" cy="215722"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="74" name="직선 연결선 73"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7688582" y="678179"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="75" name="직선 연결선 74"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7818120" y="584378"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="76" name="직선 연결선 75"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8229599" y="576759"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="77" name="직선 연결선 76"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8221980" y="571500"/>
+            <a:ext cx="144780" cy="106680"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="직선 연결선 77"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221977" y="678178"/>
+            <a:ext cx="144780" cy="99059"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -13834,29 +14013,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC153"/>
+  <dimension ref="A2:AC161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0.69921875" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.19921875" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" customWidth="1"/>
+    <col min="12" max="12" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.19921875" customWidth="1"/>
-    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13880,7 +14059,7 @@
         <v>719</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="10" t="s">
@@ -13906,10 +14085,10 @@
       </c>
       <c r="D4" s="16"/>
       <c r="I4" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>763</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>764</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="14" t="s">
@@ -13934,10 +14113,10 @@
         <v>673</v>
       </c>
       <c r="I5" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>765</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>766</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -13958,10 +14137,10 @@
         <v>554</v>
       </c>
       <c r="I6" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>767</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>768</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -13978,10 +14157,10 @@
         <v>555</v>
       </c>
       <c r="I7" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>769</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>770</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -14083,7 +14262,7 @@
         <v>742</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>643</v>
@@ -14104,10 +14283,10 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -14120,10 +14299,10 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -14136,10 +14315,10 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="42" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>743</v>
+        <v>805</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>669</v>
@@ -14163,6 +14342,12 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B16" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>806</v>
+      </c>
       <c r="I16" s="14" t="s">
         <v>646</v>
       </c>
@@ -14171,10 +14356,10 @@
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
@@ -14195,7 +14380,7 @@
         <v>646</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
@@ -14206,10 +14391,10 @@
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
       <c r="O18" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
@@ -14236,25 +14421,21 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="I20" s="34" t="s">
-        <v>780</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>743</v>
-      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="33"/>
       <c r="L20" s="34" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="34" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
@@ -14276,25 +14457,21 @@
       <c r="G21" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>794</v>
-      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="33"/>
       <c r="L21" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
@@ -14316,25 +14493,21 @@
       <c r="G22" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>795</v>
-      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
       <c r="K22" s="33"/>
       <c r="L22" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
@@ -14355,25 +14528,21 @@
         <v>562</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>797</v>
-      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="33"/>
       <c r="L23" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
@@ -14394,18 +14563,14 @@
         <v>564</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>798</v>
-      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="33"/>
       <c r="L24" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
@@ -14429,12 +14594,8 @@
         <v>566</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>774</v>
-      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -14460,6 +14621,22 @@
         <v>568</v>
       </c>
       <c r="H26" s="7"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34" t="s">
+        <v>803</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>806</v>
+      </c>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
@@ -14479,6 +14656,22 @@
         <v>570</v>
       </c>
       <c r="H27" s="7"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="N27" s="33"/>
+      <c r="O27" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
@@ -14496,6 +14689,40 @@
         <v>572</v>
       </c>
       <c r="H28" s="7"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="N28" s="33"/>
+      <c r="O28" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="N29" s="33"/>
+      <c r="O29" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B30" s="34" t="s">
@@ -14504,6 +14731,22 @@
       <c r="C30" s="34" t="s">
         <v>552</v>
       </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="N30" s="33"/>
+      <c r="O30" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
@@ -14524,6 +14767,18 @@
       <c r="G31" s="11" t="s">
         <v>558</v>
       </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
@@ -14542,6 +14797,14 @@
       <c r="G32" s="8" t="s">
         <v>577</v>
       </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
@@ -14604,7 +14867,7 @@
         <v>691</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -14834,7 +15097,7 @@
         <v>611</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
@@ -14906,7 +15169,7 @@
         <v>707</v>
       </c>
       <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="3" t="s">
         <v>709</v>
       </c>
       <c r="I56"/>
@@ -15460,7 +15723,7 @@
         <v>681</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
@@ -15475,7 +15738,7 @@
         <v>682</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G89" s="36" t="s">
         <v>711</v>
@@ -15493,7 +15756,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G90" s="36" t="s">
         <v>616</v>
@@ -15798,7 +16061,7 @@
         <v>719</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.4">
@@ -15991,28 +16254,28 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="34" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D126" s="36"/>
       <c r="E126" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="F126" s="36" t="s">
         <v>757</v>
       </c>
-      <c r="F126" s="36" t="s">
-        <v>758</v>
-      </c>
       <c r="G126" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.4">
@@ -16020,7 +16283,7 @@
         <v>506</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D127" s="36" t="s">
         <v>44</v>
@@ -16032,7 +16295,7 @@
         <v>681</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.4">
@@ -16040,7 +16303,7 @@
         <v>16</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D128" s="36" t="s">
         <v>44</v>
@@ -16052,7 +16315,7 @@
         <v>681</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.4">
@@ -16060,7 +16323,7 @@
         <v>591</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>44</v>
@@ -16101,18 +16364,18 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="34" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D133" s="36"/>
       <c r="E133" s="36" t="s">
@@ -16122,7 +16385,7 @@
         <v>681</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.4">
@@ -16130,7 +16393,7 @@
         <v>506</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D134" s="36" t="s">
         <v>44</v>
@@ -16142,7 +16405,7 @@
         <v>681</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.4">
@@ -16150,7 +16413,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D135" s="36" t="s">
         <v>44</v>
@@ -16162,15 +16425,15 @@
         <v>681</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>44</v>
@@ -16182,7 +16445,7 @@
         <v>681</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.4">
@@ -16190,7 +16453,7 @@
         <v>705</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>44</v>
@@ -16198,35 +16461,35 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>752</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.4">
@@ -16267,56 +16530,54 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B143" s="34" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>743</v>
+        <v>805</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B144" s="11" t="s">
-        <v>746</v>
+        <v>689</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>790</v>
+        <v>665</v>
       </c>
       <c r="D144" s="36"/>
       <c r="E144" s="36" t="s">
-        <v>791</v>
+        <v>2</v>
       </c>
       <c r="F144" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="G144" s="11" t="s">
-        <v>802</v>
+      <c r="G144" s="36" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B145" s="11" t="s">
-        <v>803</v>
+        <v>745</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>759</v>
-      </c>
-      <c r="D145" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="D145" s="36"/>
       <c r="E145" s="36" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
       <c r="F145" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="11" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D146" s="36" t="s">
         <v>44</v>
@@ -16328,124 +16589,246 @@
         <v>681</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="11" t="s">
-        <v>689</v>
+        <v>792</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="D147" s="36"/>
+        <v>759</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E147" s="36" t="s">
-        <v>2</v>
+        <v>682</v>
       </c>
       <c r="F147" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="G147" s="36" t="s">
-        <v>800</v>
+      <c r="G147" s="11" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B148" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="C148" s="36" t="s">
+      <c r="B148" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B149" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B151" s="34" t="s">
+        <v>803</v>
+      </c>
+      <c r="C151" s="34" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B152" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G152" s="36" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B153" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F153" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B154" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>758</v>
+      </c>
+      <c r="D154" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F154" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B155" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C155" s="36" t="s">
         <v>759</v>
       </c>
-      <c r="D148" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" s="36" t="s">
-        <v>792</v>
-      </c>
-      <c r="F148" s="36" t="s">
+      <c r="D155" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F155" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="G148" s="11" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B149" s="9" t="s">
+      <c r="G155" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B156" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>758</v>
+      </c>
+      <c r="D156" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F156" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B157" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="C149" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B150" s="9" t="s">
+      <c r="D157" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B158" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9" t="s">
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B159" s="9" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B151" s="9" t="s">
+      <c r="C159" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B152" s="8" t="s">
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B160" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="D160" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="8" t="s">
+      <c r="F160" s="3"/>
+      <c r="G160" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B153" s="8" t="s">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B161" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E161" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="8" t="s">
+      <c r="F161" s="3"/>
+      <c r="G161" s="8" t="s">
         <v>572</v>
       </c>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="871">
   <si>
     <t>F12506</t>
   </si>
@@ -2416,10 +2416,351 @@
     <t>ETF단축코드</t>
   </si>
   <si>
+    <t>DECIMAL(18,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16499_PREV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1CU단위증권수 ( 변경전 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(4,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 그룹 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무수탁회사번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF단축코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) hist_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert( 신규 ), modify( 변경 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수ID 별 이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수ID 별 이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_dtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 마스터 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 상세 정보 (구성종목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_dtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(15,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist_dtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_pdf_modify_hist_mast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI  auto_increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자별 처리한 그룹번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 그룹 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력 상세번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) hist_dtl_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자별 처리한 그룹번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hist_dtl_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(4,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F16499</t>
-  </si>
-  <si>
-    <t>DECIMAL(18,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2427,47 +2768,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F16499_PREV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1CU단위증권수 ( 변경전 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(4,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 그룹 코드</t>
+    <t>F34840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F34840_PREV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액 ( 변경전 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력 상세번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무수탁회사번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) hist_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) group_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) group_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액 ( 변경전 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert( 신규 ), modify( 변경 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 마스터 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력 마스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2479,179 +2888,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목 시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무수탁회사번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF단축코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) hist_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert( 신규 ), modify( 변경 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수ID 별 이력번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수ID 별 이력번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(4,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무수탁회사번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF단축코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_dtl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 마스터 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 상세 정보 (구성종목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 상세 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_mast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_mast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 마스터 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_dtl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(15,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_hist_dtl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_hist_mast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 이력 마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 이력 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_pdf_modify_hist_mast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력번호</t>
+    <t>F34840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F34840_PREV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3089,7 +3334,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16642080" y="594360"/>
+          <a:off x="16969740" y="594360"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3288,7 +3533,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16649700" y="2148840"/>
+          <a:off x="16977360" y="2148840"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3487,7 +3732,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12915900" y="2148840"/>
+          <a:off x="12961620" y="2148840"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -3848,7 +4093,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="18661380" y="2804163"/>
+          <a:off x="18989040" y="2804163"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4047,7 +4292,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12915900" y="3230880"/>
+          <a:off x="12961620" y="3230880"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4229,15 +4474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>10689</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>3069</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4245,8 +4490,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="10800000">
-          <a:off x="16664940" y="4335780"/>
+        <a:xfrm>
+          <a:off x="16984980" y="3246120"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4429,13 +4674,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1696985</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>208019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>81545</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>5348</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4445,7 +4690,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="18653760" y="5227324"/>
+          <a:off x="18981420" y="5669284"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4644,7 +4889,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16649700" y="6103624"/>
+          <a:off x="16977360" y="6103624"/>
           <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -4795,6 +5040,205 @@
           <a:xfrm>
             <a:off x="8221977" y="678178"/>
             <a:ext cx="144780" cy="99059"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10689</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="그룹 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16992600" y="4556760"/>
+          <a:ext cx="460269" cy="144780"/>
+          <a:chOff x="7688580" y="571500"/>
+          <a:chExt cx="685800" cy="215722"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="80" name="직선 연결선 79"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7688580" y="678180"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="81" name="직선 연결선 80"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7818120" y="584378"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="직선 연결선 81"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8229600" y="576758"/>
+            <a:ext cx="0" cy="202844"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="83" name="직선 연결선 82"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8221980" y="571500"/>
+            <a:ext cx="144780" cy="106680"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="84" name="직선 연결선 83"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8221980" y="678180"/>
+            <a:ext cx="144780" cy="99060"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -14013,10 +14457,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC161"/>
+  <dimension ref="A2:AC180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14028,15 +14472,15 @@
     <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5" customWidth="1"/>
+    <col min="8" max="8" width="2.09765625" customWidth="1"/>
     <col min="9" max="9" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.19921875" customWidth="1"/>
     <col min="12" max="12" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.19921875" customWidth="1"/>
     <col min="15" max="15" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
@@ -14085,10 +14529,10 @@
       </c>
       <c r="D4" s="16"/>
       <c r="I4" s="14" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="14" t="s">
@@ -14113,10 +14557,10 @@
         <v>673</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -14137,10 +14581,10 @@
         <v>554</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -14157,10 +14601,10 @@
         <v>555</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -14283,10 +14727,10 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -14299,10 +14743,10 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -14315,10 +14759,10 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="42" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>669</v>
@@ -14343,10 +14787,10 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="42" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>646</v>
@@ -14356,10 +14800,10 @@
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="14" t="s">
@@ -14380,7 +14824,7 @@
         <v>646</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
@@ -14391,10 +14835,10 @@
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
       <c r="O18" s="14" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
@@ -14424,19 +14868,11 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
       <c r="K20" s="33"/>
-      <c r="L20" s="34" t="s">
-        <v>794</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>797</v>
-      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="34" t="s">
-        <v>798</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>795</v>
-      </c>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
@@ -14460,18 +14896,18 @@
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="33"/>
-      <c r="L21" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>770</v>
+      <c r="L21" s="34" t="s">
+        <v>784</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>787</v>
       </c>
       <c r="N21" s="33"/>
-      <c r="O21" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>770</v>
+      <c r="O21" s="34" t="s">
+        <v>788</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
@@ -14497,17 +14933,17 @@
       <c r="J22" s="47"/>
       <c r="K22" s="33"/>
       <c r="L22" s="14" t="s">
-        <v>775</v>
+        <v>842</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>771</v>
+        <v>810</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="14" t="s">
-        <v>775</v>
+        <v>842</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>771</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
@@ -14532,17 +14968,17 @@
       <c r="J23" s="47"/>
       <c r="K23" s="33"/>
       <c r="L23" s="14" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="14" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
@@ -14567,14 +15003,18 @@
       <c r="J24" s="47"/>
       <c r="K24" s="33"/>
       <c r="L24" s="14" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+      <c r="O24" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
@@ -14597,11 +15037,19 @@
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="L25" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>769</v>
+      </c>
       <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
+      <c r="O25" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
@@ -14624,19 +15072,15 @@
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="34" t="s">
-        <v>803</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>806</v>
+      <c r="L26" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>770</v>
       </c>
       <c r="N26" s="33"/>
-      <c r="O26" s="34" t="s">
-        <v>804</v>
-      </c>
-      <c r="P26" s="34" t="s">
-        <v>805</v>
-      </c>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
@@ -14659,19 +15103,11 @@
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
       <c r="K27" s="33"/>
-      <c r="L27" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>807</v>
-      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
       <c r="N27" s="33"/>
-      <c r="O27" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>807</v>
-      </c>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
@@ -14692,18 +15128,18 @@
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
       <c r="K28" s="33"/>
-      <c r="L28" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>770</v>
+      <c r="L28" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>795</v>
       </c>
       <c r="N28" s="33"/>
-      <c r="O28" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>770</v>
+      <c r="O28" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.4">
@@ -14714,14 +15150,14 @@
         <v>775</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>771</v>
+        <v>843</v>
       </c>
       <c r="N29" s="33"/>
       <c r="O29" s="14" t="s">
-        <v>775</v>
+        <v>849</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.4">
@@ -14735,17 +15171,17 @@
       <c r="J30" s="47"/>
       <c r="K30" s="33"/>
       <c r="L30" s="14" t="s">
-        <v>776</v>
+        <v>855</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>772</v>
+        <v>810</v>
       </c>
       <c r="N30" s="33"/>
       <c r="O30" s="14" t="s">
-        <v>776</v>
+        <v>850</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>772</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.4">
@@ -14771,14 +15207,18 @@
       <c r="J31" s="47"/>
       <c r="K31" s="33"/>
       <c r="L31" s="14" t="s">
-        <v>777</v>
+        <v>856</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
+      <c r="O31" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
@@ -14800,13 +15240,21 @@
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="L32" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>844</v>
+      </c>
       <c r="N32" s="33"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="O32" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>569</v>
       </c>
@@ -14823,8 +15271,24 @@
       <c r="G33" s="8" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="N33" s="33"/>
+      <c r="O33" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>571</v>
       </c>
@@ -14839,8 +15303,38 @@
       <c r="G34" s="8" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="O34" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="N35" s="33"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="10" t="s">
         <v>667</v>
       </c>
@@ -14851,8 +15345,20 @@
       <c r="E36" s="35"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="38" t="s">
         <v>581</v>
       </c>
@@ -14867,10 +15373,18 @@
         <v>691</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+        <v>757</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>693</v>
       </c>
@@ -14888,7 +15402,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
         <v>694</v>
       </c>
@@ -14906,7 +15420,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
         <v>587</v>
       </c>
@@ -14922,7 +15436,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
         <v>678</v>
       </c>
@@ -14940,7 +15454,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
         <v>680</v>
       </c>
@@ -14958,7 +15472,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
         <v>591</v>
       </c>
@@ -14976,7 +15490,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
         <v>571</v>
       </c>
@@ -14992,7 +15506,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B46" s="34" t="s">
         <v>600</v>
       </c>
@@ -15000,7 +15514,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>710</v>
       </c>
@@ -15018,7 +15532,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>579</v>
       </c>
@@ -15097,7 +15611,7 @@
         <v>611</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
@@ -15179,6 +15693,7 @@
       <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
+      <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
@@ -15217,6 +15732,7 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
+      <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
@@ -15255,6 +15771,7 @@
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
+      <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
@@ -15291,6 +15808,7 @@
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
+      <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
@@ -15723,7 +16241,7 @@
         <v>681</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
@@ -15738,7 +16256,7 @@
         <v>682</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G89" s="36" t="s">
         <v>711</v>
@@ -15756,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G90" s="36" t="s">
         <v>616</v>
@@ -16254,36 +16772,38 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="34" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>800</v>
+        <v>863</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="11" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D126" s="36"/>
+        <v>861</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E126" s="36" t="s">
-        <v>756</v>
+        <v>817</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>757</v>
+        <v>681</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>747</v>
+        <v>810</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="11" t="s">
-        <v>506</v>
+        <v>745</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D127" s="36" t="s">
         <v>44</v>
@@ -16292,18 +16812,18 @@
         <v>682</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>681</v>
+        <v>754</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="11" t="s">
-        <v>16</v>
+        <v>506</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D128" s="36" t="s">
         <v>44</v>
@@ -16315,301 +16835,321 @@
         <v>681</v>
       </c>
       <c r="G128" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B129" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F129" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G129" s="11" t="s">
         <v>749</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B129" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B130" s="8" t="s">
-        <v>571</v>
+        <v>815</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>648</v>
+        <v>799</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>649</v>
+        <v>44</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>2</v>
+        <v>816</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B131" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B132" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B133" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B131" s="35"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="35"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B132" s="34" t="s">
-        <v>801</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B133" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F133" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>747</v>
-      </c>
-    </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B134" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C134" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="D134" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E134" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F134" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>748</v>
-      </c>
+      <c r="B134" s="35"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="35"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B135" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="36" t="s">
-        <v>759</v>
-      </c>
-      <c r="D135" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E135" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F135" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>749</v>
+      <c r="B135" s="34" t="s">
+        <v>790</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="11" t="s">
-        <v>746</v>
+        <v>818</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>758</v>
+        <v>819</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="36" t="s">
-        <v>682</v>
+        <v>817</v>
       </c>
       <c r="F136" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G136" s="11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B137" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>753</v>
+      </c>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F137" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B138" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F138" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B139" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F139" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B140" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F140" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G140" s="11" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B137" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B138" s="9" t="s">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B141" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B142" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B143" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B144" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B145" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9" t="s">
+      <c r="C145" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B139" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B140" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F140" s="3"/>
-      <c r="G140" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B141" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B143" s="34" t="s">
-        <v>808</v>
-      </c>
-      <c r="C143" s="34" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B144" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F144" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G144" s="36" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B145" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>787</v>
-      </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36" t="s">
-        <v>788</v>
-      </c>
-      <c r="F145" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>790</v>
-      </c>
-    </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B146" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="C146" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="D146" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E146" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F146" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>789</v>
+      <c r="B146" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B147" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="C147" s="36" t="s">
-        <v>759</v>
-      </c>
-      <c r="D147" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E147" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F147" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>793</v>
+      <c r="B147" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.4">
@@ -16617,7 +17157,7 @@
         <v>591</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>44</v>
@@ -16650,10 +17190,10 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" s="34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>806</v>
+        <v>865</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.4">
@@ -16668,18 +17208,18 @@
         <v>2</v>
       </c>
       <c r="F152" s="36" t="s">
-        <v>681</v>
+        <v>805</v>
       </c>
       <c r="G152" s="36" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B153" s="11" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>755</v>
+        <v>822</v>
       </c>
       <c r="D153" s="36"/>
       <c r="E153" s="36" t="s">
@@ -16689,111 +17229,115 @@
         <v>681</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>770</v>
+        <v>810</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B154" s="11" t="s">
-        <v>542</v>
+        <v>823</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="D154" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="D154" s="36"/>
       <c r="E154" s="36" t="s">
-        <v>682</v>
+        <v>816</v>
       </c>
       <c r="F154" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B155" s="11" t="s">
-        <v>737</v>
+        <v>825</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>759</v>
+        <v>826</v>
       </c>
       <c r="D155" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E155" s="36" t="s">
-        <v>682</v>
+        <v>827</v>
       </c>
       <c r="F155" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B156" s="11" t="s">
-        <v>746</v>
+        <v>828</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>758</v>
+        <v>829</v>
       </c>
       <c r="D156" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E156" s="36" t="s">
-        <v>682</v>
+        <v>816</v>
       </c>
       <c r="F156" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B157" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9" t="s">
-        <v>780</v>
+      <c r="B157" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="F157" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B158" s="9" t="s">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
+        <v>799</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="9" t="s">
+        <v>682</v>
+      </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9" t="s">
-        <v>752</v>
+        <v>808</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B159" s="9" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
+        <v>800</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="9" t="s">
+        <v>682</v>
+      </c>
       <c r="F159" s="9"/>
       <c r="G159" s="9" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.4">
@@ -16814,7 +17358,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B161" s="8" t="s">
         <v>571</v>
       </c>
@@ -16829,6 +17373,305 @@
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B163" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B164" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G164" s="36" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B165" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F165" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G165" s="36" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B166" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>753</v>
+      </c>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F166" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G166" s="36" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B167" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D167" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E167" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F167" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G167" s="36" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B168" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="D168" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F168" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G168" s="36" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B169" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>834</v>
+      </c>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F169" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B170" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D170" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E170" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F170" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G170" s="36" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B171" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G171" s="36" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B172" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B173" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B174" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B175" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="J175" s="9"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B176" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B177" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B178" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B179" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="3"/>
+      <c r="G179" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B180" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180" s="3"/>
+      <c r="G180" s="8" t="s">
         <v>572</v>
       </c>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kc_etplatform\kc_etp\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="17688" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="60" windowWidth="17685" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="지수_지수일별" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="866">
   <si>
     <t>F12506</t>
   </si>
@@ -2660,22 +2660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이력 상세번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) hist_dtl_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자별 처리한 그룹번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hist_dtl_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type_cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2748,10 +2732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bigint(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2796,10 +2776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이력 상세번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2856,10 +2832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>액면금액 ( 변경전 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2876,10 +2848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDF 변경 이력 마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inst_cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2897,6 +2865,18 @@
   </si>
   <si>
     <t>액면금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upd_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3334,8 +3314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16969740" y="594360"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="16992600" y="571500"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3533,8 +3513,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16977360" y="2148840"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17000220" y="2045970"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3732,8 +3712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12961620" y="2148840"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="12978765" y="2045970"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4093,8 +4073,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="18989040" y="2804163"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="19029046" y="2655572"/>
+          <a:ext cx="435504" cy="146685"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4292,8 +4272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12961620" y="3230880"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="12978765" y="3070860"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4491,8 +4471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16984980" y="3246120"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17007840" y="3086100"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4690,8 +4670,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="18981420" y="5669284"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="19026188" y="5376866"/>
+          <a:ext cx="425979" cy="146685"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4889,8 +4869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16977360" y="6103624"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17000220" y="5795014"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -5088,8 +5068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16992600" y="4556760"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17015460" y="4328160"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -6618,22 +6598,22 @@
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6651,7 +6631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -6667,7 +6647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -6683,7 +6663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -6699,7 +6679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6715,7 +6695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -6731,7 +6711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6747,7 +6727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -6763,7 +6743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -6779,7 +6759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -6795,7 +6775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -6813,12 +6793,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -6836,7 +6816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -6852,7 +6832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -6868,7 +6848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -6884,7 +6864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -6900,7 +6880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -6916,7 +6896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -6932,7 +6912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -6948,7 +6928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -6964,7 +6944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -6980,7 +6960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -6998,12 +6978,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -7021,7 +7001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -7037,7 +7017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
@@ -7053,7 +7033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
@@ -7069,7 +7049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -7085,7 +7065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -7101,7 +7081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -7117,7 +7097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -7133,7 +7113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -7153,7 +7133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -7169,7 +7149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -7185,7 +7165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -7201,7 +7181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -7217,7 +7197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -7233,7 +7213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -7249,7 +7229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -7265,7 +7245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -7281,7 +7261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
@@ -7297,7 +7277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -7313,7 +7293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -7329,7 +7309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -7345,7 +7325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
@@ -7361,7 +7341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
@@ -7377,7 +7357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
@@ -7393,7 +7373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -7409,7 +7389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>80</v>
       </c>
@@ -7425,7 +7405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
@@ -7441,7 +7421,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
@@ -7457,7 +7437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -7473,7 +7453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -7489,7 +7469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
@@ -7505,7 +7485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
@@ -7521,7 +7501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -7537,7 +7517,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>97</v>
       </c>
@@ -7553,12 +7533,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
@@ -7574,7 +7554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
@@ -7592,7 +7572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
@@ -7624,7 +7604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
@@ -7640,7 +7620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -7656,7 +7636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -7672,7 +7652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -7688,7 +7668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -7704,7 +7684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
@@ -7720,7 +7700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>16</v>
       </c>
@@ -7740,7 +7720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -7758,12 +7738,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
@@ -7779,7 +7759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
@@ -7797,7 +7777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
@@ -7813,7 +7793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
@@ -7829,7 +7809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
@@ -7845,7 +7825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
@@ -7861,7 +7841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
@@ -7877,7 +7857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
@@ -7893,7 +7873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
@@ -7909,7 +7889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
@@ -7925,7 +7905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
@@ -7945,7 +7925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>103</v>
       </c>
@@ -7963,12 +7943,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
@@ -7984,7 +7964,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -8002,7 +7982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
@@ -8018,7 +7998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -8034,7 +8014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
@@ -8050,7 +8030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
@@ -8066,7 +8046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
@@ -8082,7 +8062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
@@ -8098,7 +8078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>13</v>
       </c>
@@ -8114,7 +8094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
@@ -8130,7 +8110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -8150,7 +8130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
@@ -8168,12 +8148,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
@@ -8189,7 +8169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
@@ -8207,7 +8187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>4</v>
       </c>
@@ -8223,7 +8203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -8239,7 +8219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
@@ -8255,7 +8235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -8271,7 +8251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -8287,7 +8267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
@@ -8303,7 +8283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
@@ -8319,7 +8299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
@@ -8335,7 +8315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -8355,7 +8335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>103</v>
       </c>
@@ -8373,12 +8353,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
@@ -8394,7 +8374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
@@ -8412,7 +8392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
@@ -8428,7 +8408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
@@ -8444,7 +8424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
@@ -8460,7 +8440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
@@ -8476,7 +8456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
@@ -8492,7 +8472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
@@ -8508,7 +8488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>13</v>
       </c>
@@ -8524,7 +8504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>15</v>
       </c>
@@ -8540,7 +8520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>16</v>
       </c>
@@ -8560,7 +8540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>110</v>
       </c>
@@ -8576,7 +8556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>112</v>
       </c>
@@ -8592,7 +8572,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>114</v>
       </c>
@@ -8608,7 +8588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
@@ -8624,12 +8604,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -8647,7 +8627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
@@ -8663,7 +8643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
@@ -8679,7 +8659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
@@ -8695,7 +8675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
@@ -8711,7 +8691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
@@ -8727,7 +8707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -8743,7 +8723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
@@ -8759,7 +8739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
@@ -8775,7 +8755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
@@ -8795,7 +8775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
@@ -8811,7 +8791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
@@ -8827,7 +8807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -8843,7 +8823,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
@@ -8859,7 +8839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>114</v>
       </c>
@@ -8875,7 +8855,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
@@ -8891,12 +8871,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -8914,7 +8894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
         <v>4</v>
       </c>
@@ -8930,7 +8910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
         <v>7</v>
       </c>
@@ -8946,7 +8926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
@@ -8962,7 +8942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
         <v>15</v>
       </c>
@@ -8978,7 +8958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
         <v>41</v>
       </c>
@@ -8994,7 +8974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
@@ -9014,12 +8994,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
         <v>0</v>
       </c>
@@ -9037,7 +9017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
         <v>4</v>
       </c>
@@ -9053,7 +9033,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
@@ -9069,7 +9049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
@@ -9085,7 +9065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
         <v>15</v>
       </c>
@@ -9101,7 +9081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
         <v>131</v>
       </c>
@@ -9119,7 +9099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
@@ -9139,7 +9119,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
         <v>57</v>
       </c>
@@ -9155,7 +9135,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
         <v>135</v>
       </c>
@@ -9171,7 +9151,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>137</v>
       </c>
@@ -9187,12 +9167,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
         <v>0</v>
       </c>
@@ -9210,7 +9190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>4</v>
       </c>
@@ -9226,7 +9206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
@@ -9242,7 +9222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
@@ -9274,7 +9254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>11</v>
       </c>
@@ -9290,7 +9270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
@@ -9306,7 +9286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
         <v>13</v>
       </c>
@@ -9322,7 +9302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
         <v>14</v>
       </c>
@@ -9338,7 +9318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>15</v>
       </c>
@@ -9354,7 +9334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
@@ -9372,12 +9352,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
         <v>0</v>
       </c>
@@ -9395,7 +9375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>4</v>
       </c>
@@ -9411,7 +9391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
         <v>7</v>
       </c>
@@ -9427,7 +9407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
@@ -9443,7 +9423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
@@ -9459,7 +9439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>11</v>
       </c>
@@ -9475,7 +9455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
@@ -9491,7 +9471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
         <v>13</v>
       </c>
@@ -9507,7 +9487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
         <v>14</v>
       </c>
@@ -9523,7 +9503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>15</v>
       </c>
@@ -9539,7 +9519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
@@ -9572,17 +9552,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>142</v>
       </c>
@@ -9590,7 +9570,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
@@ -9606,7 +9586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
@@ -9626,7 +9606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
@@ -9644,7 +9624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
@@ -9664,7 +9644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
@@ -9682,7 +9662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
@@ -9690,7 +9670,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
@@ -9706,7 +9686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -9724,7 +9704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
@@ -9742,7 +9722,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
@@ -9760,7 +9740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -9780,7 +9760,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
@@ -9796,7 +9776,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
@@ -9812,7 +9792,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
@@ -9832,7 +9812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -9840,7 +9820,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
@@ -9856,7 +9836,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -9874,7 +9854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -9894,7 +9874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
@@ -9910,7 +9890,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
@@ -9926,7 +9906,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>172</v>
       </c>
@@ -9942,7 +9922,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>175</v>
       </c>
@@ -9958,7 +9938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
@@ -9978,7 +9958,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
@@ -9986,7 +9966,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>178</v>
       </c>
@@ -10002,7 +9982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -10020,7 +10000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -10040,7 +10020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
@@ -10060,7 +10040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
@@ -10076,7 +10056,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>151</v>
       </c>
@@ -10110,16 +10090,16 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
@@ -10127,7 +10107,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
@@ -10145,7 +10125,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -10161,7 +10141,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
@@ -10179,7 +10159,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -10199,7 +10179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>191</v>
       </c>
@@ -10217,7 +10197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>194</v>
       </c>
@@ -10235,7 +10215,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
@@ -10253,7 +10233,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
@@ -10271,7 +10251,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>202</v>
       </c>
@@ -10287,7 +10267,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
@@ -10305,7 +10285,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
@@ -10321,7 +10301,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
@@ -10337,7 +10317,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -10353,7 +10333,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
@@ -10369,7 +10349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>214</v>
       </c>
@@ -10387,7 +10367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>217</v>
       </c>
@@ -10403,7 +10383,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
@@ -10421,7 +10401,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>221</v>
       </c>
@@ -10439,7 +10419,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -10447,7 +10427,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>225</v>
       </c>
@@ -10465,7 +10445,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
@@ -10483,7 +10463,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
@@ -10499,7 +10479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>229</v>
       </c>
@@ -10515,7 +10495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -10533,7 +10513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>232</v>
       </c>
@@ -10549,7 +10529,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
@@ -10567,7 +10547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
@@ -10583,7 +10563,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
@@ -10603,7 +10583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
@@ -10621,7 +10601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>194</v>
       </c>
@@ -10639,7 +10619,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
@@ -10657,7 +10637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>239</v>
       </c>
@@ -10675,7 +10655,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>242</v>
       </c>
@@ -10691,7 +10671,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>244</v>
       </c>
@@ -10709,7 +10689,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
@@ -10727,7 +10707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>202</v>
       </c>
@@ -10743,7 +10723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
@@ -10761,7 +10741,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
@@ -10777,7 +10757,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>252</v>
       </c>
@@ -10795,7 +10775,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>254</v>
       </c>
@@ -10813,7 +10793,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
@@ -10829,7 +10809,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
@@ -10845,7 +10825,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
@@ -10863,7 +10843,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>212</v>
       </c>
@@ -10879,7 +10859,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>259</v>
       </c>
@@ -10895,7 +10875,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>214</v>
       </c>
@@ -10913,7 +10893,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>217</v>
       </c>
@@ -10929,7 +10909,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>261</v>
       </c>
@@ -10947,7 +10927,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>219</v>
       </c>
@@ -10965,7 +10945,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>263</v>
       </c>
@@ -10983,7 +10963,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>265</v>
       </c>
@@ -11001,7 +10981,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>267</v>
       </c>
@@ -11019,7 +10999,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>268</v>
       </c>
@@ -11027,7 +11007,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>187</v>
       </c>
@@ -11043,7 +11023,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
@@ -11061,7 +11041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>145</v>
       </c>
@@ -11081,7 +11061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>191</v>
       </c>
@@ -11099,7 +11079,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>194</v>
       </c>
@@ -11117,7 +11097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>197</v>
       </c>
@@ -11135,7 +11115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>202</v>
       </c>
@@ -11151,7 +11131,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
@@ -11167,7 +11147,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
@@ -11183,7 +11163,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>214</v>
       </c>
@@ -11201,7 +11181,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>217</v>
       </c>
@@ -11217,7 +11197,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
@@ -11235,7 +11215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
@@ -11253,7 +11233,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
@@ -11271,7 +11251,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>270</v>
       </c>
@@ -11279,7 +11259,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>225</v>
       </c>
@@ -11297,7 +11277,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
@@ -11315,7 +11295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
@@ -11331,7 +11311,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>189</v>
       </c>
@@ -11349,7 +11329,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>232</v>
       </c>
@@ -11365,7 +11345,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
@@ -11383,7 +11363,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
@@ -11399,7 +11379,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
@@ -11419,7 +11399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -11437,7 +11417,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
@@ -11455,7 +11435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
@@ -11473,7 +11453,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>239</v>
       </c>
@@ -11491,7 +11471,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>242</v>
       </c>
@@ -11507,7 +11487,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
@@ -11525,7 +11505,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>247</v>
       </c>
@@ -11543,7 +11523,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>202</v>
       </c>
@@ -11559,7 +11539,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>250</v>
       </c>
@@ -11577,7 +11557,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>206</v>
       </c>
@@ -11593,7 +11573,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>252</v>
       </c>
@@ -11611,7 +11591,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
@@ -11629,7 +11609,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>256</v>
       </c>
@@ -11647,7 +11627,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>212</v>
       </c>
@@ -11663,7 +11643,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>259</v>
       </c>
@@ -11679,7 +11659,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
@@ -11697,7 +11677,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>217</v>
       </c>
@@ -11713,7 +11693,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>261</v>
       </c>
@@ -11731,7 +11711,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>219</v>
       </c>
@@ -11749,7 +11729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
@@ -11767,7 +11747,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>265</v>
       </c>
@@ -11785,7 +11765,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
@@ -11817,18 +11797,18 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
@@ -11836,7 +11816,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
@@ -11856,7 +11836,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>274</v>
       </c>
@@ -11874,7 +11854,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>277</v>
       </c>
@@ -11894,7 +11874,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>279</v>
       </c>
@@ -11910,7 +11890,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>281</v>
       </c>
@@ -11918,7 +11898,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
@@ -11936,7 +11916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>284</v>
       </c>
@@ -11954,7 +11934,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
@@ -11972,7 +11952,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
@@ -11992,7 +11972,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
@@ -12010,7 +11990,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
@@ -12028,7 +12008,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
@@ -12046,7 +12026,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
@@ -12064,7 +12044,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
@@ -12082,7 +12062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
@@ -12100,7 +12080,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
@@ -12108,7 +12088,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>304</v>
       </c>
@@ -12126,7 +12106,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>306</v>
       </c>
@@ -12142,7 +12122,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
@@ -12160,7 +12140,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>309</v>
       </c>
@@ -12178,7 +12158,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
@@ -12196,7 +12176,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>313</v>
       </c>
@@ -12214,7 +12194,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>315</v>
       </c>
@@ -12232,7 +12212,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>317</v>
       </c>
@@ -12250,7 +12230,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>319</v>
       </c>
@@ -12268,7 +12248,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>321</v>
       </c>
@@ -12286,7 +12266,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -12304,7 +12284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>325</v>
       </c>
@@ -12322,7 +12302,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -12340,7 +12320,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>329</v>
       </c>
@@ -12358,7 +12338,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>331</v>
       </c>
@@ -12376,7 +12356,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>333</v>
       </c>
@@ -12394,7 +12374,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>336</v>
       </c>
@@ -12412,7 +12392,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>338</v>
       </c>
@@ -12428,7 +12408,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
@@ -12446,7 +12426,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>342</v>
       </c>
@@ -12464,7 +12444,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>344</v>
       </c>
@@ -12482,7 +12462,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>347</v>
       </c>
@@ -12498,7 +12478,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>349</v>
       </c>
@@ -12516,7 +12496,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>351</v>
       </c>
@@ -12534,7 +12514,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>353</v>
       </c>
@@ -12552,7 +12532,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>355</v>
       </c>
@@ -12570,7 +12550,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>291</v>
       </c>
@@ -12588,7 +12568,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>358</v>
       </c>
@@ -12606,7 +12586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>359</v>
       </c>
@@ -12624,7 +12604,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
@@ -12642,7 +12622,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
@@ -12660,7 +12640,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
@@ -12678,7 +12658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>366</v>
       </c>
@@ -12696,7 +12676,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>368</v>
       </c>
@@ -12714,7 +12694,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>370</v>
       </c>
@@ -12730,7 +12710,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>372</v>
       </c>
@@ -12748,7 +12728,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>374</v>
       </c>
@@ -12766,7 +12746,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
@@ -12784,7 +12764,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>378</v>
       </c>
@@ -12802,7 +12782,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>380</v>
       </c>
@@ -12818,7 +12798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>382</v>
       </c>
@@ -12836,7 +12816,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>385</v>
       </c>
@@ -12854,7 +12834,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>387</v>
       </c>
@@ -12872,7 +12852,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>389</v>
       </c>
@@ -12890,7 +12870,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>391</v>
       </c>
@@ -12908,7 +12888,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>393</v>
       </c>
@@ -12926,7 +12906,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>395</v>
       </c>
@@ -12944,7 +12924,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>397</v>
       </c>
@@ -12962,7 +12942,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>400</v>
       </c>
@@ -12980,7 +12960,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
@@ -12998,7 +12978,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>404</v>
       </c>
@@ -13016,7 +12996,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>406</v>
       </c>
@@ -13034,7 +13014,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
@@ -13052,7 +13032,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
@@ -13070,7 +13050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>412</v>
       </c>
@@ -13086,7 +13066,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
@@ -13104,7 +13084,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
@@ -13122,7 +13102,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>418</v>
       </c>
@@ -13140,7 +13120,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
@@ -13158,7 +13138,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>422</v>
       </c>
@@ -13174,7 +13154,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>424</v>
       </c>
@@ -13192,7 +13172,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
@@ -13213,7 +13193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>430</v>
       </c>
@@ -13231,7 +13211,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>432</v>
       </c>
@@ -13249,7 +13229,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>434</v>
       </c>
@@ -13267,7 +13247,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
@@ -13275,7 +13255,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>304</v>
       </c>
@@ -13293,7 +13273,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
@@ -13309,7 +13289,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>308</v>
       </c>
@@ -13327,7 +13307,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>309</v>
       </c>
@@ -13345,7 +13325,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>311</v>
       </c>
@@ -13363,7 +13343,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>313</v>
       </c>
@@ -13381,7 +13361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>315</v>
       </c>
@@ -13399,7 +13379,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>317</v>
       </c>
@@ -13417,7 +13397,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>319</v>
       </c>
@@ -13435,7 +13415,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>321</v>
       </c>
@@ -13453,7 +13433,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>323</v>
       </c>
@@ -13471,7 +13451,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>325</v>
       </c>
@@ -13489,7 +13469,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>327</v>
       </c>
@@ -13507,7 +13487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>329</v>
       </c>
@@ -13525,7 +13505,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>331</v>
       </c>
@@ -13543,7 +13523,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>333</v>
       </c>
@@ -13561,7 +13541,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
@@ -13579,7 +13559,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>338</v>
       </c>
@@ -13595,7 +13575,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>340</v>
       </c>
@@ -13613,7 +13593,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>342</v>
       </c>
@@ -13631,7 +13611,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>344</v>
       </c>
@@ -13649,7 +13629,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -13665,7 +13645,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>349</v>
       </c>
@@ -13683,7 +13663,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>351</v>
       </c>
@@ -13701,7 +13681,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>353</v>
       </c>
@@ -13719,7 +13699,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>355</v>
       </c>
@@ -13737,7 +13717,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>291</v>
       </c>
@@ -13755,7 +13735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>358</v>
       </c>
@@ -13773,7 +13753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>359</v>
       </c>
@@ -13791,7 +13771,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>361</v>
       </c>
@@ -13809,7 +13789,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
@@ -13827,7 +13807,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
         <v>365</v>
       </c>
@@ -13845,7 +13825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
         <v>366</v>
       </c>
@@ -13863,7 +13843,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>368</v>
       </c>
@@ -13881,7 +13861,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>370</v>
       </c>
@@ -13897,7 +13877,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>372</v>
       </c>
@@ -13915,7 +13895,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
@@ -13933,7 +13913,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -13951,7 +13931,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>378</v>
       </c>
@@ -13969,7 +13949,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>380</v>
       </c>
@@ -13985,7 +13965,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>382</v>
       </c>
@@ -14003,7 +13983,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>385</v>
       </c>
@@ -14021,7 +14001,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>387</v>
       </c>
@@ -14039,7 +14019,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>389</v>
       </c>
@@ -14057,7 +14037,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
@@ -14075,7 +14055,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
@@ -14093,7 +14073,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
@@ -14111,7 +14091,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>397</v>
       </c>
@@ -14129,7 +14109,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
         <v>400</v>
       </c>
@@ -14147,7 +14127,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
@@ -14165,7 +14145,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>404</v>
       </c>
@@ -14183,7 +14163,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
@@ -14201,7 +14181,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>408</v>
       </c>
@@ -14219,7 +14199,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>410</v>
       </c>
@@ -14237,7 +14217,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>412</v>
       </c>
@@ -14253,7 +14233,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>414</v>
       </c>
@@ -14271,7 +14251,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>416</v>
       </c>
@@ -14289,7 +14269,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>418</v>
       </c>
@@ -14307,7 +14287,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>420</v>
       </c>
@@ -14325,7 +14305,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>422</v>
       </c>
@@ -14341,7 +14321,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>424</v>
       </c>
@@ -14359,7 +14339,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>437</v>
       </c>
@@ -14377,7 +14357,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>439</v>
       </c>
@@ -14395,7 +14375,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>430</v>
       </c>
@@ -14413,7 +14393,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>432</v>
       </c>
@@ -14431,7 +14411,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>434</v>
       </c>
@@ -14457,33 +14437,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC180"/>
+  <dimension ref="A2:AC183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.69921875" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.09765625" customWidth="1"/>
-    <col min="9" max="9" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.19921875" customWidth="1"/>
-    <col min="12" max="12" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="23.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.19921875" customWidth="1"/>
-    <col min="15" max="15" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="23.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>627</v>
       </c>
@@ -14491,7 +14471,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>636</v>
       </c>
@@ -14520,7 +14500,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>546</v>
       </c>
@@ -14549,7 +14529,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
         <v>672</v>
       </c>
@@ -14573,7 +14553,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>640</v>
       </c>
@@ -14593,7 +14573,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>666</v>
       </c>
@@ -14613,7 +14593,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
         <v>671</v>
       </c>
@@ -14629,7 +14609,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>662</v>
       </c>
@@ -14645,7 +14625,7 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>659</v>
       </c>
@@ -14673,7 +14653,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>704</v>
       </c>
@@ -14701,7 +14681,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>742</v>
       </c>
@@ -14725,7 +14705,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>788</v>
       </c>
@@ -14741,7 +14721,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>784</v>
       </c>
@@ -14757,7 +14737,7 @@
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
         <v>793</v>
       </c>
@@ -14785,7 +14765,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
         <v>792</v>
       </c>
@@ -14813,7 +14793,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
@@ -14827,7 +14807,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -14841,7 +14821,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>650</v>
       </c>
@@ -14854,7 +14834,7 @@
       <c r="O19" s="47"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
         <v>636</v>
       </c>
@@ -14874,7 +14854,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>557</v>
       </c>
@@ -14910,7 +14890,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>559</v>
       </c>
@@ -14933,20 +14913,20 @@
       <c r="J22" s="47"/>
       <c r="K22" s="33"/>
       <c r="L22" s="14" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>810</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="14" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>561</v>
       </c>
@@ -14981,7 +14961,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>563</v>
       </c>
@@ -15016,7 +14996,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>565</v>
       </c>
@@ -15051,7 +15031,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>567</v>
       </c>
@@ -15082,7 +15062,7 @@
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>569</v>
       </c>
@@ -15109,7 +15089,7 @@
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>571</v>
       </c>
@@ -15142,7 +15122,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="33"/>
@@ -15150,17 +15130,17 @@
         <v>775</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="N29" s="33"/>
       <c r="O29" s="14" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="34" t="s">
         <v>642</v>
       </c>
@@ -15171,20 +15151,20 @@
       <c r="J30" s="47"/>
       <c r="K30" s="33"/>
       <c r="L30" s="14" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>810</v>
       </c>
       <c r="N30" s="33"/>
       <c r="O30" s="14" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>557</v>
       </c>
@@ -15207,20 +15187,20 @@
       <c r="J31" s="47"/>
       <c r="K31" s="33"/>
       <c r="L31" s="14" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>767</v>
       </c>
       <c r="N31" s="33"/>
       <c r="O31" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>576</v>
       </c>
@@ -15241,20 +15221,20 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="14" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="N32" s="33"/>
       <c r="O32" s="14" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>569</v>
       </c>
@@ -15275,20 +15255,20 @@
       <c r="J33" s="47"/>
       <c r="K33" s="33"/>
       <c r="L33" s="14" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>769</v>
       </c>
       <c r="N33" s="33"/>
       <c r="O33" s="14" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>571</v>
       </c>
@@ -15307,25 +15287,25 @@
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="14" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="M34" s="14" t="s">
         <v>806</v>
       </c>
       <c r="N34" s="33"/>
       <c r="O34" s="14" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="P34" s="14" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
       <c r="K35" s="33"/>
       <c r="L35" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>770</v>
@@ -15334,7 +15314,7 @@
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>667</v>
       </c>
@@ -15348,17 +15328,13 @@
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
-      <c r="L36" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>845</v>
-      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="38" t="s">
         <v>581</v>
       </c>
@@ -15384,7 +15360,7 @@
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>693</v>
       </c>
@@ -15402,7 +15378,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>694</v>
       </c>
@@ -15420,7 +15396,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>587</v>
       </c>
@@ -15436,7 +15412,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>678</v>
       </c>
@@ -15454,7 +15430,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>680</v>
       </c>
@@ -15472,7 +15448,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>591</v>
       </c>
@@ -15490,7 +15466,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>571</v>
       </c>
@@ -15506,7 +15482,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="34" t="s">
         <v>600</v>
       </c>
@@ -15514,7 +15490,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>710</v>
       </c>
@@ -15532,7 +15508,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>579</v>
       </c>
@@ -15552,7 +15528,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>605</v>
       </c>
@@ -15570,7 +15546,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>607</v>
       </c>
@@ -15588,7 +15564,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>609</v>
       </c>
@@ -15606,7 +15582,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>611</v>
       </c>
@@ -15622,7 +15598,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>613</v>
       </c>
@@ -15640,7 +15616,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>675</v>
       </c>
@@ -15656,7 +15632,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B55" s="39" t="s">
         <v>664</v>
       </c>
@@ -15670,7 +15646,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56" s="44" t="s">
         <v>705</v>
@@ -15708,7 +15684,7 @@
       <c r="AB56"/>
       <c r="AC56"/>
     </row>
-    <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>658</v>
       </c>
@@ -15747,7 +15723,7 @@
       <c r="AB57"/>
       <c r="AC57"/>
     </row>
-    <row r="58" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>591</v>
       </c>
@@ -15786,7 +15762,7 @@
       <c r="AB58"/>
       <c r="AC58"/>
     </row>
-    <row r="59" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>571</v>
       </c>
@@ -15823,7 +15799,7 @@
       <c r="AB59"/>
       <c r="AC59"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="8" t="s">
         <v>697</v>
@@ -15842,7 +15818,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>595</v>
       </c>
@@ -15858,7 +15834,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>669</v>
       </c>
@@ -15866,7 +15842,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>581</v>
       </c>
@@ -15884,7 +15860,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>615</v>
       </c>
@@ -15902,7 +15878,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>617</v>
       </c>
@@ -15920,7 +15896,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>619</v>
       </c>
@@ -15938,7 +15914,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>621</v>
       </c>
@@ -15956,7 +15932,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>623</v>
       </c>
@@ -15974,7 +15950,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>625</v>
       </c>
@@ -15992,7 +15968,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>591</v>
       </c>
@@ -16010,7 +15986,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>571</v>
       </c>
@@ -16026,7 +16002,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="34" t="s">
         <v>656</v>
       </c>
@@ -16034,7 +16010,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>714</v>
       </c>
@@ -16052,7 +16028,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>615</v>
       </c>
@@ -16070,7 +16046,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
         <v>664</v>
       </c>
@@ -16086,7 +16062,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>617</v>
       </c>
@@ -16104,7 +16080,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>619</v>
       </c>
@@ -16122,7 +16098,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>621</v>
       </c>
@@ -16140,7 +16116,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>623</v>
       </c>
@@ -16158,7 +16134,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>625</v>
       </c>
@@ -16176,7 +16152,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>591</v>
       </c>
@@ -16194,7 +16170,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>571</v>
       </c>
@@ -16210,7 +16186,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="35"/>
       <c r="C85" s="43"/>
       <c r="D85" s="43"/>
@@ -16218,7 +16194,7 @@
       <c r="F85" s="43"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="34" t="s">
         <v>659</v>
       </c>
@@ -16226,7 +16202,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>689</v>
       </c>
@@ -16244,7 +16220,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>710</v>
       </c>
@@ -16262,7 +16238,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>615</v>
       </c>
@@ -16280,7 +16256,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>664</v>
       </c>
@@ -16296,7 +16272,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>617</v>
       </c>
@@ -16314,7 +16290,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>619</v>
       </c>
@@ -16332,7 +16308,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>621</v>
       </c>
@@ -16350,7 +16326,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>623</v>
       </c>
@@ -16368,7 +16344,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="9" t="s">
         <v>625</v>
       </c>
@@ -16386,7 +16362,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>591</v>
       </c>
@@ -16404,7 +16380,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>571</v>
       </c>
@@ -16420,7 +16396,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>704</v>
       </c>
@@ -16428,7 +16404,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
         <v>710</v>
       </c>
@@ -16446,7 +16422,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="11" t="s">
         <v>291</v>
       </c>
@@ -16466,7 +16442,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>579</v>
       </c>
@@ -16484,7 +16460,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="44" t="s">
         <v>699</v>
       </c>
@@ -16502,7 +16478,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>591</v>
       </c>
@@ -16520,7 +16496,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>571</v>
       </c>
@@ -16538,7 +16514,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>593</v>
       </c>
@@ -16556,7 +16532,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>595</v>
       </c>
@@ -16574,7 +16550,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="34" t="s">
         <v>719</v>
       </c>
@@ -16582,7 +16558,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="11" t="s">
         <v>720</v>
       </c>
@@ -16602,7 +16578,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="11" t="s">
         <v>291</v>
       </c>
@@ -16622,7 +16598,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="11" t="s">
         <v>287</v>
       </c>
@@ -16642,7 +16618,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="11" t="s">
         <v>721</v>
       </c>
@@ -16662,7 +16638,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>680</v>
       </c>
@@ -16680,7 +16656,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>722</v>
       </c>
@@ -16698,7 +16674,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>737</v>
       </c>
@@ -16716,7 +16692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>738</v>
       </c>
@@ -16734,7 +16710,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>739</v>
       </c>
@@ -16752,7 +16728,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>740</v>
       </c>
@@ -16770,26 +16746,26 @@
         <v>504</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="34" t="s">
         <v>789</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E126" s="36" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F126" s="36" t="s">
         <v>681</v>
@@ -16798,7 +16774,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
         <v>745</v>
       </c>
@@ -16818,7 +16794,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="11" t="s">
         <v>506</v>
       </c>
@@ -16838,7 +16814,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B129" s="11" t="s">
         <v>16</v>
       </c>
@@ -16858,9 +16834,9 @@
         <v>749</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>799</v>
@@ -16869,32 +16845,32 @@
         <v>44</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="8" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="8" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>591</v>
       </c>
@@ -16912,16 +16888,14 @@
         <v>592</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>571</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>649</v>
-      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
         <v>2</v>
       </c>
@@ -16930,90 +16904,85 @@
         <v>572</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B134" s="35"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="35"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B135" s="34" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="16"/>
+      <c r="B134" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="41"/>
+      <c r="G134" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B135" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="42"/>
+      <c r="G135" s="9" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B136" s="35"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="35"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="34" t="s">
         <v>790</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C137" s="34" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B136" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>819</v>
-      </c>
-      <c r="D136" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E136" s="36" t="s">
-        <v>817</v>
-      </c>
-      <c r="F136" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B137" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="C137" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F137" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B138" s="11" t="s">
-        <v>506</v>
+        <v>814</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
       <c r="D138" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E138" s="36" t="s">
-        <v>682</v>
+        <v>813</v>
       </c>
       <c r="F138" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B139" s="11" t="s">
-        <v>16</v>
+        <v>745</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="D139" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D139" s="36"/>
       <c r="E139" s="36" t="s">
         <v>682</v>
       </c>
@@ -17021,12 +16990,12 @@
         <v>681</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B140" s="11" t="s">
-        <v>746</v>
+        <v>506</v>
       </c>
       <c r="C140" s="36" t="s">
         <v>755</v>
@@ -17041,92 +17010,104 @@
         <v>681</v>
       </c>
       <c r="G140" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B141" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B142" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F142" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G142" s="11" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B141" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="C141" s="9" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B143" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B142" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B143" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E143" s="9"/>
+      <c r="D143" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>812</v>
+      </c>
       <c r="F143" s="9"/>
       <c r="G143" s="9" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B144" s="9" t="s">
-        <v>836</v>
+        <v>761</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
+        <v>817</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>813</v>
+      </c>
       <c r="F144" s="9"/>
       <c r="G144" s="9" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B145" s="9" t="s">
-        <v>751</v>
+        <v>830</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D145" s="9"/>
+        <v>778</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
-        <v>868</v>
+        <v>831</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>750</v>
@@ -17135,12 +17116,12 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B147" s="9" t="s">
-        <v>869</v>
+        <v>751</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>750</v>
@@ -17149,341 +17130,326 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B148" s="8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B148" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B149" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B150" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="D150" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="8" t="s">
+      <c r="F150" s="3"/>
+      <c r="G150" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B149" s="8" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B151" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E149" s="3" t="s">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="8" t="s">
+      <c r="F151" s="3"/>
+      <c r="G151" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B151" s="34" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="16"/>
+      <c r="B152" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="41"/>
+      <c r="G152" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B153" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" s="42"/>
+      <c r="G153" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B155" s="34" t="s">
         <v>802</v>
       </c>
-      <c r="C151" s="34" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B152" s="11" t="s">
+      <c r="C155" s="34" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B156" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C156" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36" t="s">
+      <c r="D156" s="36"/>
+      <c r="E156" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F152" s="36" t="s">
+      <c r="F156" s="36" t="s">
         <v>805</v>
       </c>
-      <c r="G152" s="36" t="s">
+      <c r="G156" s="36" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B153" s="11" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B157" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C157" s="36" t="s">
         <v>818</v>
-      </c>
-      <c r="C153" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="D153" s="36"/>
-      <c r="E153" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F153" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B154" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="C154" s="36" t="s">
-        <v>824</v>
-      </c>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36" t="s">
-        <v>816</v>
-      </c>
-      <c r="F154" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B155" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="C155" s="36" t="s">
-        <v>826</v>
-      </c>
-      <c r="D155" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E155" s="36" t="s">
-        <v>827</v>
-      </c>
-      <c r="F155" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B156" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>829</v>
-      </c>
-      <c r="D156" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E156" s="36" t="s">
-        <v>816</v>
-      </c>
-      <c r="F156" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B157" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="C157" s="36" t="s">
-        <v>832</v>
       </c>
       <c r="D157" s="36"/>
       <c r="E157" s="36" t="s">
-        <v>807</v>
+        <v>682</v>
       </c>
       <c r="F157" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G157" s="11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B158" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="F158" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B159" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="F159" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B160" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="F160" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B161" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="F161" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B158" s="9" t="s">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B162" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="9" t="s">
+      <c r="D162" s="3"/>
+      <c r="E162" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B159" s="9" t="s">
+      <c r="F162" s="9"/>
+      <c r="G162" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B163" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C163" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="9" t="s">
+      <c r="D163" s="3"/>
+      <c r="E163" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9" t="s">
+      <c r="F163" s="9"/>
+      <c r="G163" s="9" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B160" s="8" t="s">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B164" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E160" s="3" t="s">
+      <c r="D164" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="8" t="s">
+      <c r="F164" s="3"/>
+      <c r="G164" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B161" s="8" t="s">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E165" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="8" t="s">
+      <c r="F165" s="3"/>
+      <c r="G165" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B163" s="34" t="s">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B167" s="34" t="s">
         <v>792</v>
       </c>
-      <c r="C163" s="34" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B164" s="11" t="s">
+      <c r="C167" s="34" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B168" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="C164" s="36" t="s">
+      <c r="C168" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36" t="s">
+      <c r="D168" s="36"/>
+      <c r="E168" s="36" t="s">
         <v>2</v>
-      </c>
-      <c r="F164" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G164" s="36" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B165" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>801</v>
-      </c>
-      <c r="D165" s="36"/>
-      <c r="E165" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F165" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G165" s="36" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B166" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="C166" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F166" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G166" s="36" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B167" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D167" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E167" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F167" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G167" s="36" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B168" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="C168" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E168" s="36" t="s">
-        <v>682</v>
       </c>
       <c r="F168" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G168" s="36" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.4">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="11" t="s">
-        <v>833</v>
+        <v>763</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="D169" s="36"/>
       <c r="E169" s="36" t="s">
@@ -17492,20 +17458,18 @@
       <c r="F169" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="G169" s="11" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G169" s="36" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="11" t="s">
-        <v>830</v>
+        <v>745</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D170" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D170" s="36"/>
       <c r="E170" s="36" t="s">
         <v>682</v>
       </c>
@@ -17513,121 +17477,138 @@
         <v>681</v>
       </c>
       <c r="G170" s="36" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.4">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="11" t="s">
-        <v>814</v>
+        <v>542</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="D171" s="36"/>
+        <v>755</v>
+      </c>
+      <c r="D171" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E171" s="36" t="s">
-        <v>2</v>
+        <v>682</v>
       </c>
       <c r="F171" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B172" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B172" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F172" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G172" s="36" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B173" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F173" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B174" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D174" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F174" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G174" s="36" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B175" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C175" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="9" t="s">
+      <c r="D175" s="3"/>
+      <c r="E175" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B173" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B174" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B175" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="J175" s="9"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.4">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="9" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
+        <v>800</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="9" t="s">
+        <v>682</v>
+      </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="9" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D177" s="9"/>
+        <v>778</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="9" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>750</v>
@@ -17636,42 +17617,85 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B179" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B179" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="J179" s="9"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B180" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B181" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B182" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E179" s="3" t="s">
+      <c r="D182" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="8" t="s">
+      <c r="F182" s="3"/>
+      <c r="G182" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B180" s="8" t="s">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B183" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E183" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="8" t="s">
+      <c r="F183" s="3"/>
+      <c r="G183" s="8" t="s">
         <v>572</v>
       </c>
     </row>
@@ -17691,30 +17715,30 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.8984375" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>533</v>
       </c>
@@ -17737,7 +17761,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>487</v>
       </c>
@@ -17766,7 +17790,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>453</v>
       </c>
@@ -17801,7 +17825,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>454</v>
       </c>
@@ -17836,7 +17860,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>482</v>
       </c>
@@ -17861,7 +17885,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>484</v>
       </c>
@@ -17890,7 +17914,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>455</v>
       </c>
@@ -17927,7 +17951,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>456</v>
       </c>
@@ -17964,7 +17988,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>457</v>
       </c>
@@ -17989,7 +18013,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>458</v>
       </c>
@@ -18018,7 +18042,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>459</v>
       </c>
@@ -18065,7 +18089,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>460</v>
       </c>
@@ -18112,7 +18136,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>461</v>
       </c>
@@ -18137,7 +18161,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>544</v>
       </c>
@@ -18166,7 +18190,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>543</v>
       </c>
@@ -18203,7 +18227,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>486</v>
       </c>
@@ -18240,7 +18264,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>462</v>
       </c>
@@ -18265,7 +18289,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>463</v>
       </c>
@@ -18294,7 +18318,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>464</v>
       </c>
@@ -18335,7 +18359,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>485</v>
       </c>
@@ -18376,7 +18400,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>465</v>
       </c>
@@ -18401,7 +18425,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>466</v>
       </c>
@@ -18430,7 +18454,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>467</v>
       </c>
@@ -18485,7 +18509,7 @@
       </c>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="s">
         <v>468</v>
       </c>
@@ -18540,7 +18564,7 @@
       </c>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
         <v>469</v>
       </c>
@@ -18565,7 +18589,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>470</v>
       </c>
@@ -18594,7 +18618,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>471</v>
       </c>
@@ -18651,7 +18675,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>472</v>
       </c>
@@ -18708,7 +18732,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>473</v>
       </c>
@@ -18733,7 +18757,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>474</v>
       </c>
@@ -18758,7 +18782,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
         <v>475</v>
       </c>
@@ -18783,7 +18807,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="23" t="s">
         <v>476</v>
       </c>
@@ -18808,7 +18832,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>477</v>
       </c>
@@ -18833,7 +18857,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>478</v>
       </c>
@@ -18858,7 +18882,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>479</v>
       </c>
@@ -18883,7 +18907,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>480</v>
       </c>
@@ -18908,7 +18932,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>481</v>
       </c>
@@ -18933,7 +18957,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -18941,7 +18965,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>627</v>
       </c>
@@ -18949,7 +18973,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>545</v>
       </c>
@@ -18964,7 +18988,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>546</v>
       </c>
@@ -18996,7 +19020,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>547</v>
       </c>
@@ -19028,7 +19052,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>548</v>
       </c>
@@ -19036,7 +19060,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>549</v>
       </c>
@@ -19050,7 +19074,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>550</v>
       </c>
@@ -19070,7 +19094,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E46" s="11" t="s">
         <v>558</v>
       </c>
@@ -19084,12 +19108,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E48" s="12" t="s">
         <v>596</v>
       </c>
@@ -19099,7 +19123,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" s="11" t="s">
         <v>579</v>
       </c>
@@ -19131,7 +19155,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" s="11" t="s">
         <v>580</v>
       </c>
@@ -19163,7 +19187,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="12" t="s">
         <v>598</v>
       </c>
@@ -19171,7 +19195,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="11" t="s">
         <v>579</v>
       </c>
@@ -19191,7 +19215,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="11" t="s">
         <v>580</v>
       </c>
@@ -19211,12 +19235,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" s="12" t="s">
         <v>600</v>
       </c>
@@ -19225,7 +19249,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
         <v>579</v>
       </c>
@@ -19257,7 +19281,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
         <v>580</v>
       </c>
@@ -19289,12 +19313,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60" s="12" t="s">
         <v>602</v>
       </c>
@@ -19303,7 +19327,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61" s="11" t="s">
         <v>579</v>
       </c>
@@ -19341,7 +19365,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62" s="11" t="s">
         <v>580</v>
       </c>
@@ -19379,86 +19403,86 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kc_etplatform\kc_etp\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="17685" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="60" windowWidth="17688" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="지수_지수일별" sheetId="15" r:id="rId1"/>
@@ -3314,8 +3314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16992600" y="571500"/>
-          <a:ext cx="460269" cy="133350"/>
+          <a:off x="16962120" y="594360"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3513,8 +3513,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17000220" y="2045970"/>
-          <a:ext cx="460269" cy="133350"/>
+          <a:off x="16969740" y="2148840"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3712,8 +3712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12978765" y="2045970"/>
-          <a:ext cx="464079" cy="133350"/>
+          <a:off x="12954000" y="2148840"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4073,8 +4073,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="19029046" y="2655572"/>
-          <a:ext cx="435504" cy="146685"/>
+          <a:off x="18981420" y="2804163"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4272,8 +4272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12978765" y="3070860"/>
-          <a:ext cx="464079" cy="133350"/>
+          <a:off x="12954000" y="3230880"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4471,8 +4471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17007840" y="3086100"/>
-          <a:ext cx="464079" cy="133350"/>
+          <a:off x="16977360" y="3246120"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4670,8 +4670,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="19026188" y="5376866"/>
-          <a:ext cx="425979" cy="146685"/>
+          <a:off x="18973800" y="5669284"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4869,8 +4869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="17000220" y="5795014"/>
-          <a:ext cx="460269" cy="133350"/>
+          <a:off x="16969740" y="6103624"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -5068,8 +5068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="17015460" y="4328160"/>
-          <a:ext cx="464079" cy="133350"/>
+          <a:off x="16984980" y="4556760"/>
+          <a:ext cx="460269" cy="144780"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -6598,22 +6598,22 @@
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -6793,12 +6793,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -6978,12 +6978,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>80</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>97</v>
       </c>
@@ -7533,12 +7533,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>16</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -7738,12 +7738,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>103</v>
       </c>
@@ -7943,12 +7943,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="3" t="s">
         <v>13</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
@@ -8148,12 +8148,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="3" t="s">
         <v>4</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="3" t="s">
         <v>103</v>
       </c>
@@ -8353,12 +8353,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="3" t="s">
         <v>13</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B129" s="3" t="s">
         <v>15</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B130" s="3" t="s">
         <v>16</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B131" s="3" t="s">
         <v>110</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="3" t="s">
         <v>112</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="3" t="s">
         <v>114</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
@@ -8604,12 +8604,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" s="3" t="s">
         <v>114</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
@@ -8871,12 +8871,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B154" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B156" s="3" t="s">
         <v>4</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B157" s="3" t="s">
         <v>7</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B159" s="3" t="s">
         <v>15</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B160" s="3" t="s">
         <v>41</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
@@ -8994,12 +8994,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B163" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B164" s="3" t="s">
         <v>0</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B165" s="3" t="s">
         <v>4</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B168" s="3" t="s">
         <v>15</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B169" s="3" t="s">
         <v>131</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B171" s="3" t="s">
         <v>57</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B172" s="3" t="s">
         <v>135</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B173" s="3" t="s">
         <v>137</v>
       </c>
@@ -9167,12 +9167,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B175" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B176" s="3" t="s">
         <v>0</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B177" s="3" t="s">
         <v>4</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B181" s="3" t="s">
         <v>11</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B183" s="3" t="s">
         <v>13</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B184" s="3" t="s">
         <v>14</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B185" s="3" t="s">
         <v>15</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
@@ -9352,12 +9352,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B188" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B189" s="3" t="s">
         <v>0</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B190" s="3" t="s">
         <v>4</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B191" s="3" t="s">
         <v>7</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B194" s="3" t="s">
         <v>11</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B196" s="3" t="s">
         <v>13</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B197" s="3" t="s">
         <v>14</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B198" s="3" t="s">
         <v>15</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
@@ -9552,17 +9552,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>142</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>172</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>175</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>178</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>151</v>
       </c>
@@ -10090,16 +10090,16 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.19921875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>191</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>194</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>202</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>214</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>217</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>221</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>225</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>229</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
         <v>232</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>194</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>239</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>242</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>244</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>202</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>252</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>254</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>212</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>259</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>214</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>217</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>261</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>219</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>263</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>265</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>267</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="2" t="s">
         <v>268</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>187</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>145</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>191</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>194</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>197</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="3" t="s">
         <v>202</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>214</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>217</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="2" t="s">
         <v>270</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>225</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="3" t="s">
         <v>189</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="3" t="s">
         <v>232</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>239</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
         <v>242</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="3" t="s">
         <v>247</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="3" t="s">
         <v>202</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>250</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>206</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>252</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>256</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="3" t="s">
         <v>212</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
         <v>259</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="3" t="s">
         <v>217</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="3" t="s">
         <v>261</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="3" t="s">
         <v>219</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="3" t="s">
         <v>265</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
@@ -11797,18 +11797,18 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>274</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>277</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>279</v>
       </c>
@@ -11890,7 +11890,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>281</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>284</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>304</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>306</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>309</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>313</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>315</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
         <v>317</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
         <v>319</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>321</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>325</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>329</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>331</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>333</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>336</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>338</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>342</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>344</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>347</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>349</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>351</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>353</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>355</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>291</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>358</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>359</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>366</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>368</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>370</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>372</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>374</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>378</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>380</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>382</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>385</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>387</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="3" t="s">
         <v>389</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>391</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>393</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>395</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>397</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>400</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>404</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>406</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>412</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="3" t="s">
         <v>418</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>422</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>424</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" s="3" t="s">
         <v>430</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>432</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>434</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B87" s="3" t="s">
         <v>304</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>308</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>309</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>311</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>313</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>315</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" s="3" t="s">
         <v>317</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
         <v>319</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B96" s="3" t="s">
         <v>321</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="3" t="s">
         <v>323</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="3" t="s">
         <v>325</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="3" t="s">
         <v>327</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="3" t="s">
         <v>329</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="3" t="s">
         <v>331</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="3" t="s">
         <v>333</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" s="3" t="s">
         <v>338</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="3" t="s">
         <v>340</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="3" t="s">
         <v>342</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="3" t="s">
         <v>344</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="3" t="s">
         <v>349</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="3" t="s">
         <v>351</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" s="3" t="s">
         <v>353</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="3" t="s">
         <v>355</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="3" t="s">
         <v>291</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="3" t="s">
         <v>358</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="3" t="s">
         <v>359</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="3" t="s">
         <v>361</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="3" t="s">
         <v>365</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="3" t="s">
         <v>366</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="3" t="s">
         <v>368</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="3" t="s">
         <v>370</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="3" t="s">
         <v>372</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="3" t="s">
         <v>378</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="3" t="s">
         <v>380</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="3" t="s">
         <v>382</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="3" t="s">
         <v>385</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B129" s="3" t="s">
         <v>387</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B130" s="3" t="s">
         <v>389</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B134" s="3" t="s">
         <v>397</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B135" s="3" t="s">
         <v>400</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B137" s="3" t="s">
         <v>404</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" s="3" t="s">
         <v>408</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B140" s="3" t="s">
         <v>410</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B141" s="3" t="s">
         <v>412</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B142" s="3" t="s">
         <v>414</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B143" s="3" t="s">
         <v>416</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B144" s="3" t="s">
         <v>418</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B145" s="3" t="s">
         <v>420</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="3" t="s">
         <v>422</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="3" t="s">
         <v>424</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B148" s="3" t="s">
         <v>437</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B149" s="3" t="s">
         <v>439</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B150" s="3" t="s">
         <v>430</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" s="3" t="s">
         <v>432</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B152" s="3" t="s">
         <v>434</v>
       </c>
@@ -14439,31 +14439,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L165" sqref="L165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.125" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" customWidth="1"/>
-    <col min="12" max="12" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.69921875" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.09765625" customWidth="1"/>
+    <col min="9" max="9" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.19921875" customWidth="1"/>
+    <col min="12" max="12" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" customWidth="1"/>
-    <col min="15" max="15" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" s="31" t="s">
         <v>627</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>636</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>546</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
         <v>672</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>640</v>
       </c>
@@ -14573,7 +14573,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
         <v>666</v>
       </c>
@@ -14593,7 +14593,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="37" t="s">
         <v>671</v>
       </c>
@@ -14609,7 +14609,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>662</v>
       </c>
@@ -14625,7 +14625,7 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>659</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="37" t="s">
         <v>704</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
         <v>742</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>788</v>
       </c>
@@ -14721,7 +14721,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
         <v>784</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="42" t="s">
         <v>793</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="42" t="s">
         <v>792</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
@@ -14807,7 +14807,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -14821,7 +14821,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B19" s="32" t="s">
         <v>650</v>
       </c>
@@ -14834,7 +14834,7 @@
       <c r="O19" s="47"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B20" s="34" t="s">
         <v>636</v>
       </c>
@@ -14854,7 +14854,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>557</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>559</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
         <v>561</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
         <v>563</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
         <v>565</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
         <v>567</v>
       </c>
@@ -15062,7 +15062,7 @@
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
         <v>569</v>
       </c>
@@ -15089,7 +15089,7 @@
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
         <v>571</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="33"/>
@@ -15140,7 +15140,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B30" s="34" t="s">
         <v>642</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>557</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
         <v>576</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>569</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>571</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
       <c r="K35" s="33"/>
@@ -15314,7 +15314,7 @@
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="10" t="s">
         <v>667</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="38" t="s">
         <v>581</v>
       </c>
@@ -15360,7 +15360,7 @@
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>693</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
         <v>694</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
         <v>587</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
         <v>678</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
         <v>680</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
         <v>591</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
         <v>571</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B46" s="34" t="s">
         <v>600</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>710</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>579</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
         <v>605</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
         <v>607</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B51" s="8" t="s">
         <v>609</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="8" t="s">
         <v>611</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="8" t="s">
         <v>613</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B54" s="8" t="s">
         <v>675</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B55" s="39" t="s">
         <v>664</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56"/>
       <c r="B56" s="44" t="s">
         <v>705</v>
@@ -15684,7 +15684,7 @@
       <c r="AB56"/>
       <c r="AC56"/>
     </row>
-    <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="8" t="s">
         <v>658</v>
       </c>
@@ -15723,7 +15723,7 @@
       <c r="AB57"/>
       <c r="AC57"/>
     </row>
-    <row r="58" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="8" t="s">
         <v>591</v>
       </c>
@@ -15762,7 +15762,7 @@
       <c r="AB58"/>
       <c r="AC58"/>
     </row>
-    <row r="59" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
         <v>571</v>
       </c>
@@ -15799,7 +15799,7 @@
       <c r="AB59"/>
       <c r="AC59"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="8" t="s">
         <v>697</v>
@@ -15818,7 +15818,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B61" s="9" t="s">
         <v>595</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B63" s="10" t="s">
         <v>669</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>581</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>615</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="8" t="s">
         <v>617</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="8" t="s">
         <v>619</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
         <v>621</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="9" t="s">
         <v>623</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="9" t="s">
         <v>625</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="9" t="s">
         <v>591</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="9" t="s">
         <v>571</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
         <v>656</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="11" t="s">
         <v>714</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="11" t="s">
         <v>615</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
         <v>664</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="8" t="s">
         <v>617</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="9" t="s">
         <v>619</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="8" t="s">
         <v>621</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="8" t="s">
         <v>623</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="8" t="s">
         <v>625</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="8" t="s">
         <v>591</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="8" t="s">
         <v>571</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="35"/>
       <c r="C85" s="43"/>
       <c r="D85" s="43"/>
@@ -16194,7 +16194,7 @@
       <c r="F85" s="43"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="34" t="s">
         <v>659</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="11" t="s">
         <v>689</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="11" t="s">
         <v>710</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="11" t="s">
         <v>615</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="8" t="s">
         <v>664</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="8" t="s">
         <v>617</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="8" t="s">
         <v>619</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="9" t="s">
         <v>621</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="9" t="s">
         <v>623</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="9" t="s">
         <v>625</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="9" t="s">
         <v>591</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="9" t="s">
         <v>571</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="10" t="s">
         <v>704</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="11" t="s">
         <v>710</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="11" t="s">
         <v>291</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" s="8" t="s">
         <v>579</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="44" t="s">
         <v>699</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="8" t="s">
         <v>591</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="8" t="s">
         <v>571</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="8" t="s">
         <v>593</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="8" t="s">
         <v>595</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="34" t="s">
         <v>719</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="11" t="s">
         <v>720</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="11" t="s">
         <v>291</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="11" t="s">
         <v>287</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="11" t="s">
         <v>721</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="8" t="s">
         <v>680</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="8" t="s">
         <v>722</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="8" t="s">
         <v>737</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="8" t="s">
         <v>738</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="8" t="s">
         <v>739</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="8" t="s">
         <v>740</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="34" t="s">
         <v>789</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="11" t="s">
         <v>814</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="11" t="s">
         <v>745</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="11" t="s">
         <v>506</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B129" s="11" t="s">
         <v>16</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B130" s="8" t="s">
         <v>811</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B131" s="8" t="s">
         <v>858</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B132" s="8" t="s">
         <v>591</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B133" s="8" t="s">
         <v>571</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="16"/>
       <c r="B134" s="8" t="s">
         <v>697</v>
@@ -16923,7 +16923,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B135" s="9" t="s">
         <v>863</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B136" s="35"/>
       <c r="C136" s="43"/>
       <c r="D136" s="43"/>
@@ -16947,7 +16947,7 @@
       <c r="F136" s="43"/>
       <c r="G136" s="35"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B137" s="34" t="s">
         <v>790</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B138" s="11" t="s">
         <v>814</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B139" s="11" t="s">
         <v>745</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B140" s="11" t="s">
         <v>506</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B141" s="11" t="s">
         <v>16</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B142" s="11" t="s">
         <v>746</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B143" s="9" t="s">
         <v>811</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B144" s="9" t="s">
         <v>761</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B145" s="9" t="s">
         <v>830</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B146" s="9" t="s">
         <v>831</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B147" s="9" t="s">
         <v>751</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B148" s="9" t="s">
         <v>860</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B149" s="9" t="s">
         <v>861</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B150" s="8" t="s">
         <v>591</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B151" s="8" t="s">
         <v>571</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="16"/>
       <c r="B152" s="8" t="s">
         <v>697</v>
@@ -17214,7 +17214,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B153" s="9" t="s">
         <v>595</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B155" s="34" t="s">
         <v>802</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B156" s="11" t="s">
         <v>689</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B157" s="11" t="s">
         <v>763</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B158" s="11" t="s">
         <v>819</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B159" s="11" t="s">
         <v>821</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B160" s="11" t="s">
         <v>824</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B161" s="11" t="s">
         <v>804</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B162" s="9" t="s">
         <v>803</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B163" s="9" t="s">
         <v>761</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B164" s="8" t="s">
         <v>591</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B165" s="8" t="s">
         <v>571</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B167" s="34" t="s">
         <v>792</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B168" s="11" t="s">
         <v>689</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B169" s="11" t="s">
         <v>763</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B170" s="11" t="s">
         <v>745</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B171" s="11" t="s">
         <v>542</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B172" s="11" t="s">
         <v>737</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B173" s="11" t="s">
         <v>804</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B174" s="11" t="s">
         <v>826</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B175" s="9" t="s">
         <v>798</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B176" s="9" t="s">
         <v>761</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B177" s="9" t="s">
         <v>830</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B178" s="9" t="s">
         <v>831</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B179" s="9" t="s">
         <v>751</v>
       </c>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B180" s="9" t="s">
         <v>833</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B181" s="9" t="s">
         <v>834</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B182" s="8" t="s">
         <v>591</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B183" s="8" t="s">
         <v>571</v>
       </c>
@@ -17715,30 +17715,30 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
         <v>533</v>
       </c>
@@ -17761,7 +17761,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="19" t="s">
         <v>487</v>
       </c>
@@ -17790,7 +17790,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="23" t="s">
         <v>453</v>
       </c>
@@ -17825,7 +17825,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
         <v>454</v>
       </c>
@@ -17860,7 +17860,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
         <v>482</v>
       </c>
@@ -17885,7 +17885,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
         <v>484</v>
       </c>
@@ -17914,7 +17914,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="23" t="s">
         <v>455</v>
       </c>
@@ -17951,7 +17951,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
         <v>456</v>
       </c>
@@ -17988,7 +17988,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
         <v>457</v>
       </c>
@@ -18013,7 +18013,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="23" t="s">
         <v>458</v>
       </c>
@@ -18042,7 +18042,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="23" t="s">
         <v>459</v>
       </c>
@@ -18089,7 +18089,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>460</v>
       </c>
@@ -18136,7 +18136,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="23" t="s">
         <v>461</v>
       </c>
@@ -18161,7 +18161,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="23" t="s">
         <v>544</v>
       </c>
@@ -18190,7 +18190,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" s="23" t="s">
         <v>543</v>
       </c>
@@ -18227,7 +18227,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="23" t="s">
         <v>486</v>
       </c>
@@ -18264,7 +18264,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="23" t="s">
         <v>462</v>
       </c>
@@ -18289,7 +18289,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
         <v>463</v>
       </c>
@@ -18318,7 +18318,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
         <v>464</v>
       </c>
@@ -18359,7 +18359,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="23" t="s">
         <v>485</v>
       </c>
@@ -18400,7 +18400,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>465</v>
       </c>
@@ -18425,7 +18425,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>466</v>
       </c>
@@ -18454,7 +18454,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" s="23" t="s">
         <v>467</v>
       </c>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>468</v>
       </c>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>469</v>
       </c>
@@ -18589,7 +18589,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>470</v>
       </c>
@@ -18618,7 +18618,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>471</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" s="23" t="s">
         <v>472</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" s="23" t="s">
         <v>473</v>
       </c>
@@ -18757,7 +18757,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30" s="23" t="s">
         <v>474</v>
       </c>
@@ -18782,7 +18782,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31" s="23" t="s">
         <v>475</v>
       </c>
@@ -18807,7 +18807,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32" s="23" t="s">
         <v>476</v>
       </c>
@@ -18832,7 +18832,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33" s="23" t="s">
         <v>477</v>
       </c>
@@ -18857,7 +18857,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34" s="23" t="s">
         <v>478</v>
       </c>
@@ -18882,7 +18882,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35" s="23" t="s">
         <v>479</v>
       </c>
@@ -18907,7 +18907,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B36" s="23" t="s">
         <v>480</v>
       </c>
@@ -18932,7 +18932,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" s="23" t="s">
         <v>481</v>
       </c>
@@ -18957,7 +18957,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -18965,7 +18965,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B39" s="31" t="s">
         <v>627</v>
       </c>
@@ -18973,7 +18973,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>545</v>
       </c>
@@ -18988,7 +18988,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B41" s="9" t="s">
         <v>546</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B42" s="9" t="s">
         <v>547</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B43" s="9" t="s">
         <v>548</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
         <v>549</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B45" s="9" t="s">
         <v>550</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E46" s="11" t="s">
         <v>558</v>
       </c>
@@ -19108,12 +19108,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E48" s="12" t="s">
         <v>596</v>
       </c>
@@ -19123,7 +19123,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E49" s="11" t="s">
         <v>579</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E50" s="11" t="s">
         <v>580</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E52" s="12" t="s">
         <v>598</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E53" s="11" t="s">
         <v>579</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E54" s="11" t="s">
         <v>580</v>
       </c>
@@ -19235,12 +19235,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E56" s="12" t="s">
         <v>600</v>
       </c>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E57" s="11" t="s">
         <v>579</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E58" s="11" t="s">
         <v>580</v>
       </c>
@@ -19313,12 +19313,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E60" s="12" t="s">
         <v>602</v>
       </c>
@@ -19327,7 +19327,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E61" s="11" t="s">
         <v>579</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E62" s="11" t="s">
         <v>580</v>
       </c>
@@ -19403,86 +19403,86 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="868">
   <si>
     <t>F12506</t>
   </si>
@@ -2877,6 +2877,14 @@
   </si>
   <si>
     <t>수정시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14437,10 +14445,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC183"/>
+  <dimension ref="A2:AC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L165" sqref="L165"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16836,173 +16844,171 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B130" s="8" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="F130" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="G130" s="8" t="s">
-        <v>760</v>
+        <v>806</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B131" s="8" t="s">
-        <v>858</v>
+        <v>811</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="8" t="s">
-        <v>859</v>
+        <v>760</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B132" s="8" t="s">
-        <v>591</v>
+        <v>858</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>2</v>
+        <v>813</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="8" t="s">
-        <v>592</v>
+        <v>859</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B133" s="8" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D133" s="3"/>
+        <v>776</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E133" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="8" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A134" s="16"/>
       <c r="B134" s="8" t="s">
-        <v>697</v>
+        <v>571</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F134" s="41"/>
-      <c r="G134" s="9" t="s">
+      <c r="F134" s="3"/>
+      <c r="G134" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A135" s="16"/>
+      <c r="B135" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="41"/>
+      <c r="G135" s="9" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B135" s="9" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B136" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C136" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
+      <c r="D136" s="9"/>
+      <c r="E136" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F135" s="42"/>
-      <c r="G135" s="9" t="s">
+      <c r="F136" s="42"/>
+      <c r="G136" s="9" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B136" s="35"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="35"/>
-    </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="35"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="35"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B138" s="34" t="s">
         <v>790</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C138" s="34" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B138" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="C138" s="36" t="s">
-        <v>815</v>
-      </c>
-      <c r="D138" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" s="36" t="s">
-        <v>813</v>
-      </c>
-      <c r="F138" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B139" s="11" t="s">
-        <v>745</v>
+        <v>814</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="D139" s="36"/>
+        <v>815</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E139" s="36" t="s">
-        <v>682</v>
+        <v>813</v>
       </c>
       <c r="F139" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>747</v>
+        <v>810</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B140" s="11" t="s">
-        <v>506</v>
+        <v>745</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D140" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D140" s="36"/>
       <c r="E140" s="36" t="s">
         <v>682</v>
       </c>
@@ -17010,15 +17016,15 @@
         <v>681</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B141" s="11" t="s">
-        <v>16</v>
+        <v>506</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D141" s="36" t="s">
         <v>44</v>
@@ -17030,15 +17036,15 @@
         <v>681</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B142" s="11" t="s">
-        <v>746</v>
+        <v>16</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D142" s="36" t="s">
         <v>44</v>
@@ -17050,92 +17056,102 @@
         <v>681</v>
       </c>
       <c r="G142" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B143" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F143" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G143" s="11" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B143" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9" t="s">
-        <v>760</v>
-      </c>
-    </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B144" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9" t="s">
-        <v>762</v>
+      <c r="B144" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B145" s="9" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E145" s="9"/>
+        <v>799</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>812</v>
+      </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9" t="s">
-        <v>855</v>
+        <v>760</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B146" s="9" t="s">
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
+        <v>817</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>813</v>
+      </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9" t="s">
-        <v>832</v>
+        <v>762</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B147" s="9" t="s">
-        <v>751</v>
+        <v>830</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D147" s="9"/>
+        <v>778</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9" t="s">
-        <v>752</v>
+        <v>855</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B148" s="9" t="s">
-        <v>860</v>
+        <v>831</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>750</v>
@@ -17144,12 +17160,12 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B149" s="9" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>750</v>
@@ -17158,50 +17174,43 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B150" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B151" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B150" s="8" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B152" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B151" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A152" s="16"/>
-      <c r="B152" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>654</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>44</v>
@@ -17209,119 +17218,114 @@
       <c r="E152" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F152" s="41"/>
-      <c r="G152" s="9" t="s">
+      <c r="F152" s="3"/>
+      <c r="G152" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B153" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A154" s="16"/>
+      <c r="B154" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" s="41"/>
+      <c r="G154" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B153" s="9" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B155" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C155" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9" t="s">
+      <c r="D155" s="9"/>
+      <c r="E155" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F153" s="42"/>
-      <c r="G153" s="9" t="s">
+      <c r="F155" s="42"/>
+      <c r="G155" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B155" s="34" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B157" s="34" t="s">
         <v>802</v>
       </c>
-      <c r="C155" s="34" t="s">
+      <c r="C157" s="34" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B156" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F156" s="36" t="s">
-        <v>805</v>
-      </c>
-      <c r="G156" s="36" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B157" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="C157" s="36" t="s">
-        <v>818</v>
-      </c>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F157" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B158" s="11" t="s">
-        <v>819</v>
+        <v>689</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>820</v>
+        <v>665</v>
       </c>
       <c r="D158" s="36"/>
       <c r="E158" s="36" t="s">
-        <v>812</v>
+        <v>2</v>
       </c>
       <c r="F158" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>767</v>
+        <v>805</v>
+      </c>
+      <c r="G158" s="36" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B159" s="11" t="s">
-        <v>821</v>
+        <v>763</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="D159" s="36"/>
       <c r="E159" s="36" t="s">
-        <v>823</v>
+        <v>682</v>
       </c>
       <c r="F159" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B160" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>825</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="D160" s="36"/>
       <c r="E160" s="36" t="s">
         <v>812</v>
       </c>
@@ -17329,167 +17333,169 @@
         <v>681</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B161" s="11" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>828</v>
-      </c>
-      <c r="D161" s="36"/>
+        <v>822</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E161" s="36" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="F161" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G161" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B162" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="F162" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B163" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="D163" s="36"/>
+      <c r="E163" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="F163" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G163" s="11" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B162" s="9" t="s">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B164" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C164" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D162" s="3"/>
-      <c r="E162" s="9" t="s">
+      <c r="D164" s="3"/>
+      <c r="E164" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9" t="s">
+      <c r="F164" s="9"/>
+      <c r="G164" s="9" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B163" s="9" t="s">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B165" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C165" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="9" t="s">
+      <c r="D165" s="3"/>
+      <c r="E165" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9" t="s">
+      <c r="F165" s="9"/>
+      <c r="G165" s="9" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B164" s="8" t="s">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B166" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E164" s="3" t="s">
+      <c r="D166" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="8" t="s">
+      <c r="F166" s="3"/>
+      <c r="G166" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B165" s="8" t="s">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B167" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E167" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="8" t="s">
+      <c r="F167" s="3"/>
+      <c r="G167" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B167" s="34" t="s">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B169" s="34" t="s">
         <v>792</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="C169" s="34" t="s">
         <v>857</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B168" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="C168" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F168" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G168" s="36" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B169" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>801</v>
-      </c>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="F169" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="G169" s="36" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B170" s="11" t="s">
-        <v>745</v>
+        <v>689</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>753</v>
+        <v>665</v>
       </c>
       <c r="D170" s="36"/>
       <c r="E170" s="36" t="s">
-        <v>682</v>
+        <v>2</v>
       </c>
       <c r="F170" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G170" s="36" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B171" s="11" t="s">
-        <v>542</v>
+        <v>763</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D171" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="D171" s="36"/>
       <c r="E171" s="36" t="s">
         <v>682</v>
       </c>
@@ -17497,19 +17503,17 @@
         <v>681</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B172" s="11" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="D172" s="36" t="s">
-        <v>44</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D172" s="36"/>
       <c r="E172" s="36" t="s">
         <v>682</v>
       </c>
@@ -17517,33 +17521,35 @@
         <v>681</v>
       </c>
       <c r="G172" s="36" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B173" s="11" t="s">
-        <v>804</v>
+        <v>542</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>829</v>
-      </c>
-      <c r="D173" s="36"/>
+        <v>755</v>
+      </c>
+      <c r="D173" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E173" s="36" t="s">
         <v>682</v>
       </c>
       <c r="F173" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="G173" s="11" t="s">
-        <v>806</v>
+      <c r="G173" s="36" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B174" s="11" t="s">
-        <v>826</v>
+        <v>737</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D174" s="36" t="s">
         <v>44</v>
@@ -17555,89 +17561,98 @@
         <v>681</v>
       </c>
       <c r="G174" s="36" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B175" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F175" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B176" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="D176" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F176" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G176" s="36" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B175" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="E175" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B176" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B177" s="9" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E177" s="9"/>
+        <v>799</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="9" t="s">
+        <v>682</v>
+      </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B178" s="9" t="s">
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
+        <v>800</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="9" t="s">
+        <v>682</v>
+      </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B179" s="9" t="s">
-        <v>751</v>
+        <v>830</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D179" s="9"/>
+        <v>778</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="J179" s="9"/>
+        <v>777</v>
+      </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B180" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>750</v>
@@ -17646,12 +17661,12 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B181" s="9" t="s">
-        <v>834</v>
+        <v>751</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>750</v>
@@ -17660,42 +17675,71 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="J181" s="9"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B182" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B183" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B182" s="8" t="s">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B184" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E182" s="3" t="s">
+      <c r="D184" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F182" s="3"/>
-      <c r="G182" s="8" t="s">
+      <c r="F184" s="3"/>
+      <c r="G184" s="8" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B183" s="8" t="s">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B185" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E185" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F183" s="3"/>
-      <c r="G183" s="8" t="s">
+      <c r="F185" s="3"/>
+      <c r="G185" s="8" t="s">
         <v>572</v>
       </c>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="17688" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="60" windowWidth="17685" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="지수_지수일별" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="884">
   <si>
     <t>F12506</t>
   </si>
@@ -2636,10 +2636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRI  auto_increment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자별 처리한 그룹번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2688,23 +2684,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(4,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1CU단위증권수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F34840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F34840_PREV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액 ( 변경전 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무수탁회사번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) hist_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) group_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) group_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F16316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F16583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(4,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(12)</t>
+    <t>insert( 신규 ), modify( 변경 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 마스터 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 변경 이력 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F34840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F34840_PREV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upd_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2712,19 +2880,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F16013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성종목코드</t>
+    <t>hist_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2732,119 +2892,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bigint(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F16499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1CU단위증권수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F34840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F34840_PREV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액면금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액면금액 ( 변경전 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무수탁회사번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF종목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) hist_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) group_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) group_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pk) F16316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert( 신규 ), modify( 변경 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 마스터 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 변경 이력 상세</t>
+    <t>tm_cust_support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI auto_increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2852,39 +2928,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기관구분코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F34840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F34840_PREV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액면금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upd_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정자 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) cs_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3322,8 +3386,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16962120" y="594360"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="16992600" y="571500"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3521,8 +3585,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16969740" y="2148840"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17000220" y="2045970"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -3720,8 +3784,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12954000" y="2148840"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="12978765" y="2045970"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4081,8 +4145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="18981420" y="2804163"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="19029046" y="2655572"/>
+          <a:ext cx="435504" cy="146685"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4280,8 +4344,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="12954000" y="3230880"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="12978765" y="3070860"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4479,8 +4543,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16977360" y="3246120"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17007840" y="3086100"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4678,8 +4742,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="18973800" y="5669284"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="19026188" y="5376866"/>
+          <a:ext cx="425979" cy="146685"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4877,8 +4941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16969740" y="6103624"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17000220" y="5795014"/>
+          <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -5076,8 +5140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16984980" y="4556760"/>
-          <a:ext cx="460269" cy="144780"/>
+          <a:off x="17015460" y="4328160"/>
+          <a:ext cx="464079" cy="133350"/>
           <a:chOff x="7688580" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -6606,22 +6670,22 @@
       <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6639,7 +6703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -6655,7 +6719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -6671,7 +6735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -6687,7 +6751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6703,7 +6767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -6719,7 +6783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6735,7 +6799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -6751,7 +6815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -6767,7 +6831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -6783,7 +6847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -6801,12 +6865,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -6824,7 +6888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -6840,7 +6904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -6856,7 +6920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -6872,7 +6936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -6888,7 +6952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -6904,7 +6968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -6920,7 +6984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -6936,7 +7000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -6952,7 +7016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -6968,7 +7032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -6986,12 +7050,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -7009,7 +7073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -7025,7 +7089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
@@ -7041,7 +7105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
@@ -7057,7 +7121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -7073,7 +7137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -7089,7 +7153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -7105,7 +7169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -7121,7 +7185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -7141,7 +7205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -7157,7 +7221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -7173,7 +7237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -7189,7 +7253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -7205,7 +7269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -7221,7 +7285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -7237,7 +7301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -7253,7 +7317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -7269,7 +7333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
@@ -7285,7 +7349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -7301,7 +7365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -7317,7 +7381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
@@ -7333,7 +7397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
@@ -7349,7 +7413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
@@ -7365,7 +7429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
@@ -7381,7 +7445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -7397,7 +7461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>80</v>
       </c>
@@ -7413,7 +7477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
@@ -7429,7 +7493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
@@ -7445,7 +7509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -7461,7 +7525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -7477,7 +7541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
@@ -7493,7 +7557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
@@ -7509,7 +7573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -7525,7 +7589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>97</v>
       </c>
@@ -7541,12 +7605,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
@@ -7562,7 +7626,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
@@ -7580,7 +7644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
@@ -7596,7 +7660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
@@ -7612,7 +7676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
@@ -7628,7 +7692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -7644,7 +7708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -7660,7 +7724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -7676,7 +7740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -7692,7 +7756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
@@ -7708,7 +7772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>16</v>
       </c>
@@ -7728,7 +7792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -7746,12 +7810,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
@@ -7767,7 +7831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
@@ -7785,7 +7849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
@@ -7801,7 +7865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
@@ -7817,7 +7881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
@@ -7833,7 +7897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
@@ -7849,7 +7913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
@@ -7865,7 +7929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
@@ -7881,7 +7945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
@@ -7897,7 +7961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
@@ -7913,7 +7977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
@@ -7933,7 +7997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>103</v>
       </c>
@@ -7951,12 +8015,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
@@ -7972,7 +8036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -7990,7 +8054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
@@ -8006,7 +8070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -8022,7 +8086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
@@ -8038,7 +8102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
@@ -8054,7 +8118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
@@ -8070,7 +8134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
@@ -8086,7 +8150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>13</v>
       </c>
@@ -8102,7 +8166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
@@ -8118,7 +8182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -8138,7 +8202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
@@ -8156,12 +8220,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>100</v>
       </c>
@@ -8177,7 +8241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
@@ -8195,7 +8259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>4</v>
       </c>
@@ -8211,7 +8275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -8227,7 +8291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
@@ -8243,7 +8307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -8259,7 +8323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
@@ -8275,7 +8339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
@@ -8291,7 +8355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
@@ -8307,7 +8371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
@@ -8323,7 +8387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -8343,7 +8407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>103</v>
       </c>
@@ -8361,12 +8425,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
@@ -8382,7 +8446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
@@ -8400,7 +8464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
@@ -8416,7 +8480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
@@ -8432,7 +8496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
@@ -8448,7 +8512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
@@ -8464,7 +8528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
@@ -8480,7 +8544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
@@ -8496,7 +8560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>13</v>
       </c>
@@ -8512,7 +8576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>15</v>
       </c>
@@ -8528,7 +8592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>16</v>
       </c>
@@ -8548,7 +8612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>110</v>
       </c>
@@ -8564,7 +8628,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>112</v>
       </c>
@@ -8580,7 +8644,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>114</v>
       </c>
@@ -8596,7 +8660,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
@@ -8612,12 +8676,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -8635,7 +8699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
@@ -8651,7 +8715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
@@ -8667,7 +8731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
@@ -8683,7 +8747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
@@ -8699,7 +8763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
@@ -8715,7 +8779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -8731,7 +8795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
@@ -8747,7 +8811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
@@ -8763,7 +8827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
@@ -8783,7 +8847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
@@ -8799,7 +8863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
@@ -8815,7 +8879,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -8831,7 +8895,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
@@ -8847,7 +8911,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>114</v>
       </c>
@@ -8863,7 +8927,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
@@ -8879,12 +8943,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -8902,7 +8966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
         <v>4</v>
       </c>
@@ -8918,7 +8982,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
         <v>7</v>
       </c>
@@ -8934,7 +8998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
@@ -8950,7 +9014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
         <v>15</v>
       </c>
@@ -8966,7 +9030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
         <v>41</v>
       </c>
@@ -8982,7 +9046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
@@ -9002,12 +9066,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
         <v>0</v>
       </c>
@@ -9025,7 +9089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
         <v>4</v>
       </c>
@@ -9041,7 +9105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
@@ -9057,7 +9121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
@@ -9073,7 +9137,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
         <v>15</v>
       </c>
@@ -9089,7 +9153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
         <v>131</v>
       </c>
@@ -9107,7 +9171,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
@@ -9127,7 +9191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
         <v>57</v>
       </c>
@@ -9143,7 +9207,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
         <v>135</v>
       </c>
@@ -9159,7 +9223,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>137</v>
       </c>
@@ -9175,12 +9239,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
         <v>0</v>
       </c>
@@ -9198,7 +9262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>4</v>
       </c>
@@ -9214,7 +9278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
@@ -9230,7 +9294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
@@ -9246,7 +9310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
@@ -9262,7 +9326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>11</v>
       </c>
@@ -9278,7 +9342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
@@ -9294,7 +9358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
         <v>13</v>
       </c>
@@ -9310,7 +9374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
         <v>14</v>
       </c>
@@ -9326,7 +9390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>15</v>
       </c>
@@ -9342,7 +9406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
@@ -9360,12 +9424,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
         <v>0</v>
       </c>
@@ -9383,7 +9447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>4</v>
       </c>
@@ -9399,7 +9463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
         <v>7</v>
       </c>
@@ -9415,7 +9479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
@@ -9431,7 +9495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
@@ -9447,7 +9511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>11</v>
       </c>
@@ -9463,7 +9527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
@@ -9479,7 +9543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
         <v>13</v>
       </c>
@@ -9495,7 +9559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
         <v>14</v>
       </c>
@@ -9511,7 +9575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>15</v>
       </c>
@@ -9527,7 +9591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
@@ -9560,17 +9624,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>142</v>
       </c>
@@ -9578,7 +9642,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
@@ -9594,7 +9658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
@@ -9614,7 +9678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
@@ -9632,7 +9696,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
@@ -9652,7 +9716,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
@@ -9670,7 +9734,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
@@ -9678,7 +9742,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
@@ -9694,7 +9758,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -9712,7 +9776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>156</v>
       </c>
@@ -9730,7 +9794,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
@@ -9748,7 +9812,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -9768,7 +9832,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
@@ -9784,7 +9848,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
@@ -9800,7 +9864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
@@ -9820,7 +9884,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -9828,7 +9892,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
@@ -9844,7 +9908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -9862,7 +9926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -9882,7 +9946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
@@ -9898,7 +9962,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
@@ -9914,7 +9978,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>172</v>
       </c>
@@ -9930,7 +9994,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>175</v>
       </c>
@@ -9946,7 +10010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
@@ -9966,7 +10030,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
@@ -9974,7 +10038,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>178</v>
       </c>
@@ -9990,7 +10054,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -10008,7 +10072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -10028,7 +10092,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
@@ -10048,7 +10112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
@@ -10064,7 +10128,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>151</v>
       </c>
@@ -10098,16 +10162,16 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
@@ -10115,7 +10179,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
@@ -10133,7 +10197,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -10149,7 +10213,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
@@ -10167,7 +10231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -10187,7 +10251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>191</v>
       </c>
@@ -10205,7 +10269,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>194</v>
       </c>
@@ -10223,7 +10287,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
@@ -10241,7 +10305,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
@@ -10259,7 +10323,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>202</v>
       </c>
@@ -10275,7 +10339,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
@@ -10293,7 +10357,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
@@ -10309,7 +10373,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
@@ -10325,7 +10389,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -10341,7 +10405,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>212</v>
       </c>
@@ -10357,7 +10421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>214</v>
       </c>
@@ -10375,7 +10439,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>217</v>
       </c>
@@ -10391,7 +10455,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>219</v>
       </c>
@@ -10409,7 +10473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>221</v>
       </c>
@@ -10427,7 +10491,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -10435,7 +10499,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>225</v>
       </c>
@@ -10453,7 +10517,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
@@ -10471,7 +10535,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
@@ -10487,7 +10551,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>229</v>
       </c>
@@ -10503,7 +10567,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -10521,7 +10585,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>232</v>
       </c>
@@ -10537,7 +10601,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
@@ -10555,7 +10619,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
@@ -10571,7 +10635,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
@@ -10591,7 +10655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
@@ -10609,7 +10673,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>194</v>
       </c>
@@ -10627,7 +10691,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
@@ -10645,7 +10709,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>239</v>
       </c>
@@ -10663,7 +10727,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>242</v>
       </c>
@@ -10679,7 +10743,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>244</v>
       </c>
@@ -10697,7 +10761,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
@@ -10715,7 +10779,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>202</v>
       </c>
@@ -10731,7 +10795,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
@@ -10749,7 +10813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
@@ -10765,7 +10829,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>252</v>
       </c>
@@ -10783,7 +10847,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>254</v>
       </c>
@@ -10801,7 +10865,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
@@ -10817,7 +10881,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
@@ -10833,7 +10897,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
@@ -10851,7 +10915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>212</v>
       </c>
@@ -10867,7 +10931,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>259</v>
       </c>
@@ -10883,7 +10947,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>214</v>
       </c>
@@ -10901,7 +10965,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>217</v>
       </c>
@@ -10917,7 +10981,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>261</v>
       </c>
@@ -10935,7 +10999,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>219</v>
       </c>
@@ -10953,7 +11017,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>263</v>
       </c>
@@ -10971,7 +11035,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>265</v>
       </c>
@@ -10989,7 +11053,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>267</v>
       </c>
@@ -11007,7 +11071,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>268</v>
       </c>
@@ -11015,7 +11079,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>187</v>
       </c>
@@ -11031,7 +11095,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
@@ -11049,7 +11113,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>145</v>
       </c>
@@ -11069,7 +11133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>191</v>
       </c>
@@ -11087,7 +11151,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>194</v>
       </c>
@@ -11105,7 +11169,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>197</v>
       </c>
@@ -11123,7 +11187,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>202</v>
       </c>
@@ -11139,7 +11203,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
@@ -11155,7 +11219,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
@@ -11171,7 +11235,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>214</v>
       </c>
@@ -11189,7 +11253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>217</v>
       </c>
@@ -11205,7 +11269,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
@@ -11223,7 +11287,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
@@ -11241,7 +11305,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
@@ -11259,7 +11323,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>270</v>
       </c>
@@ -11267,7 +11331,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>225</v>
       </c>
@@ -11285,7 +11349,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
@@ -11303,7 +11367,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
@@ -11319,7 +11383,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>189</v>
       </c>
@@ -11337,7 +11401,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>232</v>
       </c>
@@ -11353,7 +11417,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>234</v>
       </c>
@@ -11371,7 +11435,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
@@ -11387,7 +11451,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
@@ -11407,7 +11471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -11425,7 +11489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
@@ -11443,7 +11507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
@@ -11461,7 +11525,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>239</v>
       </c>
@@ -11479,7 +11543,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>242</v>
       </c>
@@ -11495,7 +11559,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>244</v>
       </c>
@@ -11513,7 +11577,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>247</v>
       </c>
@@ -11531,7 +11595,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>202</v>
       </c>
@@ -11547,7 +11611,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>250</v>
       </c>
@@ -11565,7 +11629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>206</v>
       </c>
@@ -11581,7 +11645,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>252</v>
       </c>
@@ -11599,7 +11663,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
@@ -11617,7 +11681,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>256</v>
       </c>
@@ -11635,7 +11699,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>212</v>
       </c>
@@ -11651,7 +11715,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>259</v>
       </c>
@@ -11667,7 +11731,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
@@ -11685,7 +11749,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>217</v>
       </c>
@@ -11701,7 +11765,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>261</v>
       </c>
@@ -11719,7 +11783,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>219</v>
       </c>
@@ -11737,7 +11801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
@@ -11755,7 +11819,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>265</v>
       </c>
@@ -11773,7 +11837,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
@@ -11805,18 +11869,18 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
@@ -11824,7 +11888,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
@@ -11844,7 +11908,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>274</v>
       </c>
@@ -11862,7 +11926,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>277</v>
       </c>
@@ -11882,7 +11946,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>279</v>
       </c>
@@ -11898,7 +11962,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>281</v>
       </c>
@@ -11906,7 +11970,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
@@ -11924,7 +11988,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>284</v>
       </c>
@@ -11942,7 +12006,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
@@ -11960,7 +12024,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
@@ -11980,7 +12044,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
@@ -11998,7 +12062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
@@ -12016,7 +12080,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
@@ -12034,7 +12098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
@@ -12052,7 +12116,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
@@ -12070,7 +12134,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
@@ -12088,7 +12152,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
@@ -12096,7 +12160,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>304</v>
       </c>
@@ -12114,7 +12178,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>306</v>
       </c>
@@ -12130,7 +12194,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
@@ -12148,7 +12212,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>309</v>
       </c>
@@ -12166,7 +12230,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
@@ -12184,7 +12248,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>313</v>
       </c>
@@ -12202,7 +12266,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>315</v>
       </c>
@@ -12220,7 +12284,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>317</v>
       </c>
@@ -12238,7 +12302,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>319</v>
       </c>
@@ -12256,7 +12320,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>321</v>
       </c>
@@ -12274,7 +12338,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -12292,7 +12356,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>325</v>
       </c>
@@ -12310,7 +12374,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -12328,7 +12392,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>329</v>
       </c>
@@ -12346,7 +12410,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>331</v>
       </c>
@@ -12364,7 +12428,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>333</v>
       </c>
@@ -12382,7 +12446,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>336</v>
       </c>
@@ -12400,7 +12464,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>338</v>
       </c>
@@ -12416,7 +12480,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
@@ -12434,7 +12498,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>342</v>
       </c>
@@ -12452,7 +12516,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>344</v>
       </c>
@@ -12470,7 +12534,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>347</v>
       </c>
@@ -12486,7 +12550,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>349</v>
       </c>
@@ -12504,7 +12568,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>351</v>
       </c>
@@ -12522,7 +12586,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>353</v>
       </c>
@@ -12540,7 +12604,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>355</v>
       </c>
@@ -12558,7 +12622,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>291</v>
       </c>
@@ -12576,7 +12640,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>358</v>
       </c>
@@ -12594,7 +12658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>359</v>
       </c>
@@ -12612,7 +12676,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
@@ -12630,7 +12694,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>363</v>
       </c>
@@ -12648,7 +12712,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
@@ -12666,7 +12730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>366</v>
       </c>
@@ -12684,7 +12748,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>368</v>
       </c>
@@ -12702,7 +12766,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>370</v>
       </c>
@@ -12718,7 +12782,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>372</v>
       </c>
@@ -12736,7 +12800,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>374</v>
       </c>
@@ -12754,7 +12818,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
@@ -12772,7 +12836,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>378</v>
       </c>
@@ -12790,7 +12854,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>380</v>
       </c>
@@ -12806,7 +12870,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>382</v>
       </c>
@@ -12824,7 +12888,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>385</v>
       </c>
@@ -12842,7 +12906,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>387</v>
       </c>
@@ -12860,7 +12924,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>389</v>
       </c>
@@ -12878,7 +12942,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>391</v>
       </c>
@@ -12896,7 +12960,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>393</v>
       </c>
@@ -12914,7 +12978,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>395</v>
       </c>
@@ -12932,7 +12996,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>397</v>
       </c>
@@ -12950,7 +13014,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>400</v>
       </c>
@@ -12968,7 +13032,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
@@ -12986,7 +13050,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>404</v>
       </c>
@@ -13004,7 +13068,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>406</v>
       </c>
@@ -13022,7 +13086,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
@@ -13040,7 +13104,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
@@ -13058,7 +13122,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>412</v>
       </c>
@@ -13074,7 +13138,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
@@ -13092,7 +13156,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
@@ -13110,7 +13174,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>418</v>
       </c>
@@ -13128,7 +13192,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
@@ -13146,7 +13210,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>422</v>
       </c>
@@ -13162,7 +13226,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>424</v>
       </c>
@@ -13180,7 +13244,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
@@ -13201,7 +13265,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>430</v>
       </c>
@@ -13219,7 +13283,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>432</v>
       </c>
@@ -13237,7 +13301,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>434</v>
       </c>
@@ -13255,7 +13319,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
         <v>436</v>
       </c>
@@ -13263,7 +13327,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>304</v>
       </c>
@@ -13281,7 +13345,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
@@ -13297,7 +13361,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>308</v>
       </c>
@@ -13315,7 +13379,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>309</v>
       </c>
@@ -13333,7 +13397,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>311</v>
       </c>
@@ -13351,7 +13415,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>313</v>
       </c>
@@ -13369,7 +13433,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>315</v>
       </c>
@@ -13387,7 +13451,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>317</v>
       </c>
@@ -13405,7 +13469,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>319</v>
       </c>
@@ -13423,7 +13487,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>321</v>
       </c>
@@ -13441,7 +13505,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>323</v>
       </c>
@@ -13459,7 +13523,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>325</v>
       </c>
@@ -13477,7 +13541,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>327</v>
       </c>
@@ -13495,7 +13559,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>329</v>
       </c>
@@ -13513,7 +13577,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>331</v>
       </c>
@@ -13531,7 +13595,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>333</v>
       </c>
@@ -13549,7 +13613,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
@@ -13567,7 +13631,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>338</v>
       </c>
@@ -13583,7 +13647,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>340</v>
       </c>
@@ -13601,7 +13665,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>342</v>
       </c>
@@ -13619,7 +13683,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>344</v>
       </c>
@@ -13637,7 +13701,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -13653,7 +13717,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>349</v>
       </c>
@@ -13671,7 +13735,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>351</v>
       </c>
@@ -13689,7 +13753,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>353</v>
       </c>
@@ -13707,7 +13771,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>355</v>
       </c>
@@ -13725,7 +13789,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>291</v>
       </c>
@@ -13743,7 +13807,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>358</v>
       </c>
@@ -13761,7 +13825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>359</v>
       </c>
@@ -13779,7 +13843,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>361</v>
       </c>
@@ -13797,7 +13861,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
@@ -13815,7 +13879,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
         <v>365</v>
       </c>
@@ -13833,7 +13897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
         <v>366</v>
       </c>
@@ -13851,7 +13915,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>368</v>
       </c>
@@ -13869,7 +13933,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>370</v>
       </c>
@@ -13885,7 +13949,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>372</v>
       </c>
@@ -13903,7 +13967,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>374</v>
       </c>
@@ -13921,7 +13985,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -13939,7 +14003,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>378</v>
       </c>
@@ -13957,7 +14021,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
         <v>380</v>
       </c>
@@ -13973,7 +14037,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
         <v>382</v>
       </c>
@@ -13991,7 +14055,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
         <v>385</v>
       </c>
@@ -14009,7 +14073,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>387</v>
       </c>
@@ -14027,7 +14091,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
         <v>389</v>
       </c>
@@ -14045,7 +14109,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
@@ -14063,7 +14127,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
@@ -14081,7 +14145,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
@@ -14099,7 +14163,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
         <v>397</v>
       </c>
@@ -14117,7 +14181,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
         <v>400</v>
       </c>
@@ -14135,7 +14199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
@@ -14153,7 +14217,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>404</v>
       </c>
@@ -14171,7 +14235,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
@@ -14189,7 +14253,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
         <v>408</v>
       </c>
@@ -14207,7 +14271,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
         <v>410</v>
       </c>
@@ -14225,7 +14289,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>412</v>
       </c>
@@ -14241,7 +14305,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
         <v>414</v>
       </c>
@@ -14259,7 +14323,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
         <v>416</v>
       </c>
@@ -14277,7 +14341,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
         <v>418</v>
       </c>
@@ -14295,7 +14359,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>420</v>
       </c>
@@ -14313,7 +14377,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>422</v>
       </c>
@@ -14329,7 +14393,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
         <v>424</v>
       </c>
@@ -14347,7 +14411,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
         <v>437</v>
       </c>
@@ -14365,7 +14429,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>439</v>
       </c>
@@ -14383,7 +14447,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>430</v>
       </c>
@@ -14401,7 +14465,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
         <v>432</v>
       </c>
@@ -14419,7 +14483,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
         <v>434</v>
       </c>
@@ -14445,33 +14509,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC185"/>
+  <dimension ref="A2:AC195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.69921875" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.09765625" customWidth="1"/>
-    <col min="9" max="9" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.19921875" customWidth="1"/>
-    <col min="12" max="12" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="23.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.19921875" customWidth="1"/>
-    <col min="15" max="15" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="23.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>627</v>
       </c>
@@ -14479,7 +14543,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>636</v>
       </c>
@@ -14508,7 +14572,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>546</v>
       </c>
@@ -14537,7 +14601,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
         <v>672</v>
       </c>
@@ -14561,7 +14625,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>640</v>
       </c>
@@ -14581,7 +14645,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>666</v>
       </c>
@@ -14601,7 +14665,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
         <v>671</v>
       </c>
@@ -14617,7 +14681,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>662</v>
       </c>
@@ -14633,7 +14697,7 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>659</v>
       </c>
@@ -14661,7 +14725,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>704</v>
       </c>
@@ -14689,7 +14753,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>742</v>
       </c>
@@ -14713,7 +14777,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>788</v>
       </c>
@@ -14729,7 +14793,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>784</v>
       </c>
@@ -14745,7 +14809,7 @@
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
         <v>793</v>
       </c>
@@ -14773,7 +14837,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
         <v>792</v>
       </c>
@@ -14801,7 +14865,13 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>881</v>
+      </c>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
@@ -14815,7 +14885,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -14829,7 +14899,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>650</v>
       </c>
@@ -14842,7 +14912,7 @@
       <c r="O19" s="47"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
         <v>636</v>
       </c>
@@ -14862,7 +14932,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>557</v>
       </c>
@@ -14898,7 +14968,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>559</v>
       </c>
@@ -14921,20 +14991,20 @@
       <c r="J22" s="47"/>
       <c r="K22" s="33"/>
       <c r="L22" s="14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>561</v>
       </c>
@@ -14969,7 +15039,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>563</v>
       </c>
@@ -15004,7 +15074,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>565</v>
       </c>
@@ -15039,7 +15109,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>567</v>
       </c>
@@ -15070,7 +15140,7 @@
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>569</v>
       </c>
@@ -15097,7 +15167,7 @@
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>571</v>
       </c>
@@ -15130,7 +15200,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="33"/>
@@ -15138,17 +15208,17 @@
         <v>775</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="N29" s="33"/>
       <c r="O29" s="14" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="34" t="s">
         <v>642</v>
       </c>
@@ -15159,20 +15229,20 @@
       <c r="J30" s="47"/>
       <c r="K30" s="33"/>
       <c r="L30" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N30" s="33"/>
       <c r="O30" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>557</v>
       </c>
@@ -15195,20 +15265,20 @@
       <c r="J31" s="47"/>
       <c r="K31" s="33"/>
       <c r="L31" s="14" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>767</v>
       </c>
       <c r="N31" s="33"/>
       <c r="O31" s="14" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>576</v>
       </c>
@@ -15229,20 +15299,20 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="14" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N32" s="33"/>
       <c r="O32" s="14" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>569</v>
       </c>
@@ -15263,20 +15333,20 @@
       <c r="J33" s="47"/>
       <c r="K33" s="33"/>
       <c r="L33" s="14" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>769</v>
       </c>
       <c r="N33" s="33"/>
       <c r="O33" s="14" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>571</v>
       </c>
@@ -15295,25 +15365,25 @@
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N34" s="33"/>
       <c r="O34" s="14" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
       <c r="K35" s="33"/>
       <c r="L35" s="14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>770</v>
@@ -15322,7 +15392,7 @@
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>667</v>
       </c>
@@ -15342,7 +15412,7 @@
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="38" t="s">
         <v>581</v>
       </c>
@@ -15359,8 +15429,12 @@
       <c r="G37" s="36" t="s">
         <v>757</v>
       </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+      <c r="I37" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>881</v>
+      </c>
       <c r="K37" s="47"/>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
@@ -15368,7 +15442,7 @@
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>693</v>
       </c>
@@ -15385,8 +15459,20 @@
       <c r="G38" s="9" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="I38" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="K38" s="33"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>694</v>
       </c>
@@ -15403,8 +15489,16 @@
       <c r="G39" s="9" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>587</v>
       </c>
@@ -15420,7 +15514,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>678</v>
       </c>
@@ -15438,7 +15532,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>680</v>
       </c>
@@ -15456,7 +15550,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>591</v>
       </c>
@@ -15474,7 +15568,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>571</v>
       </c>
@@ -15490,7 +15584,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="34" t="s">
         <v>600</v>
       </c>
@@ -15498,7 +15592,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>710</v>
       </c>
@@ -15516,7 +15610,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>579</v>
       </c>
@@ -15536,7 +15630,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>605</v>
       </c>
@@ -15554,7 +15648,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>607</v>
       </c>
@@ -15572,7 +15666,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>609</v>
       </c>
@@ -15590,7 +15684,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>611</v>
       </c>
@@ -15606,7 +15700,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>613</v>
       </c>
@@ -15624,7 +15718,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>675</v>
       </c>
@@ -15640,7 +15734,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B55" s="39" t="s">
         <v>664</v>
       </c>
@@ -15654,7 +15748,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56" s="44" t="s">
         <v>705</v>
@@ -15692,7 +15786,7 @@
       <c r="AB56"/>
       <c r="AC56"/>
     </row>
-    <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>658</v>
       </c>
@@ -15731,7 +15825,7 @@
       <c r="AB57"/>
       <c r="AC57"/>
     </row>
-    <row r="58" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>591</v>
       </c>
@@ -15770,7 +15864,7 @@
       <c r="AB58"/>
       <c r="AC58"/>
     </row>
-    <row r="59" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>571</v>
       </c>
@@ -15807,7 +15901,7 @@
       <c r="AB59"/>
       <c r="AC59"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="8" t="s">
         <v>697</v>
@@ -15826,7 +15920,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>595</v>
       </c>
@@ -15842,7 +15936,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>669</v>
       </c>
@@ -15850,7 +15944,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>581</v>
       </c>
@@ -15868,7 +15962,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>615</v>
       </c>
@@ -15886,7 +15980,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>617</v>
       </c>
@@ -15904,7 +15998,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>619</v>
       </c>
@@ -15922,7 +16016,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>621</v>
       </c>
@@ -15940,7 +16034,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>623</v>
       </c>
@@ -15958,7 +16052,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>625</v>
       </c>
@@ -15976,7 +16070,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>591</v>
       </c>
@@ -15994,7 +16088,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>571</v>
       </c>
@@ -16010,7 +16104,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="34" t="s">
         <v>656</v>
       </c>
@@ -16018,7 +16112,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>714</v>
       </c>
@@ -16036,7 +16130,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>615</v>
       </c>
@@ -16054,7 +16148,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
         <v>664</v>
       </c>
@@ -16070,7 +16164,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>617</v>
       </c>
@@ -16088,7 +16182,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>619</v>
       </c>
@@ -16106,7 +16200,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>621</v>
       </c>
@@ -16124,7 +16218,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>623</v>
       </c>
@@ -16142,7 +16236,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>625</v>
       </c>
@@ -16160,7 +16254,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>591</v>
       </c>
@@ -16178,7 +16272,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>571</v>
       </c>
@@ -16194,7 +16288,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="35"/>
       <c r="C85" s="43"/>
       <c r="D85" s="43"/>
@@ -16202,7 +16296,7 @@
       <c r="F85" s="43"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="34" t="s">
         <v>659</v>
       </c>
@@ -16210,7 +16304,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>689</v>
       </c>
@@ -16228,7 +16322,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>710</v>
       </c>
@@ -16246,7 +16340,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>615</v>
       </c>
@@ -16264,7 +16358,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>664</v>
       </c>
@@ -16280,7 +16374,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>617</v>
       </c>
@@ -16298,7 +16392,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>619</v>
       </c>
@@ -16316,7 +16410,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>621</v>
       </c>
@@ -16334,7 +16428,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>623</v>
       </c>
@@ -16352,7 +16446,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="9" t="s">
         <v>625</v>
       </c>
@@ -16370,7 +16464,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>591</v>
       </c>
@@ -16388,7 +16482,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>571</v>
       </c>
@@ -16404,7 +16498,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>704</v>
       </c>
@@ -16412,7 +16506,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
         <v>710</v>
       </c>
@@ -16430,7 +16524,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="11" t="s">
         <v>291</v>
       </c>
@@ -16450,7 +16544,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>579</v>
       </c>
@@ -16468,7 +16562,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="44" t="s">
         <v>699</v>
       </c>
@@ -16486,7 +16580,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>591</v>
       </c>
@@ -16504,7 +16598,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>571</v>
       </c>
@@ -16522,7 +16616,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>593</v>
       </c>
@@ -16540,7 +16634,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>595</v>
       </c>
@@ -16558,7 +16652,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="34" t="s">
         <v>719</v>
       </c>
@@ -16566,7 +16660,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="11" t="s">
         <v>720</v>
       </c>
@@ -16586,7 +16680,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="11" t="s">
         <v>291</v>
       </c>
@@ -16606,7 +16700,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="11" t="s">
         <v>287</v>
       </c>
@@ -16626,7 +16720,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="11" t="s">
         <v>721</v>
       </c>
@@ -16646,7 +16740,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>680</v>
       </c>
@@ -16664,7 +16758,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>722</v>
       </c>
@@ -16682,7 +16776,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>737</v>
       </c>
@@ -16700,7 +16794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>738</v>
       </c>
@@ -16718,7 +16812,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>739</v>
       </c>
@@ -16736,7 +16830,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>740</v>
       </c>
@@ -16754,35 +16848,35 @@
         <v>504</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="34" t="s">
         <v>789</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E126" s="36" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F126" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
         <v>745</v>
       </c>
@@ -16802,7 +16896,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="11" t="s">
         <v>506</v>
       </c>
@@ -16822,7 +16916,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B129" s="11" t="s">
         <v>16</v>
       </c>
@@ -16842,27 +16936,27 @@
         <v>749</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>804</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>799</v>
@@ -16871,32 +16965,32 @@
         <v>44</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="8" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="8" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>591</v>
       </c>
@@ -16914,7 +17008,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>571</v>
       </c>
@@ -16930,7 +17024,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="16"/>
       <c r="B135" s="8" t="s">
         <v>697</v>
@@ -16946,12 +17040,12 @@
       </c>
       <c r="F135" s="41"/>
       <c r="G135" s="9" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>648</v>
@@ -16962,10 +17056,10 @@
       </c>
       <c r="F136" s="42"/>
       <c r="G136" s="9" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B137" s="35"/>
       <c r="C137" s="43"/>
       <c r="D137" s="43"/>
@@ -16973,7 +17067,7 @@
       <c r="F137" s="43"/>
       <c r="G137" s="35"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B138" s="34" t="s">
         <v>790</v>
       </c>
@@ -16981,27 +17075,27 @@
         <v>786</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B139" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C139" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="C139" s="36" t="s">
-        <v>815</v>
-      </c>
       <c r="D139" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E139" s="36" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F139" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B140" s="11" t="s">
         <v>745</v>
       </c>
@@ -17019,7 +17113,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B141" s="11" t="s">
         <v>506</v>
       </c>
@@ -17039,7 +17133,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B142" s="11" t="s">
         <v>16</v>
       </c>
@@ -17059,7 +17153,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B143" s="11" t="s">
         <v>746</v>
       </c>
@@ -17079,27 +17173,27 @@
         <v>744</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>804</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B145" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>799</v>
@@ -17108,34 +17202,34 @@
         <v>44</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>761</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B147" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>778</v>
@@ -17146,12 +17240,12 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B148" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>750</v>
@@ -17160,10 +17254,10 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B149" s="9" t="s">
         <v>751</v>
       </c>
@@ -17177,9 +17271,9 @@
         <v>752</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B150" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>750</v>
@@ -17188,12 +17282,12 @@
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B151" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>750</v>
@@ -17202,10 +17296,10 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>591</v>
       </c>
@@ -17223,7 +17317,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>571</v>
       </c>
@@ -17239,7 +17333,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="16"/>
       <c r="B154" s="8" t="s">
         <v>697</v>
@@ -17258,7 +17352,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B155" s="9" t="s">
         <v>595</v>
       </c>
@@ -17274,7 +17368,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B157" s="34" t="s">
         <v>802</v>
       </c>
@@ -17282,30 +17376,30 @@
         <v>794</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B158" s="11" t="s">
-        <v>689</v>
+        <v>866</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>665</v>
+        <v>868</v>
       </c>
       <c r="D158" s="36"/>
       <c r="E158" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="36" t="s">
-        <v>805</v>
+        <v>691</v>
       </c>
       <c r="G158" s="36" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B159" s="11" t="s">
         <v>763</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>818</v>
+        <v>867</v>
       </c>
       <c r="D159" s="36"/>
       <c r="E159" s="36" t="s">
@@ -17315,19 +17409,19 @@
         <v>681</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B160" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D160" s="36"/>
       <c r="E160" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F160" s="36" t="s">
         <v>681</v>
@@ -17336,18 +17430,18 @@
         <v>767</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E161" s="36" t="s">
         <v>821</v>
-      </c>
-      <c r="C161" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E161" s="36" t="s">
-        <v>823</v>
       </c>
       <c r="F161" s="36" t="s">
         <v>681</v>
@@ -17356,18 +17450,18 @@
         <v>768</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D162" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E162" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F162" s="36" t="s">
         <v>681</v>
@@ -17376,25 +17470,25 @@
         <v>769</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="11" t="s">
         <v>804</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D163" s="36"/>
       <c r="E163" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F163" s="36" t="s">
         <v>681</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="9" t="s">
         <v>803</v>
       </c>
@@ -17410,7 +17504,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="9" t="s">
         <v>761</v>
       </c>
@@ -17426,7 +17520,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>591</v>
       </c>
@@ -17444,7 +17538,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>571</v>
       </c>
@@ -17462,15 +17556,15 @@
         <v>572</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="34" t="s">
         <v>792</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="11" t="s">
         <v>689</v>
       </c>
@@ -17488,7 +17582,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="11" t="s">
         <v>763</v>
       </c>
@@ -17503,10 +17597,10 @@
         <v>681</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="11" t="s">
         <v>745</v>
       </c>
@@ -17524,7 +17618,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="11" t="s">
         <v>542</v>
       </c>
@@ -17544,7 +17638,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174" s="11" t="s">
         <v>737</v>
       </c>
@@ -17564,12 +17658,12 @@
         <v>769</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="11" t="s">
         <v>804</v>
       </c>
       <c r="C175" s="36" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D175" s="36"/>
       <c r="E175" s="36" t="s">
@@ -17579,12 +17673,12 @@
         <v>681</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C176" s="36" t="s">
         <v>755</v>
@@ -17599,10 +17693,10 @@
         <v>681</v>
       </c>
       <c r="G176" s="36" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.4">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="9" t="s">
         <v>798</v>
       </c>
@@ -17615,10 +17709,10 @@
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.4">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>761</v>
       </c>
@@ -17631,12 +17725,12 @@
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.4">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>778</v>
@@ -17650,9 +17744,9 @@
         <v>777</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>750</v>
@@ -17661,10 +17755,10 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.4">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" s="9" t="s">
         <v>751</v>
       </c>
@@ -17679,9 +17773,9 @@
       </c>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>750</v>
@@ -17690,12 +17784,12 @@
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.4">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>750</v>
@@ -17704,10 +17798,10 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.4">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>591</v>
       </c>
@@ -17725,7 +17819,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>571</v>
       </c>
@@ -17740,6 +17834,148 @@
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B187" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="C187" s="34" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B188" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>868</v>
+      </c>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="G188" s="36" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B189" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B190" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B191" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B192" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" s="42"/>
+      <c r="G192" s="9" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" s="41"/>
+      <c r="G193" s="9" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B194" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="8" t="s">
         <v>572</v>
       </c>
     </row>
@@ -17759,30 +17995,30 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.8984375" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>533</v>
       </c>
@@ -17805,7 +18041,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>487</v>
       </c>
@@ -17834,7 +18070,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>453</v>
       </c>
@@ -17869,7 +18105,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>454</v>
       </c>
@@ -17904,7 +18140,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>482</v>
       </c>
@@ -17929,7 +18165,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>484</v>
       </c>
@@ -17958,7 +18194,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>455</v>
       </c>
@@ -17995,7 +18231,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>456</v>
       </c>
@@ -18032,7 +18268,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>457</v>
       </c>
@@ -18057,7 +18293,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>458</v>
       </c>
@@ -18086,7 +18322,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>459</v>
       </c>
@@ -18133,7 +18369,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>460</v>
       </c>
@@ -18180,7 +18416,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>461</v>
       </c>
@@ -18205,7 +18441,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>544</v>
       </c>
@@ -18234,7 +18470,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>543</v>
       </c>
@@ -18271,7 +18507,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>486</v>
       </c>
@@ -18308,7 +18544,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>462</v>
       </c>
@@ -18333,7 +18569,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>463</v>
       </c>
@@ -18362,7 +18598,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>464</v>
       </c>
@@ -18403,7 +18639,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>485</v>
       </c>
@@ -18444,7 +18680,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>465</v>
       </c>
@@ -18469,7 +18705,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>466</v>
       </c>
@@ -18498,7 +18734,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>467</v>
       </c>
@@ -18553,7 +18789,7 @@
       </c>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="s">
         <v>468</v>
       </c>
@@ -18608,7 +18844,7 @@
       </c>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
         <v>469</v>
       </c>
@@ -18633,7 +18869,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>470</v>
       </c>
@@ -18662,7 +18898,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>471</v>
       </c>
@@ -18719,7 +18955,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>472</v>
       </c>
@@ -18776,7 +19012,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>473</v>
       </c>
@@ -18801,7 +19037,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>474</v>
       </c>
@@ -18826,7 +19062,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
         <v>475</v>
       </c>
@@ -18851,7 +19087,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="23" t="s">
         <v>476</v>
       </c>
@@ -18876,7 +19112,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>477</v>
       </c>
@@ -18901,7 +19137,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>478</v>
       </c>
@@ -18926,7 +19162,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>479</v>
       </c>
@@ -18951,7 +19187,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>480</v>
       </c>
@@ -18976,7 +19212,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>481</v>
       </c>
@@ -19001,7 +19237,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -19009,7 +19245,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>627</v>
       </c>
@@ -19017,7 +19253,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>545</v>
       </c>
@@ -19032,7 +19268,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>546</v>
       </c>
@@ -19064,7 +19300,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>547</v>
       </c>
@@ -19096,7 +19332,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>548</v>
       </c>
@@ -19104,7 +19340,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>549</v>
       </c>
@@ -19118,7 +19354,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>550</v>
       </c>
@@ -19138,7 +19374,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E46" s="11" t="s">
         <v>558</v>
       </c>
@@ -19152,12 +19388,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E48" s="12" t="s">
         <v>596</v>
       </c>
@@ -19167,7 +19403,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" s="11" t="s">
         <v>579</v>
       </c>
@@ -19199,7 +19435,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" s="11" t="s">
         <v>580</v>
       </c>
@@ -19231,7 +19467,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="12" t="s">
         <v>598</v>
       </c>
@@ -19239,7 +19475,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="11" t="s">
         <v>579</v>
       </c>
@@ -19259,7 +19495,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="11" t="s">
         <v>580</v>
       </c>
@@ -19279,12 +19515,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" s="12" t="s">
         <v>600</v>
       </c>
@@ -19293,7 +19529,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
         <v>579</v>
       </c>
@@ -19325,7 +19561,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
         <v>580</v>
       </c>
@@ -19357,12 +19593,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60" s="12" t="s">
         <v>602</v>
       </c>
@@ -19371,7 +19607,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61" s="11" t="s">
         <v>579</v>
       </c>
@@ -19409,7 +19645,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62" s="11" t="s">
         <v>580</v>
       </c>
@@ -19447,86 +19683,86 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>

--- a/etc/DB_테이블_스펙_20190328.xlsx
+++ b/etc/DB_테이블_스펙_20190328.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="889">
   <si>
     <t>F12506</t>
   </si>
@@ -2949,6 +2949,26 @@
   </si>
   <si>
     <t>(pk) cs_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F12506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(8,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pk) F12506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4725,15 +4745,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1696985</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>208019</xdr:rowOff>
+      <xdr:colOff>1687459</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81545</xdr:colOff>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>5348</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4742,8 +4762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="19026188" y="5376866"/>
-          <a:ext cx="425979" cy="146685"/>
+          <a:off x="19041242" y="5572892"/>
+          <a:ext cx="400050" cy="169915"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
         </a:xfrm>
@@ -4925,13 +4945,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>137164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>467889</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>60964</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4941,7 +4961,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="17000220" y="5795014"/>
+          <a:off x="17000220" y="6004564"/>
           <a:ext cx="460269" cy="133350"/>
           <a:chOff x="7688582" y="571500"/>
           <a:chExt cx="685800" cy="215722"/>
@@ -14509,10 +14529,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC195"/>
+  <dimension ref="A2:AC199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15026,17 +15046,17 @@
       <c r="J23" s="47"/>
       <c r="K23" s="33"/>
       <c r="L23" s="14" t="s">
-        <v>771</v>
+        <v>887</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>767</v>
+        <v>888</v>
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="14" t="s">
-        <v>771</v>
+        <v>887</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>767</v>
+        <v>888</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
@@ -15061,17 +15081,17 @@
       <c r="J24" s="47"/>
       <c r="K24" s="33"/>
       <c r="L24" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N24" s="33"/>
       <c r="O24" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
@@ -15096,17 +15116,17 @@
       <c r="J25" s="47"/>
       <c r="K25" s="33"/>
       <c r="L25" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N25" s="33"/>
       <c r="O25" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -15131,14 +15151,18 @@
       <c r="J26" s="47"/>
       <c r="K26" s="33"/>
       <c r="L26" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="O26" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
@@ -15161,8 +15185,12 @@
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
       <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27"